--- a/Daily_Activity_Tracker_Template.xlsx
+++ b/Daily_Activity_Tracker_Template.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BC2D68-1F5D-4907-B622-DBAA3662015A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFDD249-9AB6-440F-AEFA-94AEC601ECD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Daily_Update" sheetId="1" r:id="rId1"/>
+    <sheet name="General" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="61">
   <si>
     <t>Date</t>
   </si>
@@ -69,9 +70,6 @@
   </si>
   <si>
     <t>Home Cleaning Level (1-5)</t>
-  </si>
-  <si>
-    <t>Notes</t>
   </si>
   <si>
     <t>Sleep Time Yesterday</t>
@@ -185,6 +183,45 @@
   </si>
   <si>
     <t>Tea-&gt;Meditate-&gt;Aarti-&gt;cloth wash-&gt;Poha tiffin-&gt;sprouts prepare-&gt;ofc. At ofc Shreesh sir told to do CRC work along with sagar, which we did using chatGPT. Then we update our whole Configuartion file which is now containing correct CRC value. Then one bday celebration. Then went for TT at 5pm. Then come Aditi and grp. Played caram with them. Before they came ppl like amit senwal, sweta and some other were making fun of me that I will go to play caram after some time. I didnt care about them and just went to paly. Then I also eat with them. From Friday I am completly ignoring Tanya and I simply dont want any kind of communication with her and I am mentally very happy, stressfree, and calm with having distance with her. Just a little disappoint with myself. Though I know that even if I got sex its not going to make me happier. My life will be as usual. But I am continously thinking that Tanya and vishwas are doing sex and I am not done even a single time. This thought is bothering me. I know that even I slept with Tanya or 100s of women it will not fullfill my desire and ppl like tanya are using my this weakness. Why am I not able to make myself understand that just enjoy whatever is in the current moment and I have every thing in this moment like maa, papa, didi, job, mental and physical health, good team with whom I work at ofc. I am not enjoying even 25% of what life has given to me and I am only thinging about sex with Tanya or with other girls. There will be a time come when I get a lot of sex but many thing which I have I will not have tahat time and I will regret alot. Please Amit understand and enjoy life every moment and live in present. Whatever happened in the past is good for you. You have learnt alot. Now you can see u are easily taking to alot of girls. Whereas other boys are just seeing from far and not able to come close to the girls. Its your learning only. Think what else you can improve on yourself. How you can earn more respect. How u can increase your value. Also I taked with Utkarsh(intern) at lunch time at his seat. I had decided that i will open up myself to more and more people whether it is girl or boy or senior or junior or any category. I will not strict myself to a particular person. I will make many male friends as well as female friends. I will indulge in many activities like I will take part in cultural event, I will dance, I will act, I will take lead on work/project. I will represent my team at various forum. I will gain more and more knowlegde about my project weather it is sweata's work sagar's work or system team or development team work, I will try to know about every thing. I will be very much interested in my work. I will do various activities with my maa like aarti and going to various tamples, shopping. I will engage maa in various activities with me. I will meditae. I will reamin in still state every single sec.</t>
+  </si>
+  <si>
+    <t>Aarti</t>
+  </si>
+  <si>
+    <t>Naam Jap &gt; 30 mins</t>
+  </si>
+  <si>
+    <t>Tea-&gt;Aarti-&gt;ofc. Good discussion and work of tool creation and updation. Created file scp tool. Updated sir's tags.py code for CRC inclusion. Also udated all csv's with correct CRC using chatGPT. Diet was good. After 5pm went for TT. Played TT. Then many collegues like sweta, amit semwal were teaseing me about playing caram with the TE girls. Then they came aroung 5:40. That time I was playing TT. They then took badminton racket and went outside to play. Then after finishing my TT game I also went around them. Aditi initiate conversion saying "Apko to ye game bhi nahi aata hoga". Then i stayed their and also played with them. Then I went for shake at fruit shop. Then ashutosh said lets play caram, I also said lets go. Then me and him wemt inside for caram. Aditi and others were playing badminton but I knew that they will come. Then after 5-10 minutes they also came and played for 30 minutes. At parking Kapil sir was asking me that are u getting any lead. I said not really sir. Jyoti and Tanu were also there. Then I went room. But disappointed again as my mind instead of thinking about so many good thinks happening in my life, thinked alot about Tanya related things again. Today she was sitting with vishwas at wing6 during lunch time, whereas she was not putting her bag wing6 after our discussion at friday. I know she dont want me to through her out of mind and she still wants to play mindgame. But this time i am clear thateither she should hookup with and kiss me first then only our friendship will move resume else I am very happy distancing her and she should stay as much away from me as possible.</t>
+  </si>
+  <si>
+    <t>Brushed at night</t>
+  </si>
+  <si>
+    <t>KPA and Medical dependent photo upload on ESS on first half. Then not any work in second half. Then TT at 5pm. Samyak sir and some other were teasing me that I will go to play caram after some time. I ignored them and went to play caram as Shivtosh had arrived. Then me shivtosh ankush were playing. Then after sometime Aditi came. Then I called her that lets join us. Then we played. Sagar asked priya to play chess but she refused. I asked sweta to bring poha for me which she refused. Then asked prashant he brought. Then at parking met aditi's friend whose name I am forgrtting, that thin girl. Then I talked with her. She told she live at cahnder nagar block C. She said needs to search room for aditi as well as she was currently living at infininza PG. Today also struggle little with that thoughts which are coming from sometime about sex , hookup, and what else would had been happened if I was having knowlegde about hookups, I had done so many things with Tanya. But these thought should not come in my mind and I should look what is in front of me at this moment. Aditi the mostbeautiful girl in CRL is giving me so much attention and respect so I should feel and live this thing. Also mind makes thing much beautiful than it would actually be if happen. So instead of regreting about past thing just take it as a learning tool and enjoy now. My now is actually very awsome. Aditi is liking me. Even at eveing today during workout I saw that somw AGM or GMs daughter ho is so beatiful and I had many eye contacts with her. I then again saw her at marwari shop at 9:00 pm today and she looks at me. They were living in my colony after shifting from Bel colony.</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Journal</t>
+  </si>
+  <si>
+    <t>About</t>
+  </si>
+  <si>
+    <t>UnFapped for 8 consecutive days after many many years. Biggest achievemnt of my life.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am achieving many difficult thing slowly slowly in my life. I was addicted to FAP. I didn’t require any porn or any sexual view or any thing to urge for FAP. I just was doing it habitually and its count reached to two times a day from 1 time a day and it went for many months. I started FAPPing in ofc or even in other ppl houses. I as getting comfortable FAPPING 3 to 4 times tha day whenever I gets more stress. But Today a day has come were I have a series of zero FAP count for 8 days. Also after so many days of fixing of things I finally wake up today at 7 am and I want to make consistency in waking up tilll 7 and sleeping till 11 pm. </t>
+  </si>
+  <si>
+    <t>Learnt that I am better satying in my room rather desperate for going out for any reasons like setting a girl or knowing or exploring new things.</t>
+  </si>
+  <si>
+    <t>Journal Time</t>
+  </si>
+  <si>
+    <t>Waked up at good time at 7 am. Tea -&gt; very little meditation -&gt; Hanuman chalisha with maa over call -&gt; ofc -&gt; some coding work with shreesh sir for various modules health packets parsing -&gt; then TT at 5 -&gt; sat outside reading books at canteen -&gt; then aditi, shruti, and madhu came I said very crowded inside, then we all went in, I asked aditi second caram is free, shall we play there, she said lets play. Then we started playing, then first caram gets freed so we went on it. Then we played well. Then interesting things happen during snacks time. Madhulika brought Tea for me and Aditi, then shruti brought 4 Tea in a tray. Then Shivtosh offered his snacks(rolls) to me. So we all done snacks while playing. Then Shruti said its little boring game, lets plat some other game. Then she proposed lets play UNO. Then they said they will bring UNO cards tommorow. Then we all went out from ofc together talking. Then at boc met rakesh bhai and bhabhi. Then after sometime I saw madhulika came for dinner. I talked with her. Then I said lets sit together and brought chair for her at our table. Then she said she came with his friend of same batch so i said ok u eat with him. Then I called sandeep rana to come and sit with us.</t>
   </si>
 </sst>
 </file>
@@ -222,7 +259,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -245,11 +282,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -260,6 +308,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,999 +616,1402 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U17"/>
+  <dimension ref="A1:X20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="52" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" customWidth="1"/>
-    <col min="12" max="12" width="19.5703125" customWidth="1"/>
-    <col min="13" max="13" width="30.5703125" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" customWidth="1"/>
-    <col min="15" max="15" width="22.28515625" customWidth="1"/>
-    <col min="16" max="16" width="18.5703125" customWidth="1"/>
-    <col min="17" max="17" width="20.7109375" customWidth="1"/>
-    <col min="18" max="18" width="19.28515625" customWidth="1"/>
-    <col min="19" max="19" width="23" customWidth="1"/>
-    <col min="20" max="20" width="26" customWidth="1"/>
+    <col min="1" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" customWidth="1"/>
+    <col min="12" max="12" width="20.85546875" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" customWidth="1"/>
+    <col min="14" max="14" width="30.5703125" customWidth="1"/>
+    <col min="15" max="15" width="21.85546875" customWidth="1"/>
+    <col min="16" max="16" width="22.28515625" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" customWidth="1"/>
+    <col min="19" max="19" width="19.28515625" customWidth="1"/>
+    <col min="20" max="20" width="23" customWidth="1"/>
+    <col min="21" max="21" width="26" customWidth="1"/>
+    <col min="23" max="23" width="16.140625" customWidth="1"/>
+    <col min="24" max="24" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="K1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="S1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="U1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>45817</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3"/>
+      <c r="C2" s="2">
         <v>0.3125</v>
       </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2">
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>7.5</v>
       </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2">
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
       <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2">
+        <v>180</v>
+      </c>
+      <c r="M2">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>20</v>
       </c>
-      <c r="I2">
-        <v>5</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2">
-        <v>180</v>
-      </c>
-      <c r="L2">
-        <v>5</v>
-      </c>
-      <c r="M2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" t="s">
-        <v>19</v>
-      </c>
       <c r="O2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P2" t="s">
         <v>19</v>
       </c>
       <c r="Q2" t="s">
-        <v>19</v>
-      </c>
-      <c r="S2">
+        <v>18</v>
+      </c>
+      <c r="R2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V2" t="s">
+        <v>19</v>
+      </c>
+      <c r="W2" t="s">
+        <v>19</v>
+      </c>
+      <c r="X2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>45818</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3"/>
+      <c r="C3" s="2">
         <v>0.3125</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
         <v>6.25E-2</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3">
         <v>3.8</v>
       </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
+      <c r="K3" t="s">
+        <v>19</v>
       </c>
       <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
         <v>30</v>
       </c>
-      <c r="M3" t="s">
-        <v>19</v>
-      </c>
       <c r="N3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P3" t="s">
         <v>19</v>
       </c>
       <c r="Q3" t="s">
-        <v>20</v>
-      </c>
-      <c r="S3">
+        <v>18</v>
+      </c>
+      <c r="R3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T3">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" ht="90" x14ac:dyDescent="0.25">
+      <c r="V3" t="s">
+        <v>19</v>
+      </c>
+      <c r="W3" t="s">
+        <v>19</v>
+      </c>
+      <c r="X3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>45819</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3"/>
+      <c r="C4" s="2">
         <v>0.20833333333333334</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>0.44791666666666669</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4">
+      <c r="F4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
       <c r="H4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4">
         <v>4.2</v>
       </c>
-      <c r="J4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4">
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4">
         <v>30</v>
       </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4" t="s">
-        <v>19</v>
+      <c r="M4">
+        <v>0</v>
       </c>
       <c r="N4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P4" t="s">
         <v>19</v>
       </c>
       <c r="Q4" t="s">
-        <v>20</v>
-      </c>
-      <c r="S4">
+        <v>18</v>
+      </c>
+      <c r="R4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T4">
         <v>4</v>
       </c>
-      <c r="T4" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="V4" t="s">
+        <v>19</v>
+      </c>
+      <c r="W4" t="s">
+        <v>19</v>
+      </c>
+      <c r="X4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>45820</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3"/>
+      <c r="C5" s="2">
         <v>0.375</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <v>0.10416666666666667</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5">
+      <c r="F5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5">
         <v>2</v>
       </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
       <c r="H5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5">
         <v>3.4</v>
       </c>
-      <c r="J5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5">
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5">
         <v>5</v>
       </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5" t="s">
-        <v>19</v>
+      <c r="M5">
+        <v>0</v>
       </c>
       <c r="N5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q5" t="s">
-        <v>20</v>
-      </c>
-      <c r="S5">
+        <v>19</v>
+      </c>
+      <c r="R5" t="s">
+        <v>19</v>
+      </c>
+      <c r="T5">
         <v>2.7</v>
       </c>
-      <c r="T5" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="U5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="V5" t="s">
+        <v>19</v>
+      </c>
+      <c r="W5" t="s">
+        <v>19</v>
+      </c>
+      <c r="X5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>45821</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3"/>
+      <c r="C6" s="2">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="2">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6">
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6">
         <v>2</v>
       </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
       <c r="H6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6">
         <v>3</v>
       </c>
-      <c r="J6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6">
+      <c r="K6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6">
         <v>30</v>
       </c>
-      <c r="M6" t="s">
-        <v>19</v>
-      </c>
       <c r="N6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P6" t="s">
         <v>19</v>
       </c>
-      <c r="S6">
+      <c r="Q6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T6">
         <v>3</v>
       </c>
-      <c r="T6" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="W6" t="s">
+        <v>19</v>
+      </c>
+      <c r="X6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>45822</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3"/>
+      <c r="C7" s="2">
         <v>0.35416666666666669</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" s="2">
         <v>0.52083333333333337</v>
       </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7">
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7">
         <v>3</v>
       </c>
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
       <c r="H7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7">
+        <v>19</v>
+      </c>
+      <c r="I7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7">
         <v>5</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>2</v>
       </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7" t="s">
-        <v>19</v>
+      <c r="M7">
+        <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P7" t="s">
         <v>19</v>
       </c>
       <c r="Q7" t="s">
-        <v>20</v>
-      </c>
-      <c r="S7">
+        <v>18</v>
+      </c>
+      <c r="R7" t="s">
+        <v>19</v>
+      </c>
+      <c r="T7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="W7" t="s">
+        <v>19</v>
+      </c>
+      <c r="X7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>45823</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3"/>
+      <c r="C8" s="2">
         <v>0.35416666666666669</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D8" s="2">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>19</v>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8">
+        <v>18</v>
+      </c>
+      <c r="I8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8">
         <v>2.5</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>2</v>
       </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8" t="s">
-        <v>20</v>
+      <c r="M8">
+        <v>0</v>
       </c>
       <c r="N8" t="s">
         <v>19</v>
       </c>
       <c r="O8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q8" t="s">
         <v>19</v>
       </c>
       <c r="R8" t="s">
-        <v>19</v>
-      </c>
-      <c r="S8">
+        <v>18</v>
+      </c>
+      <c r="S8" t="s">
+        <v>18</v>
+      </c>
+      <c r="T8">
         <v>1</v>
       </c>
-      <c r="T8" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="U8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="W8" t="s">
+        <v>19</v>
+      </c>
+      <c r="X8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>45824</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3"/>
+      <c r="C9" s="2">
         <v>0.35416666666666669</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D9" s="2">
         <v>6.25E-2</v>
       </c>
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9">
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9">
         <v>1</v>
       </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
       <c r="H9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9">
         <v>1.5</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>2.5</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>5</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>10</v>
       </c>
-      <c r="M9" t="s">
-        <v>20</v>
-      </c>
       <c r="N9" t="s">
         <v>19</v>
       </c>
       <c r="O9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R9" t="s">
         <v>19</v>
       </c>
-      <c r="S9">
+      <c r="S9" t="s">
+        <v>18</v>
+      </c>
+      <c r="T9">
         <v>3</v>
       </c>
-      <c r="T9" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="U9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="W9" t="s">
+        <v>19</v>
+      </c>
+      <c r="X9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>45825</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3"/>
+      <c r="C10" s="2">
         <v>0.35416666666666669</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D10" s="2">
         <v>0.14583333333333334</v>
       </c>
-      <c r="E10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10" t="s">
-        <v>20</v>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10">
+        <v>19</v>
+      </c>
+      <c r="I10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10">
         <v>1.5</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>2.5</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>60</v>
       </c>
-      <c r="M10" t="s">
-        <v>19</v>
-      </c>
       <c r="N10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O10" t="s">
         <v>19</v>
       </c>
       <c r="P10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R10" t="s">
         <v>19</v>
       </c>
-      <c r="S10">
+      <c r="S10" t="s">
+        <v>18</v>
+      </c>
+      <c r="T10">
         <v>2</v>
       </c>
-      <c r="T10" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="W10" t="s">
+        <v>19</v>
+      </c>
+      <c r="X10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>45826</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3"/>
+      <c r="C11" s="2">
         <v>0.51041666666666663</v>
       </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11" t="s">
-        <v>19</v>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11">
         <v>1.5</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>2</v>
-      </c>
-      <c r="K11">
-        <v>10</v>
       </c>
       <c r="L11">
         <v>10</v>
       </c>
-      <c r="M11" t="s">
-        <v>19</v>
+      <c r="M11">
+        <v>10</v>
       </c>
       <c r="N11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O11" t="s">
         <v>19</v>
       </c>
       <c r="P11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R11" t="s">
         <v>19</v>
       </c>
-      <c r="S11">
+      <c r="S11" t="s">
+        <v>18</v>
+      </c>
+      <c r="T11">
         <v>1.8</v>
       </c>
-      <c r="T11" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="W11" t="s">
+        <v>19</v>
+      </c>
+      <c r="X11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>45827</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3"/>
+      <c r="C12" s="2">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C12" s="5">
+      <c r="D12" s="5">
         <v>0.95833333333333337</v>
       </c>
-      <c r="E12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12">
+      <c r="F12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12">
         <v>2</v>
       </c>
-      <c r="G12" t="s">
-        <v>20</v>
-      </c>
       <c r="H12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12">
+        <v>19</v>
+      </c>
+      <c r="I12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12">
         <v>2.5</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>3.1</v>
       </c>
-      <c r="M12" t="s">
-        <v>19</v>
-      </c>
       <c r="N12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P12" t="s">
         <v>19</v>
       </c>
       <c r="Q12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R12" t="s">
-        <v>19</v>
-      </c>
-      <c r="S12">
+        <v>18</v>
+      </c>
+      <c r="S12" t="s">
+        <v>18</v>
+      </c>
+      <c r="T12">
         <v>1.5</v>
       </c>
-      <c r="T12" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="W12" t="s">
+        <v>19</v>
+      </c>
+      <c r="X12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>45828</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3"/>
+      <c r="C13" s="2">
         <v>0.35416666666666669</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D13" s="2">
         <v>0.52083333333333337</v>
       </c>
-      <c r="E13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13" t="s">
-        <v>20</v>
+      <c r="F13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13">
+        <v>19</v>
+      </c>
+      <c r="I13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13">
         <v>2.5</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>3</v>
       </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
       <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
         <v>10</v>
       </c>
-      <c r="M13" t="s">
-        <v>19</v>
-      </c>
       <c r="N13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O13" t="s">
         <v>19</v>
       </c>
       <c r="P13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R13" t="s">
-        <v>20</v>
-      </c>
-      <c r="S13">
+        <v>18</v>
+      </c>
+      <c r="S13" t="s">
+        <v>19</v>
+      </c>
+      <c r="T13">
         <v>1.4</v>
       </c>
-      <c r="T13" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" t="s">
+        <v>19</v>
+      </c>
+      <c r="X13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>45829</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3"/>
+      <c r="C14" s="2">
         <v>0.375</v>
       </c>
-      <c r="C14" s="2">
+      <c r="D14" s="2">
         <v>0.91666666666666663</v>
       </c>
-      <c r="E14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14" t="s">
-        <v>20</v>
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14">
-        <v>3</v>
+        <v>19</v>
+      </c>
+      <c r="I14" t="s">
+        <v>19</v>
       </c>
       <c r="J14">
         <v>3</v>
       </c>
       <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
         <v>60</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>20</v>
       </c>
-      <c r="M14" t="s">
-        <v>19</v>
-      </c>
       <c r="N14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P14" t="s">
         <v>19</v>
       </c>
       <c r="Q14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R14" t="s">
-        <v>20</v>
-      </c>
-      <c r="S14">
+        <v>19</v>
+      </c>
+      <c r="S14" t="s">
+        <v>19</v>
+      </c>
+      <c r="T14">
         <v>3.5</v>
       </c>
-      <c r="T14" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="W14" t="s">
+        <v>19</v>
+      </c>
+      <c r="X14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>45830</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3"/>
+      <c r="C15" s="2">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C15" s="2">
+      <c r="D15" s="2">
         <v>0.96875</v>
       </c>
-      <c r="E15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="F15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>60</v>
+      </c>
+      <c r="M15">
         <v>20</v>
       </c>
-      <c r="H15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="J15">
-        <v>3</v>
-      </c>
-      <c r="K15">
-        <v>60</v>
-      </c>
-      <c r="L15">
-        <v>20</v>
-      </c>
-      <c r="M15" t="s">
-        <v>19</v>
-      </c>
       <c r="N15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O15" t="s">
         <v>19</v>
       </c>
       <c r="P15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R15" t="s">
-        <v>20</v>
-      </c>
-      <c r="S15">
+        <v>19</v>
+      </c>
+      <c r="S15" t="s">
+        <v>19</v>
+      </c>
+      <c r="T15">
         <v>3.5</v>
       </c>
-      <c r="T15" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="W15" t="s">
+        <v>19</v>
+      </c>
+      <c r="X15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>45831</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="3"/>
+      <c r="C16" s="2">
         <v>0.34375</v>
       </c>
-      <c r="C16" s="2">
+      <c r="D16" s="2">
         <v>0.46875</v>
       </c>
-      <c r="E16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16" t="s">
-        <v>19</v>
+      <c r="F16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16">
+        <v>18</v>
+      </c>
+      <c r="I16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16">
         <v>2.2000000000000002</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>2.5</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>25</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>15</v>
       </c>
-      <c r="M16" t="s">
-        <v>19</v>
-      </c>
       <c r="N16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R16" t="s">
-        <v>20</v>
-      </c>
-      <c r="S16">
+        <v>19</v>
+      </c>
+      <c r="S16" t="s">
+        <v>19</v>
+      </c>
+      <c r="T16">
         <v>3.5</v>
       </c>
-      <c r="T16" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="V16" t="s">
+        <v>19</v>
+      </c>
+      <c r="W16" t="s">
+        <v>19</v>
+      </c>
+      <c r="X16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>45832</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="3"/>
+      <c r="C17" s="2">
         <v>0.30208333333333331</v>
       </c>
-      <c r="C17" s="2">
+      <c r="D17" s="2">
         <v>0.5</v>
       </c>
-      <c r="E17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17" t="s">
-        <v>19</v>
+      <c r="F17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17">
+        <v>18</v>
+      </c>
+      <c r="I17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17">
         <v>2.6</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>3</v>
       </c>
-      <c r="M17" t="s">
-        <v>19</v>
+      <c r="L17">
+        <v>5</v>
+      </c>
+      <c r="M17">
+        <v>25</v>
       </c>
       <c r="N17" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="O17" t="s">
+        <v>18</v>
       </c>
       <c r="P17" t="s">
         <v>19</v>
       </c>
       <c r="Q17" t="s">
+        <v>18</v>
+      </c>
+      <c r="R17" t="s">
+        <v>19</v>
+      </c>
+      <c r="S17" t="s">
+        <v>19</v>
+      </c>
+      <c r="T17">
+        <v>3.7</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="V17" t="s">
+        <v>18</v>
+      </c>
+      <c r="W17" t="s">
+        <v>19</v>
+      </c>
+      <c r="X17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>45833</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="2">
+        <v>0.34375</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18">
+        <v>2.9</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>5</v>
+      </c>
+      <c r="M18">
+        <v>15</v>
+      </c>
+      <c r="N18" t="s">
+        <v>18</v>
+      </c>
+      <c r="O18" t="s">
+        <v>18</v>
+      </c>
+      <c r="P18" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>18</v>
+      </c>
+      <c r="R18" t="s">
+        <v>19</v>
+      </c>
+      <c r="S18" t="s">
+        <v>18</v>
+      </c>
+      <c r="T18">
+        <v>3.7</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="V18" t="s">
+        <v>18</v>
+      </c>
+      <c r="W18" t="s">
+        <v>19</v>
+      </c>
+      <c r="X18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>45834</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="2">
+        <v>0.34375</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="F19" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19">
+        <v>2.9</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>15</v>
+      </c>
+      <c r="M19">
         <v>20</v>
       </c>
-      <c r="R17" t="s">
-        <v>20</v>
-      </c>
-      <c r="S17">
+      <c r="N19" t="s">
+        <v>19</v>
+      </c>
+      <c r="O19" t="s">
+        <v>18</v>
+      </c>
+      <c r="P19" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>18</v>
+      </c>
+      <c r="R19" t="s">
+        <v>19</v>
+      </c>
+      <c r="S19" t="s">
+        <v>19</v>
+      </c>
+      <c r="T19">
         <v>3.7</v>
       </c>
-      <c r="T17" s="4" t="s">
-        <v>47</v>
+      <c r="U19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="V19" t="s">
+        <v>19</v>
+      </c>
+      <c r="W19" t="s">
+        <v>19</v>
+      </c>
+      <c r="X19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>45835</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.96527777777777779</v>
+      </c>
+      <c r="F20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20">
+        <v>2.8</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>18</v>
+      </c>
+      <c r="O20" t="s">
+        <v>18</v>
+      </c>
+      <c r="P20" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>18</v>
+      </c>
+      <c r="R20" t="s">
+        <v>18</v>
+      </c>
+      <c r="S20" t="s">
+        <v>18</v>
+      </c>
+      <c r="T20">
+        <v>3.6</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="V20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93705B71-B67A-491B-A5BA-4FFCED5EBDF0}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="40.85546875" customWidth="1"/>
+    <col min="4" max="4" width="33.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>45835</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.34166666666666667</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>45835</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Daily_Activity_Tracker_Template.xlsx
+++ b/Daily_Activity_Tracker_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFDD249-9AB6-440F-AEFA-94AEC601ECD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7728083C-734D-4E93-BD01-678A31D9F26E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -308,7 +308,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -620,36 +620,36 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
-    <col min="9" max="9" width="20.5703125" customWidth="1"/>
-    <col min="10" max="10" width="22.28515625" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" customWidth="1"/>
-    <col min="12" max="12" width="20.85546875" customWidth="1"/>
-    <col min="13" max="13" width="19.5703125" customWidth="1"/>
-    <col min="14" max="14" width="30.5703125" customWidth="1"/>
-    <col min="15" max="15" width="21.85546875" customWidth="1"/>
-    <col min="16" max="16" width="22.28515625" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" customWidth="1"/>
-    <col min="18" max="18" width="20.7109375" customWidth="1"/>
-    <col min="19" max="19" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" customWidth="1"/>
+    <col min="4" max="4" width="20.81640625" customWidth="1"/>
+    <col min="5" max="5" width="17.7265625" customWidth="1"/>
+    <col min="6" max="6" width="17.1796875" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" customWidth="1"/>
+    <col min="8" max="8" width="18.7265625" customWidth="1"/>
+    <col min="9" max="9" width="20.54296875" customWidth="1"/>
+    <col min="10" max="10" width="22.26953125" customWidth="1"/>
+    <col min="11" max="11" width="16.1796875" customWidth="1"/>
+    <col min="12" max="12" width="20.81640625" customWidth="1"/>
+    <col min="13" max="13" width="19.54296875" customWidth="1"/>
+    <col min="14" max="14" width="30.54296875" customWidth="1"/>
+    <col min="15" max="15" width="21.81640625" customWidth="1"/>
+    <col min="16" max="16" width="22.26953125" customWidth="1"/>
+    <col min="17" max="17" width="18.54296875" customWidth="1"/>
+    <col min="18" max="18" width="20.7265625" customWidth="1"/>
+    <col min="19" max="19" width="19.26953125" customWidth="1"/>
     <col min="20" max="20" width="23" customWidth="1"/>
     <col min="21" max="21" width="26" customWidth="1"/>
-    <col min="23" max="23" width="16.140625" customWidth="1"/>
-    <col min="24" max="24" width="20.28515625" customWidth="1"/>
+    <col min="23" max="23" width="16.1796875" customWidth="1"/>
+    <col min="24" max="24" width="20.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,7 +723,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>45817</v>
       </c>
@@ -789,7 +789,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>45818</v>
       </c>
@@ -855,7 +855,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="87" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>45819</v>
       </c>
@@ -921,7 +921,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>45820</v>
       </c>
@@ -987,7 +987,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>45821</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>45822</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>45823</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>45824</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>45825</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>45826</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>45827</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>45828</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>45829</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>45830</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>45831</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>45832</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>45833</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>45834</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>45835</v>
       </c>
@@ -1969,13 +1969,13 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="40.85546875" customWidth="1"/>
-    <col min="4" max="4" width="33.85546875" customWidth="1"/>
+    <col min="3" max="3" width="40.81640625" customWidth="1"/>
+    <col min="4" max="4" width="33.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>45835</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>45835</v>
       </c>

--- a/Daily_Activity_Tracker_Template.xlsx
+++ b/Daily_Activity_Tracker_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7728083C-734D-4E93-BD01-678A31D9F26E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF578FAF-0A1D-4903-BF02-45840092F44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="68">
   <si>
     <t>Date</t>
   </si>
@@ -222,6 +222,27 @@
   </si>
   <si>
     <t>Waked up at good time at 7 am. Tea -&gt; very little meditation -&gt; Hanuman chalisha with maa over call -&gt; ofc -&gt; some coding work with shreesh sir for various modules health packets parsing -&gt; then TT at 5 -&gt; sat outside reading books at canteen -&gt; then aditi, shruti, and madhu came I said very crowded inside, then we all went in, I asked aditi second caram is free, shall we play there, she said lets play. Then we started playing, then first caram gets freed so we went on it. Then we played well. Then interesting things happen during snacks time. Madhulika brought Tea for me and Aditi, then shruti brought 4 Tea in a tray. Then Shivtosh offered his snacks(rolls) to me. So we all done snacks while playing. Then Shruti said its little boring game, lets plat some other game. Then she proposed lets play UNO. Then they said they will bring UNO cards tommorow. Then we all went out from ofc together talking. Then at boc met rakesh bhai and bhabhi. Then after sometime I saw madhulika came for dinner. I talked with her. Then I said lets sit together and brought chair for her at our table. Then she said she came with his friend of same batch so i said ok u eat with him. Then I called sandeep rana to come and sit with us.</t>
+  </si>
+  <si>
+    <t>No much work at ofc. Shreesh sir left at 15:00. Then at 17:00 sweta saw Aditi and grp coming to play. She informed me sir your friends are coming. I thought things are getting awkward especially for them so let me go aftern some time. Hen I went after 15 minutes. Aditi, Shruti and madhu were plaing caram. As soon as I entered Aditi said you are late. I said u guys came early today. Then Shruti asked me "have u brought UNO cards". I said u ppl told that u will bring so I didnt bought. Then Aditi told that it will cost hardly around 100 so we will bring it. Then we were playing then Sagar came from nowhere desperatly to play caram. She replaced madhulika and statrts playing. Then I gave chance to shivtosh to play as he also came. Then after one game finish Aditi insisted that u also play. Then I thought whom should I replace. So I said its ok I am sitting here, you people play. She was not very happy with my this decision. Then after game finishes at approx 18:00 we went for snacks. It was kachori and I had no interest eating but I ate so that I get a chance to spent time with them. But it aws bad decision I should not eaten that. Even Aditi didnt liked that food and left some in plate. Then we all went out together. Then it was a huge traffic jam outside. I told madhu that u put ur scooty behind me and I will clear road for you. She said no need I am a good rider. I humorously told that ok then I will follow you. Then Aditi Shruti and shivtosh were standing outside parking gate and it was jam. So I asked them how will they go. I said Aditi to go walking till country inn. She said shoes will get dirty. I said u can wash it. Then they went, I dnt now how, most probably by e-rikshaw.</t>
+  </si>
+  <si>
+    <t>Meditation-&gt;Aarti-&gt;talk for 40 mins on call with maa and didi-&gt;ordered poha, sugar and UNO on blinkit-&gt;Poha cooking-&gt;Instagram(also sent one reel to supriya)-&gt;Cloth wash-&gt; BOC lunch-&gt;beared and detan at salon-&gt; bath-&gt; Tea-&gt; Journaling(currently on going)</t>
+  </si>
+  <si>
+    <t>10 days of NO FAP</t>
+  </si>
+  <si>
+    <t>Am I breathing slowly deeply and in a state of stillness calmness and slow down</t>
+  </si>
+  <si>
+    <t>Happy that I wakeup up early todY. Done meditation-&gt;Tea-&gt;Workout-&gt;Nasta-&gt;Ofc. Today no testing or any work done. People are talking about Aditi and today I felt irritated as I feel ppl are crossing the limits. I told Raja Abhayes that please enough is enough. Then at lunch time Aditi and grp were passing by the canteen gate. Then Aditi as soon as she saw said "hello sir". I asked were are u guys going to sit after lunch, they said at Sanchita's lab. I said ok I will come after eat. Then during lunch with Shreesh sir he asked that so many ppl know you, interns, juniors, seniors, how??. I said I worked for 1 week at AR VR lab with interns there all became my friend. And at playing time at evening some became friend. Also due to playing with TE girls (Aditi, Shruti and Madhu) , many TE ppl became my friends. Also I shared with sir that there was a time when I felt that I have less friend, I also bought books related to this. And with time I am now very comfortable talking with people. Then after lunch I went to Sanchitas's lab, they were not there. Then after sometimes I saw them coming from outside. I then went again and this time took Abhisek as well. We talked but not much as the time aws already 1pm and also some other TE people were there. Then at 5 many KAVACH collegeus started saying that go for caram with TE girls. Then at 5:20 pm I told abhishek that go and check at canteen that weather they have arrived . He checked and said yes they have arrived and also kind of waiting for you. I then went and play with them. Then came from ofc at 6:20pm and cooked dinner early and ate till 8:10. Also today I fapped in morning during waking up, little disappointed as I have to avoid it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Today morning I got nightfall and my 10 days streak of No Fap breaked. The reason I figured out is that I had done carelessness in my routine from last 3 to 4 days. Like I was sleepling till 8 to 8:15 which I sud till7 pm max. I was going to sleep after or at 11 which I sud till 10 pm. I stopped listening to premanand ji's pravachan which I was listening from last 7 days approx. I was spending more time on instagram. No such productive work at office. Skipped exercise. All these thing leads to make me FAPPED. Then after Nightfall I FAPPED at bathroom. Then went to ofc with poha on tiffin. Defense Secretatry visited at 12:20 pm at KAVACH lab. Then me and Shreesh sir went for lunch then sir went after eating as I have to eat more. I saw Aditi and others girls were on lunch queue. Aditisaw me and I also saw her. She waved her hand and then me too. Then Sandeep came to eat with me. Then I finished my meal then I have to go. I thought as she waved at me in front of so many people, I should not leave canteen with tleast having a cheat chat with her. So I went to her where she was sitting and asked her that if they brought UNO. She said they didnt. Then I said I have brought and it seems little advance version. So teach me also. She said ok. Then I left canteen. I went to TT at 5:15 and I was nervous about how will they take me when see me. Then welcomed nicely. Aditi and others were playing caram. I said lets play UNO. Aditi drag a chair for me beside her. I sat there and then we started playing the same. There were many TEs there. Approx 9 people were playing. I met new people Satish, Vivekanad and Saad. It was a good experience. Aditi taught me many rules and also she was not very happy with so many people. The we all went for snakcs and does together. The we left for home together till parking. </t>
+  </si>
+  <si>
+    <t>30+</t>
   </si>
 </sst>
 </file>
@@ -297,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -312,6 +333,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -616,11 +640,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X20"/>
+  <dimension ref="A1:Y24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" zoomScale="51" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -647,9 +671,10 @@
     <col min="21" max="21" width="26" customWidth="1"/>
     <col min="23" max="23" width="16.1796875" customWidth="1"/>
     <col min="24" max="24" width="20.26953125" customWidth="1"/>
+    <col min="25" max="25" width="68.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -722,8 +747,11 @@
       <c r="X1" s="6" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y1" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>45817</v>
       </c>
@@ -788,8 +816,11 @@
       <c r="X2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>45818</v>
       </c>
@@ -854,8 +885,11 @@
       <c r="X3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" ht="87" x14ac:dyDescent="0.35">
+      <c r="Y3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="87" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>45819</v>
       </c>
@@ -920,8 +954,11 @@
       <c r="X4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Y4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>45820</v>
       </c>
@@ -986,8 +1023,11 @@
       <c r="X5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" ht="29" x14ac:dyDescent="0.35">
+      <c r="Y5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>45821</v>
       </c>
@@ -1043,8 +1083,11 @@
       <c r="X6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>45822</v>
       </c>
@@ -1103,8 +1146,11 @@
       <c r="X7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" ht="29" x14ac:dyDescent="0.35">
+      <c r="Y7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>45823</v>
       </c>
@@ -1169,8 +1215,11 @@
       <c r="X8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" ht="29" x14ac:dyDescent="0.35">
+      <c r="Y8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>45824</v>
       </c>
@@ -1235,8 +1284,11 @@
       <c r="X9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" ht="29" x14ac:dyDescent="0.35">
+      <c r="Y9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>45825</v>
       </c>
@@ -1298,8 +1350,11 @@
       <c r="X10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>45826</v>
       </c>
@@ -1364,8 +1419,11 @@
       <c r="X11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>45827</v>
       </c>
@@ -1424,8 +1482,11 @@
       <c r="X12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>45828</v>
       </c>
@@ -1434,7 +1495,7 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="D13" s="2">
-        <v>0.52083333333333337</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="F13" t="s">
         <v>40</v>
@@ -1490,8 +1551,11 @@
       <c r="X13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>45829</v>
       </c>
@@ -1556,8 +1620,11 @@
       <c r="X14" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>45830</v>
       </c>
@@ -1622,8 +1689,11 @@
       <c r="X15" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>45831</v>
       </c>
@@ -1632,7 +1702,7 @@
         <v>0.34375</v>
       </c>
       <c r="D16" s="2">
-        <v>0.46875</v>
+        <v>0.96875</v>
       </c>
       <c r="F16" t="s">
         <v>43</v>
@@ -1691,8 +1761,11 @@
       <c r="X16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>45832</v>
       </c>
@@ -1701,7 +1774,7 @@
         <v>0.30208333333333331</v>
       </c>
       <c r="D17" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F17" t="s">
         <v>47</v>
@@ -1760,8 +1833,11 @@
       <c r="X17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>45833</v>
       </c>
@@ -1770,7 +1846,7 @@
         <v>0.34375</v>
       </c>
       <c r="D18" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F18" t="s">
         <v>50</v>
@@ -1829,8 +1905,11 @@
       <c r="X18" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>45834</v>
       </c>
@@ -1839,7 +1918,7 @@
         <v>0.34375</v>
       </c>
       <c r="D19" s="2">
-        <v>0.44791666666666669</v>
+        <v>0.94791666666666663</v>
       </c>
       <c r="F19" t="s">
         <v>52</v>
@@ -1860,7 +1939,7 @@
         <v>2</v>
       </c>
       <c r="L19">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M19">
         <v>20</v>
@@ -1898,8 +1977,11 @@
       <c r="X19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>45835</v>
       </c>
@@ -1928,6 +2010,12 @@
       <c r="K20">
         <v>3</v>
       </c>
+      <c r="L20">
+        <v>15</v>
+      </c>
+      <c r="M20">
+        <v>20</v>
+      </c>
       <c r="N20" t="s">
         <v>18</v>
       </c>
@@ -1954,6 +2042,305 @@
       </c>
       <c r="V20" t="s">
         <v>18</v>
+      </c>
+      <c r="W20" t="s">
+        <v>19</v>
+      </c>
+      <c r="X20" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
+        <v>45836</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.62916666666666665</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.96875</v>
+      </c>
+      <c r="F21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21">
+        <v>2.65</v>
+      </c>
+      <c r="K21">
+        <v>2.5</v>
+      </c>
+      <c r="L21">
+        <v>20</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21" t="s">
+        <v>19</v>
+      </c>
+      <c r="O21" t="s">
+        <v>18</v>
+      </c>
+      <c r="P21" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>18</v>
+      </c>
+      <c r="R21" t="s">
+        <v>19</v>
+      </c>
+      <c r="S21" t="s">
+        <v>18</v>
+      </c>
+      <c r="T21">
+        <v>3.3</v>
+      </c>
+      <c r="U21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="V21" t="s">
+        <v>19</v>
+      </c>
+      <c r="W21" t="s">
+        <v>19</v>
+      </c>
+      <c r="X21" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
+        <v>45837</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.64444444444444449</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="F22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22">
+        <v>2.5</v>
+      </c>
+      <c r="K22">
+        <v>3.1</v>
+      </c>
+      <c r="L22">
+        <v>60</v>
+      </c>
+      <c r="M22">
+        <v>15</v>
+      </c>
+      <c r="N22" t="s">
+        <v>18</v>
+      </c>
+      <c r="O22" t="s">
+        <v>18</v>
+      </c>
+      <c r="P22" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>18</v>
+      </c>
+      <c r="R22" t="s">
+        <v>19</v>
+      </c>
+      <c r="S22" t="s">
+        <v>18</v>
+      </c>
+      <c r="T22">
+        <v>3.3</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="V22" t="s">
+        <v>18</v>
+      </c>
+      <c r="W22" t="s">
+        <v>19</v>
+      </c>
+      <c r="X22" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
+        <v>45838</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.86805555555555558</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.34375</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.98611111111111116</v>
+      </c>
+      <c r="F23" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="K23">
+        <v>2.8</v>
+      </c>
+      <c r="L23">
+        <v>120</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23" t="s">
+        <v>18</v>
+      </c>
+      <c r="O23" t="s">
+        <v>18</v>
+      </c>
+      <c r="P23" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>18</v>
+      </c>
+      <c r="R23" t="s">
+        <v>19</v>
+      </c>
+      <c r="S23" t="s">
+        <v>19</v>
+      </c>
+      <c r="T23">
+        <v>3</v>
+      </c>
+      <c r="U23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="V23" t="s">
+        <v>19</v>
+      </c>
+      <c r="W23" t="s">
+        <v>19</v>
+      </c>
+      <c r="X23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
+        <v>45839</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.85347222222222219</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="D24" s="2">
+        <v>9.375E-2</v>
+      </c>
+      <c r="F24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24">
+        <v>2.4</v>
+      </c>
+      <c r="K24">
+        <v>2.6</v>
+      </c>
+      <c r="L24" t="s">
+        <v>67</v>
+      </c>
+      <c r="M24">
+        <v>60</v>
+      </c>
+      <c r="N24" t="s">
+        <v>19</v>
+      </c>
+      <c r="O24" t="s">
+        <v>18</v>
+      </c>
+      <c r="P24" t="s">
+        <v>19</v>
+      </c>
+      <c r="R24" t="s">
+        <v>19</v>
+      </c>
+      <c r="S24" t="s">
+        <v>19</v>
+      </c>
+      <c r="T24">
+        <v>3.6</v>
+      </c>
+      <c r="U24" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="V24" t="s">
+        <v>19</v>
+      </c>
+      <c r="W24" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1963,10 +2350,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93705B71-B67A-491B-A5BA-4FFCED5EBDF0}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2014,6 +2401,14 @@
         <v>58</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>45837</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Daily_Activity_Tracker_Template.xlsx
+++ b/Daily_Activity_Tracker_Template.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF578FAF-0A1D-4903-BF02-45840092F44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8F7BB8-BEA1-4B9C-9DDF-1CDCD96299CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily_Update" sheetId="1" r:id="rId1"/>
     <sheet name="General" sheetId="2" r:id="rId2"/>
+    <sheet name="Books" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="158">
   <si>
     <t>Date</t>
   </si>
@@ -244,12 +245,282 @@
   <si>
     <t>30+</t>
   </si>
+  <si>
+    <t>Wakeup-&gt;Freshedup-&gt;Ofc-&gt;not much work there-&gt;At 5;30 waited for girls(aditi +) to come then went after they came. Played with them. Then snacks with them. Didn’t feel that vibe of talking anything with Aditi. Then came along with them till gate. Shruti talked with we quite well, asked alot of questions. Then came room. Cooked dinner (paratha and tamatar chhowke).</t>
+  </si>
+  <si>
+    <t>No much work at Ofc. Felt boredom. Didn’t feel of playing caram. So left at 17:30 without playing caram. Ppl were talking a lot about me and Aditi some I ignored and some I tolded not to do.</t>
+  </si>
+  <si>
+    <t>S.No</t>
+  </si>
+  <si>
+    <t>Book</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Percentage Completion</t>
+  </si>
+  <si>
+    <t>Why I am an Atheist</t>
+  </si>
+  <si>
+    <t>How to win friends and influence people</t>
+  </si>
+  <si>
+    <t>Attitude is everything</t>
+  </si>
+  <si>
+    <t>Rich Dad Poor Dad</t>
+  </si>
+  <si>
+    <t>CashFlow Quadrant</t>
+  </si>
+  <si>
+    <t>Courage</t>
+  </si>
+  <si>
+    <t>Awareness</t>
+  </si>
+  <si>
+    <t>Fear</t>
+  </si>
+  <si>
+    <t>Freedom</t>
+  </si>
+  <si>
+    <t>Sambhog se Samadhi</t>
+  </si>
+  <si>
+    <t>How not to Die</t>
+  </si>
+  <si>
+    <t>Models</t>
+  </si>
+  <si>
+    <t>Varchaswa</t>
+  </si>
+  <si>
+    <t>No more mr nice gay</t>
+  </si>
+  <si>
+    <t>Siddhartha</t>
+  </si>
+  <si>
+    <t>Chanakya Niti</t>
+  </si>
+  <si>
+    <t>Stillness is the Key</t>
+  </si>
+  <si>
+    <t>Things you see only when you slow down</t>
+  </si>
+  <si>
+    <t>Ikigai</t>
+  </si>
+  <si>
+    <t>Why do we get sick</t>
+  </si>
+  <si>
+    <t>The almanack of Naval Ravikant</t>
+  </si>
+  <si>
+    <t>112 ways of meditation</t>
+  </si>
+  <si>
+    <t>Gautam Buddha</t>
+  </si>
+  <si>
+    <t>The 5 am club</t>
+  </si>
+  <si>
+    <t>The power of Now</t>
+  </si>
+  <si>
+    <t>Nasta</t>
+  </si>
+  <si>
+    <t>20+</t>
+  </si>
+  <si>
+    <t>Happy that last night I slept on time (22:00 went to bed), but still didn’t able to wakeup on time but still a progess getting sleep at 22:30. Also feeling good that I am getting consistency in Nasta regulary as It was getting missed early. It will have a huge positive impact on my health. I feel energetic. Today at ofc no much work as some issues were coming at developers end while testing of RIU diagnostics. Read 2-3 pages of 5 am club. Felt good vibe at ofc. Shreesh sir gave some work in the morning. Finished the same in the morning. Its about some information to gain from Abhinv and Kunal sir about the packets and headers related to LCU. AT TT time good happy time spent with Aditi. Then left with Sandeep.</t>
+  </si>
+  <si>
+    <t>CDS visit at ofc. Then no much work at ofc. Sandeep and me decided to go to boc gym at morning from tomorrow. Then at TT time Aditi already arrived. They were 4 players already playing. Then after sometime I joined. Then not very good vibe today. Actually what I observed is that Aditi is not happy with me not asking for hwer number or insta id. She was like expected me to take a step forward and not just play and go. Also I decided 2 days back that I will be doing something in life which will continuosly elevate my status respect (rutbaa) in life. Like my one phone call will be enough to do a job. My people shall get respect comfort because of me. Like if my parents visits somewhere they shall get vvip treatment. So on account of that today I thought of an idea. That idea is that I should develop an infrastruture or system that will help all humans in the planet to setup there routine as one should be. Like they will wakeup at 5. Sleep at 10. Exerecise, Meditate, Proper diet and on time, punctual, dress well, no overthing or no wrong thinking, FAP control, Family time or Time management , Good habits like book reading and journaling and brushing at night daily. So I need to now think that how can I accomplish that. I also align with my own aim in life. And I will help others also to live healthy happy and productive life. I saw Tanya at TT court and as I know she not liking me playing caram with Aditi. So whenn I went to play TT she went left her racket and went for snacks to show her anger. I dont care as she is jealous. But due to that 2 minutes of incident I get many thoughts related to her in my mind running for long time till night. But this I should fight and I should make my mind understand that stop making imaginery scenerios and dont think about anything related to her.</t>
+  </si>
+  <si>
+    <t>Imaginery thoughts (more than 25%)</t>
+  </si>
+  <si>
+    <t>The prophet</t>
+  </si>
+  <si>
+    <t>The great mughals and there india</t>
+  </si>
+  <si>
+    <t>Atomic habbits</t>
+  </si>
+  <si>
+    <t>The power of your subconcious mind</t>
+  </si>
+  <si>
+    <t>The Dhammapada</t>
+  </si>
+  <si>
+    <t>Midass touch</t>
+  </si>
+  <si>
+    <t>As a man thinketh</t>
+  </si>
+  <si>
+    <t>Bhagwan mahavir</t>
+  </si>
+  <si>
+    <t>Ayurveda siddhant rehesya</t>
+  </si>
+  <si>
+    <t>Don’t sweat the small stuff</t>
+  </si>
+  <si>
+    <t>Meditation by marcus aurilious</t>
+  </si>
+  <si>
+    <t>Surrounded by idiots</t>
+  </si>
+  <si>
+    <t>Mating in captivity</t>
+  </si>
+  <si>
+    <t>The unplugged Alpha</t>
+  </si>
+  <si>
+    <t>Naked economics</t>
+  </si>
+  <si>
+    <t>It didn’t start with you</t>
+  </si>
+  <si>
+    <t>Why I killed Gandhi</t>
+  </si>
+  <si>
+    <t>Mein Kemph</t>
+  </si>
+  <si>
+    <t>Don’t believe everything you think</t>
+  </si>
+  <si>
+    <t>Sunya Samadhi</t>
+  </si>
+  <si>
+    <t>Gautam Buddha aur unke updesh</t>
+  </si>
+  <si>
+    <t>Learning to silence the mind</t>
+  </si>
+  <si>
+    <t>Dhyan sutra</t>
+  </si>
+  <si>
+    <t>The laws of human nature</t>
+  </si>
+  <si>
+    <t>Think and grow rich</t>
+  </si>
+  <si>
+    <t>Sapiens</t>
+  </si>
+  <si>
+    <t>From zero to one</t>
+  </si>
+  <si>
+    <t>Why we sleep</t>
+  </si>
+  <si>
+    <t>Cupids poisioned arrow</t>
+  </si>
+  <si>
+    <t>The art of Seduction</t>
+  </si>
+  <si>
+    <t>The 48 laws of Power</t>
+  </si>
+  <si>
+    <t>Think Like a Monk</t>
+  </si>
+  <si>
+    <t>Chip War</t>
+  </si>
+  <si>
+    <t>She comes first</t>
+  </si>
+  <si>
+    <t>Jivan ki Khoj by Osho</t>
+  </si>
+  <si>
+    <t>6 days of war</t>
+  </si>
+  <si>
+    <t>Mossad</t>
+  </si>
+  <si>
+    <t>Come as you are</t>
+  </si>
+  <si>
+    <t>The hard things about the hard things</t>
+  </si>
+  <si>
+    <t>What everybody is saying</t>
+  </si>
+  <si>
+    <t>Brahmacharya</t>
+  </si>
+  <si>
+    <t>Baby step millionairs</t>
+  </si>
+  <si>
+    <t>YOGA</t>
+  </si>
+  <si>
+    <t>The lean startup</t>
+  </si>
+  <si>
+    <t>The immortals of Meluha</t>
+  </si>
+  <si>
+    <t>Shivaji The Great Maratha</t>
+  </si>
+  <si>
+    <t>How to be people magnet</t>
+  </si>
+  <si>
+    <t>Hyperfocus</t>
+  </si>
+  <si>
+    <t>How to talk to anyone</t>
+  </si>
+  <si>
+    <t>Develop self confidence Improve public speaking</t>
+  </si>
+  <si>
+    <t>Kabir Granthawali</t>
+  </si>
+  <si>
+    <t>Games people play</t>
+  </si>
+  <si>
+    <t>The richest man in the babylon</t>
+  </si>
+  <si>
+    <t>The 80/20 principle</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,6 +535,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Liberation Sans"/>
     </font>
   </fonts>
   <fills count="3">
@@ -318,7 +595,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -336,6 +613,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -640,14 +918,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y24"/>
+  <dimension ref="A1:AA29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="51" workbookViewId="0">
+    <sheetView zoomScale="51" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L25" sqref="L25"/>
+      <selection pane="bottomLeft" activeCell="AA30" sqref="AA30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="15.54296875" customWidth="1"/>
@@ -672,9 +950,10 @@
     <col min="23" max="23" width="16.1796875" customWidth="1"/>
     <col min="24" max="24" width="20.26953125" customWidth="1"/>
     <col min="25" max="25" width="68.7265625" customWidth="1"/>
+    <col min="27" max="27" width="41.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -750,8 +1029,14 @@
       <c r="Y1" s="8" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z1" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" s="3">
         <v>45817</v>
       </c>
@@ -820,7 +1105,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27">
       <c r="A3" s="3">
         <v>45818</v>
       </c>
@@ -889,7 +1174,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="87" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" ht="22.5" customHeight="1">
       <c r="A4" s="3">
         <v>45819</v>
       </c>
@@ -958,7 +1243,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" ht="20.25" customHeight="1">
       <c r="A5" s="3">
         <v>45820</v>
       </c>
@@ -1027,7 +1312,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" ht="29">
       <c r="A6" s="3">
         <v>45821</v>
       </c>
@@ -1087,7 +1372,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27">
       <c r="A7" s="3">
         <v>45822</v>
       </c>
@@ -1150,7 +1435,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" ht="29">
       <c r="A8" s="3">
         <v>45823</v>
       </c>
@@ -1219,7 +1504,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" ht="29">
       <c r="A9" s="3">
         <v>45824</v>
       </c>
@@ -1288,7 +1573,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" ht="29">
       <c r="A10" s="3">
         <v>45825</v>
       </c>
@@ -1354,7 +1639,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27">
       <c r="A11" s="3">
         <v>45826</v>
       </c>
@@ -1423,7 +1708,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27">
       <c r="A12" s="3">
         <v>45827</v>
       </c>
@@ -1486,7 +1771,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27">
       <c r="A13" s="3">
         <v>45828</v>
       </c>
@@ -1555,7 +1840,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27">
       <c r="A14" s="3">
         <v>45829</v>
       </c>
@@ -1624,7 +1909,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27">
       <c r="A15" s="3">
         <v>45830</v>
       </c>
@@ -1693,7 +1978,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27">
       <c r="A16" s="3">
         <v>45831</v>
       </c>
@@ -1765,7 +2050,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:27">
       <c r="A17" s="3">
         <v>45832</v>
       </c>
@@ -1837,7 +2122,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:27">
       <c r="A18" s="3">
         <v>45833</v>
       </c>
@@ -1909,7 +2194,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:27">
       <c r="A19" s="3">
         <v>45834</v>
       </c>
@@ -1981,7 +2266,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:27">
       <c r="A20" s="3">
         <v>45835</v>
       </c>
@@ -2053,7 +2338,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:27">
       <c r="A21" s="3">
         <v>45836</v>
       </c>
@@ -2127,7 +2412,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:27">
       <c r="A22" s="3">
         <v>45837</v>
       </c>
@@ -2201,7 +2486,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:27">
       <c r="A23" s="3">
         <v>45838</v>
       </c>
@@ -2274,8 +2559,11 @@
       <c r="Y23" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
       <c r="A24" s="3">
         <v>45839</v>
       </c>
@@ -2321,6 +2609,9 @@
       <c r="P24" t="s">
         <v>19</v>
       </c>
+      <c r="Q24" t="s">
+        <v>19</v>
+      </c>
       <c r="R24" t="s">
         <v>19</v>
       </c>
@@ -2339,8 +2630,354 @@
       <c r="W24" t="s">
         <v>19</v>
       </c>
+      <c r="X24" t="s">
+        <v>19</v>
+      </c>
       <c r="Y24" t="s">
         <v>19</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
+      <c r="A25" s="3">
+        <v>45840</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.86388888888888893</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F25" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25">
+        <v>2.35</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>10</v>
+      </c>
+      <c r="M25">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>19</v>
+      </c>
+      <c r="O25" t="s">
+        <v>18</v>
+      </c>
+      <c r="P25" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>19</v>
+      </c>
+      <c r="R25" t="s">
+        <v>19</v>
+      </c>
+      <c r="S25" t="s">
+        <v>18</v>
+      </c>
+      <c r="T25">
+        <v>3.6</v>
+      </c>
+      <c r="U25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="V25" t="s">
+        <v>19</v>
+      </c>
+      <c r="W25" t="s">
+        <v>19</v>
+      </c>
+      <c r="X25" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
+      <c r="A26" s="3">
+        <v>45841</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.85277777777777775</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.34375</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F26" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>10</v>
+      </c>
+      <c r="M26">
+        <v>30</v>
+      </c>
+      <c r="N26" t="s">
+        <v>19</v>
+      </c>
+      <c r="O26" t="s">
+        <v>18</v>
+      </c>
+      <c r="P26" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>18</v>
+      </c>
+      <c r="R26" t="s">
+        <v>19</v>
+      </c>
+      <c r="S26" t="s">
+        <v>19</v>
+      </c>
+      <c r="T26">
+        <v>3.6</v>
+      </c>
+      <c r="U26" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="V26" t="s">
+        <v>19</v>
+      </c>
+      <c r="W26" t="s">
+        <v>19</v>
+      </c>
+      <c r="X26" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
+      <c r="A27" s="3">
+        <v>45842</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.83125000000000004</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0.4375</v>
+      </c>
+      <c r="F27" t="s">
+        <v>101</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27" t="s">
+        <v>100</v>
+      </c>
+      <c r="M27">
+        <v>20</v>
+      </c>
+      <c r="N27" t="s">
+        <v>19</v>
+      </c>
+      <c r="O27" t="s">
+        <v>18</v>
+      </c>
+      <c r="P27" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>18</v>
+      </c>
+      <c r="R27" t="s">
+        <v>19</v>
+      </c>
+      <c r="S27" t="s">
+        <v>18</v>
+      </c>
+      <c r="T27">
+        <v>3.55</v>
+      </c>
+      <c r="U27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="V27" t="s">
+        <v>19</v>
+      </c>
+      <c r="W27" t="s">
+        <v>19</v>
+      </c>
+      <c r="X27" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
+      <c r="A28" s="3">
+        <v>45843</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.90902777777777777</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.30555555555555558</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="F28" t="s">
+        <v>102</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28">
+        <v>2.1</v>
+      </c>
+      <c r="K28">
+        <v>2.8</v>
+      </c>
+      <c r="L28">
+        <v>70</v>
+      </c>
+      <c r="M28">
+        <v>10</v>
+      </c>
+      <c r="N28" t="s">
+        <v>19</v>
+      </c>
+      <c r="O28" t="s">
+        <v>18</v>
+      </c>
+      <c r="P28" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>18</v>
+      </c>
+      <c r="R28" t="s">
+        <v>19</v>
+      </c>
+      <c r="S28" t="s">
+        <v>19</v>
+      </c>
+      <c r="T28">
+        <v>3.2</v>
+      </c>
+      <c r="U28" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="V28" t="s">
+        <v>19</v>
+      </c>
+      <c r="W28" t="s">
+        <v>19</v>
+      </c>
+      <c r="X28" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
+      <c r="A29" s="3">
+        <v>45844</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.55277777777777781</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2356,13 +2993,13 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="3" max="3" width="40.81640625" customWidth="1"/>
     <col min="4" max="4" width="33.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2376,7 +3013,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4">
       <c r="A2" s="3">
         <v>45835</v>
       </c>
@@ -2390,7 +3027,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4">
       <c r="A3" s="3">
         <v>45835</v>
       </c>
@@ -2401,12 +3038,676 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4">
       <c r="A4" s="3">
         <v>45837</v>
       </c>
       <c r="C4" t="s">
         <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3342F89-0DF1-477C-90A3-82C0FE803629}">
+  <dimension ref="A1:E80"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/Daily_Activity_Tracker_Template.xlsx
+++ b/Daily_Activity_Tracker_Template.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8F7BB8-BEA1-4B9C-9DDF-1CDCD96299CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2AE89AB-D64E-4312-BB7B-13DE31B23FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily_Update" sheetId="1" r:id="rId1"/>
     <sheet name="General" sheetId="2" r:id="rId2"/>
     <sheet name="Books" sheetId="3" r:id="rId3"/>
+    <sheet name="To do list" sheetId="4" r:id="rId4"/>
+    <sheet name="Finance" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="171">
   <si>
     <t>Date</t>
   </si>
@@ -514,6 +516,49 @@
   </si>
   <si>
     <t>The 80/20 principle</t>
+  </si>
+  <si>
+    <t>To do list</t>
+  </si>
+  <si>
+    <t>Journal Date</t>
+  </si>
+  <si>
+    <t>Works</t>
+  </si>
+  <si>
+    <t>1. Workout
+2. Dataset management
+3. Dinner cooking
+4. Book reading
+5. Walking</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Stocks</t>
+  </si>
+  <si>
+    <t>MF</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>Liquid</t>
+  </si>
+  <si>
+    <t>Pnb</t>
+  </si>
+  <si>
+    <t>Sbi_Home</t>
+  </si>
+  <si>
+    <t>Sbi_Ofc</t>
+  </si>
+  <si>
+    <t>Hdfc</t>
   </si>
 </sst>
 </file>
@@ -3053,15 +3098,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3342F89-0DF1-477C-90A3-82C0FE803629}">
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="3" max="3" width="26.7265625" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" customWidth="1"/>
+    <col min="5" max="5" width="22.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="9" t="s">
         <v>70</v>
       </c>
@@ -3077,40 +3127,55 @@
       <c r="E1" s="9" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="E2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="E3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="E4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="E5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3118,23 +3183,29 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="E7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="E8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3142,7 +3213,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3150,15 +3221,18 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="E11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3166,71 +3240,95 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="E13">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="E14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="E15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="E16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="E17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="E18">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="E19">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="E20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3238,47 +3336,62 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="E22">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="E23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="E24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="E25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="E26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3286,15 +3399,18 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="E28">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3302,7 +3418,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3310,15 +3426,18 @@
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="E31">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3708,6 +3827,114 @@
       </c>
       <c r="B80" t="s">
         <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{907FE1E3-15BE-44A0-A847-47C9BA7C5DB3}">
+  <dimension ref="E6:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="5" max="5" width="12.08984375" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="14.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="5:7">
+      <c r="E6" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="5:7">
+      <c r="E8" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="5:7" ht="101.5">
+      <c r="E9" s="3">
+        <v>45845</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.76458333333333328</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3789118E-0AF7-4EA5-8ED1-318AFB6E5158}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="8" max="8" width="11.08984375" customWidth="1"/>
+    <col min="9" max="9" width="9.6328125" customWidth="1"/>
+    <col min="11" max="11" width="18.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="3">
+        <v>45845</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.77430555555555558</v>
       </c>
     </row>
   </sheetData>

--- a/Daily_Activity_Tracker_Template.xlsx
+++ b/Daily_Activity_Tracker_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2AE89AB-D64E-4312-BB7B-13DE31B23FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2F7378-2D88-48C8-A630-C5875A64A3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3887,7 +3887,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/Daily_Activity_Tracker_Template.xlsx
+++ b/Daily_Activity_Tracker_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2F7378-2D88-48C8-A630-C5875A64A3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0EB0210-713A-403B-9D63-7369B5F57F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily_Update" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="Books" sheetId="3" r:id="rId3"/>
     <sheet name="To do list" sheetId="4" r:id="rId4"/>
     <sheet name="Finance" sheetId="5" r:id="rId5"/>
+    <sheet name="About Me" sheetId="6" r:id="rId6"/>
+    <sheet name="With Females" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="182">
   <si>
     <t>Date</t>
   </si>
@@ -540,32 +542,88 @@
     <t>Stocks</t>
   </si>
   <si>
-    <t>MF</t>
-  </si>
-  <si>
-    <t>PF</t>
-  </si>
-  <si>
     <t>Liquid</t>
   </si>
   <si>
     <t>Pnb</t>
   </si>
   <si>
-    <t>Sbi_Home</t>
+    <t>Sbi_Khs</t>
   </si>
   <si>
     <t>Sbi_Ofc</t>
   </si>
   <si>
     <t>Hdfc</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Mutual Funds</t>
+  </si>
+  <si>
+    <t>Provident Funds</t>
+  </si>
+  <si>
+    <t>Expenses</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>Libilities</t>
+  </si>
+  <si>
+    <r>
+      <t>Very interesting thing happened. I came at 22:00 from Delhi (went for outing with rakesh sujit and gautam). After reaching I had tea firstly. I should sleep as it was my sleep time. But I breaked my routine and decided to watch Instagram reel for some time. But it longed till 11:45 pm. I also bought 2 vada paos from Gate 2 stall of my colony during drop up. I ate one at 11:15 pm approx. Then I went to sleep. I was not getting sleep for more than 1 hr. It was getting tougher for me as I didn’t FAPPED for 5 days and now I was getting thoughts of masturbation. But I fought by saying myself that I should stop those thoughts from leveling up at initial stage otherwise it would be difficult for me to control FAPPING. I won that battle and didn’t let mind to empower those thoughts and stopped at early stage. So, in the mission of FAP controlling it was an amazing experience. I am feeling so pround of myself that the thing “NOT MASTURBATING FOR 2,3,4,5,6,7,..10,11 days is getting real for me. I am doing it. This is happening. I should not get very excited and I should not be arrogant about it. Today is the 6</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> day of another ongoing streak of NO FAP. And then I wake up at 7:15 its another big achievement. As far as today I wake up at 6:15 (a big achievement) then freshed up but fall asleep till 12:00 noon. Then wakeup and at 12:30 Rakesh called that lets go for outing with Sujit and Goutam. Then we went. As always very happy time spent with Sujit and Goutam. We went first to CP where sujit was waiting. Then we roam around there for some time, watched some girls. Bought 4 poster for my room. 2 ronaldo related, 1 of a girl and one a quote. Goutam showed Sujits girl which he found out from jeevansathi.</t>
+    </r>
+  </si>
+  <si>
+    <t>Today I didnt play caram with Aditi and I left ofc at 5:10. Then updated sheet for books I have. Then running at BOC. AGMs daughter didnt came today with whom I am having moments from some weeks. Then I cooked paratha ad drank shake. Then slept on time.</t>
+  </si>
+  <si>
+    <t>I should sleep as it was my sleep time. But I breaked my routine and decided to watch Instagram reel for some time. But it longed till 11:45 pm. I also bought 2 vada paos from Gate 2 stall of my colony during drop up. I ate one at 11:15 pm approx. Then I went to sleep. I was not getting sleep for more than 1 hr. It was getting tougher for me as I didn’t FAPPED for 5 days and now I was getting thoughts of masturbation. But I fought by saying myself that I should stop those thoughts from leveling up at initial stage otherwise it would be difficult for me to control FAPPING. I won that battle and didn’t let mind to empower those thoughts and stopped at early stage. So, in the mission of FAP controlling it was an amazing experience. I am feeling so pround of myself that the thing “NOT MASTURBATING FOR 2,3,4,5,6,7,..10,11 days is getting real for me. I am doing it. This is happening. I should not get very excited and I should not be arrogant about it. Today is the 6th day of another ongoing streak of NO FAP.</t>
+  </si>
+  <si>
+    <t>Avoided huge FAP urge at peak FAP  time</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Amit Gavel</t>
+  </si>
+  <si>
+    <t>Born</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -587,8 +645,23 @@
       <color theme="1"/>
       <name val="Liberation Sans"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -598,6 +671,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,7 +719,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -659,6 +738,10 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -963,183 +1046,184 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA29"/>
+  <dimension ref="A1:AB31"/>
   <sheetViews>
     <sheetView zoomScale="51" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA30" sqref="AA30"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H2:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="15.54296875" customWidth="1"/>
-    <col min="4" max="4" width="20.81640625" customWidth="1"/>
-    <col min="5" max="5" width="17.7265625" customWidth="1"/>
-    <col min="6" max="6" width="17.1796875" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" customWidth="1"/>
-    <col min="8" max="8" width="18.7265625" customWidth="1"/>
-    <col min="9" max="9" width="20.54296875" customWidth="1"/>
-    <col min="10" max="10" width="22.26953125" customWidth="1"/>
-    <col min="11" max="11" width="16.1796875" customWidth="1"/>
-    <col min="12" max="12" width="20.81640625" customWidth="1"/>
-    <col min="13" max="13" width="19.54296875" customWidth="1"/>
-    <col min="14" max="14" width="30.54296875" customWidth="1"/>
-    <col min="15" max="15" width="21.81640625" customWidth="1"/>
-    <col min="16" max="16" width="22.26953125" customWidth="1"/>
-    <col min="17" max="17" width="18.54296875" customWidth="1"/>
-    <col min="18" max="18" width="20.7265625" customWidth="1"/>
-    <col min="19" max="19" width="19.26953125" customWidth="1"/>
-    <col min="20" max="20" width="23" customWidth="1"/>
-    <col min="21" max="21" width="26" customWidth="1"/>
-    <col min="23" max="23" width="16.1796875" customWidth="1"/>
-    <col min="24" max="24" width="20.26953125" customWidth="1"/>
-    <col min="25" max="25" width="68.7265625" customWidth="1"/>
-    <col min="27" max="27" width="41.90625" customWidth="1"/>
+    <col min="1" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" customWidth="1"/>
+    <col min="5" max="5" width="20.81640625" customWidth="1"/>
+    <col min="6" max="6" width="17.7265625" customWidth="1"/>
+    <col min="7" max="7" width="17.1796875" customWidth="1"/>
+    <col min="8" max="8" width="12.54296875" customWidth="1"/>
+    <col min="9" max="9" width="18.7265625" customWidth="1"/>
+    <col min="10" max="10" width="20.54296875" customWidth="1"/>
+    <col min="11" max="11" width="22.26953125" customWidth="1"/>
+    <col min="12" max="12" width="16.1796875" customWidth="1"/>
+    <col min="13" max="13" width="20.81640625" customWidth="1"/>
+    <col min="14" max="14" width="19.54296875" customWidth="1"/>
+    <col min="15" max="15" width="30.54296875" customWidth="1"/>
+    <col min="16" max="16" width="21.81640625" customWidth="1"/>
+    <col min="17" max="17" width="22.26953125" customWidth="1"/>
+    <col min="18" max="18" width="18.54296875" customWidth="1"/>
+    <col min="19" max="19" width="20.7265625" customWidth="1"/>
+    <col min="20" max="20" width="19.26953125" customWidth="1"/>
+    <col min="21" max="21" width="23" customWidth="1"/>
+    <col min="22" max="22" width="26" customWidth="1"/>
+    <col min="24" max="24" width="16.1796875" customWidth="1"/>
+    <col min="25" max="25" width="20.26953125" customWidth="1"/>
+    <col min="26" max="26" width="68.7265625" customWidth="1"/>
+    <col min="28" max="28" width="41.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Z1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AB1" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:28">
       <c r="A2" s="3">
         <v>45817</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="2">
+      <c r="C2" s="3"/>
+      <c r="D2" s="2">
         <v>0.3125</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>7.5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
       <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2">
         <v>5</v>
       </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2">
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2">
         <v>180</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>5</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>20</v>
       </c>
-      <c r="O2" t="s">
-        <v>18</v>
-      </c>
       <c r="P2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R2" t="s">
         <v>18</v>
       </c>
-      <c r="T2">
+      <c r="S2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2">
         <v>3.5</v>
       </c>
-      <c r="V2" t="s">
-        <v>19</v>
-      </c>
       <c r="W2" t="s">
         <v>19</v>
       </c>
@@ -1149,66 +1233,67 @@
       <c r="Y2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:27">
+      <c r="Z2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3" s="3">
         <v>45818</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="2">
+      <c r="C3" s="3"/>
+      <c r="D3" s="2">
         <v>0.3125</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>6.25E-2</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>6</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>24</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0</v>
       </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3">
         <v>3.8</v>
       </c>
-      <c r="K3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3">
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3">
         <v>0</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>30</v>
       </c>
-      <c r="N3" t="s">
-        <v>18</v>
-      </c>
       <c r="O3" t="s">
         <v>18</v>
       </c>
       <c r="P3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>19</v>
-      </c>
-      <c r="T3">
+        <v>18</v>
+      </c>
+      <c r="S3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U3">
         <v>3.5</v>
       </c>
-      <c r="V3" t="s">
-        <v>19</v>
-      </c>
       <c r="W3" t="s">
         <v>19</v>
       </c>
@@ -1218,66 +1303,67 @@
       <c r="Y3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" ht="22.5" customHeight="1">
+      <c r="Z3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="22.5" customHeight="1">
       <c r="A4" s="3">
         <v>45819</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="2">
+      <c r="C4" s="3"/>
+      <c r="D4" s="2">
         <v>0.20833333333333334</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>0.44791666666666669</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1</v>
       </c>
-      <c r="H4" t="s">
-        <v>19</v>
-      </c>
       <c r="I4" t="s">
         <v>19</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4">
         <v>4.2</v>
       </c>
-      <c r="K4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4">
+      <c r="L4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4">
         <v>30</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>0</v>
       </c>
-      <c r="N4" t="s">
-        <v>18</v>
-      </c>
       <c r="O4" t="s">
         <v>18</v>
       </c>
       <c r="P4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R4" t="s">
-        <v>19</v>
-      </c>
-      <c r="T4">
+        <v>18</v>
+      </c>
+      <c r="S4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U4">
         <v>4</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="V4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="V4" t="s">
-        <v>19</v>
-      </c>
       <c r="W4" t="s">
         <v>19</v>
       </c>
@@ -1287,45 +1373,46 @@
       <c r="Y4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" ht="20.25" customHeight="1">
+      <c r="Z4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="20.25" customHeight="1">
       <c r="A5" s="3">
         <v>45820</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="2">
+      <c r="C5" s="3"/>
+      <c r="D5" s="2">
         <v>0.375</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>0.10416666666666667</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>2</v>
       </c>
-      <c r="H5" t="s">
-        <v>19</v>
-      </c>
       <c r="I5" t="s">
         <v>19</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5">
         <v>3.4</v>
       </c>
-      <c r="K5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5">
+      <c r="L5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5">
         <v>5</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>0</v>
       </c>
-      <c r="N5" t="s">
-        <v>18</v>
-      </c>
       <c r="O5" t="s">
         <v>18</v>
       </c>
@@ -1333,20 +1420,20 @@
         <v>18</v>
       </c>
       <c r="Q5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R5" t="s">
         <v>19</v>
       </c>
-      <c r="T5">
+      <c r="S5" t="s">
+        <v>19</v>
+      </c>
+      <c r="U5">
         <v>2.7</v>
       </c>
-      <c r="U5" s="4" t="s">
+      <c r="V5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="V5" t="s">
-        <v>19</v>
-      </c>
       <c r="W5" t="s">
         <v>19</v>
       </c>
@@ -1356,239 +1443,243 @@
       <c r="Y5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" ht="29">
+      <c r="Z5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="29">
       <c r="A6" s="3">
         <v>45821</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="2">
+      <c r="C6" s="3"/>
+      <c r="D6" s="2">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>28</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>2</v>
       </c>
-      <c r="H6" t="s">
-        <v>19</v>
-      </c>
       <c r="I6" t="s">
         <v>19</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6">
         <v>3</v>
       </c>
-      <c r="K6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6">
+      <c r="L6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6">
         <v>30</v>
       </c>
-      <c r="N6" t="s">
-        <v>18</v>
-      </c>
       <c r="O6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" t="s">
         <v>19</v>
       </c>
       <c r="Q6" t="s">
-        <v>18</v>
-      </c>
-      <c r="T6">
+        <v>19</v>
+      </c>
+      <c r="R6" t="s">
+        <v>18</v>
+      </c>
+      <c r="U6">
         <v>3</v>
       </c>
-      <c r="U6" s="4" t="s">
+      <c r="V6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="W6" t="s">
-        <v>19</v>
-      </c>
       <c r="X6" t="s">
         <v>19</v>
       </c>
       <c r="Y6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="Z6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7" s="3">
         <v>45822</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="2">
+      <c r="C7" s="3"/>
+      <c r="D7" s="2">
         <v>0.35416666666666669</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>0.52083333333333337</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>32</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>3</v>
       </c>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
       <c r="I7" t="s">
         <v>19</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7">
         <v>5</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-      <c r="N7" t="s">
-        <v>18</v>
+      <c r="N7">
+        <v>0</v>
       </c>
       <c r="O7" t="s">
         <v>18</v>
       </c>
       <c r="P7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R7" t="s">
-        <v>19</v>
-      </c>
-      <c r="T7">
+        <v>18</v>
+      </c>
+      <c r="S7" t="s">
+        <v>19</v>
+      </c>
+      <c r="U7">
         <v>1</v>
       </c>
-      <c r="W7" t="s">
-        <v>19</v>
-      </c>
       <c r="X7" t="s">
         <v>19</v>
       </c>
       <c r="Y7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" ht="29">
+      <c r="Z7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="29">
       <c r="A8" s="3">
         <v>45823</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="2">
+      <c r="C8" s="3"/>
+      <c r="D8" s="2">
         <v>0.35416666666666669</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>33</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>0</v>
       </c>
-      <c r="H8" t="s">
-        <v>18</v>
-      </c>
       <c r="I8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8">
+        <v>18</v>
+      </c>
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8">
         <v>2.5</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-      <c r="N8" t="s">
-        <v>19</v>
+      <c r="N8">
+        <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q8" t="s">
         <v>19</v>
       </c>
       <c r="R8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="S8" t="s">
         <v>18</v>
       </c>
-      <c r="T8">
+      <c r="T8" t="s">
+        <v>18</v>
+      </c>
+      <c r="U8">
         <v>1</v>
       </c>
-      <c r="U8" s="4" t="s">
+      <c r="V8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W8" t="s">
-        <v>19</v>
-      </c>
       <c r="X8" t="s">
         <v>19</v>
       </c>
       <c r="Y8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" ht="29">
+      <c r="Z8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="29">
       <c r="A9" s="3">
         <v>45824</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="2">
+      <c r="C9" s="3"/>
+      <c r="D9" s="2">
         <v>0.35416666666666669</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <v>6.25E-2</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>34</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>1</v>
       </c>
-      <c r="H9" t="s">
-        <v>18</v>
-      </c>
       <c r="I9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9">
+        <v>18</v>
+      </c>
+      <c r="J9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9">
         <v>1.5</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>2.5</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>5</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>10</v>
       </c>
-      <c r="N9" t="s">
-        <v>19</v>
-      </c>
       <c r="O9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P9" t="s">
         <v>18</v>
@@ -1597,202 +1688,205 @@
         <v>18</v>
       </c>
       <c r="R9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S9" t="s">
-        <v>18</v>
-      </c>
-      <c r="T9">
+        <v>19</v>
+      </c>
+      <c r="T9" t="s">
+        <v>18</v>
+      </c>
+      <c r="U9">
         <v>3</v>
       </c>
-      <c r="U9" s="4" t="s">
+      <c r="V9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W9" t="s">
-        <v>19</v>
-      </c>
       <c r="X9" t="s">
         <v>19</v>
       </c>
       <c r="Y9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" ht="29">
+      <c r="Z9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="29">
       <c r="A10" s="3">
         <v>45825</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="2">
+      <c r="C10" s="3"/>
+      <c r="D10" s="2">
         <v>0.35416666666666669</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="2">
         <v>0.14583333333333334</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>35</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0</v>
       </c>
-      <c r="H10" t="s">
-        <v>19</v>
-      </c>
       <c r="I10" t="s">
         <v>19</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10">
         <v>1.5</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>2.5</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>60</v>
       </c>
-      <c r="N10" t="s">
-        <v>18</v>
-      </c>
       <c r="O10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q10" t="s">
         <v>18</v>
       </c>
       <c r="R10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S10" t="s">
-        <v>18</v>
-      </c>
-      <c r="T10">
+        <v>19</v>
+      </c>
+      <c r="T10" t="s">
+        <v>18</v>
+      </c>
+      <c r="U10">
         <v>2</v>
       </c>
-      <c r="U10" s="4" t="s">
+      <c r="V10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W10" t="s">
-        <v>19</v>
-      </c>
       <c r="X10" t="s">
         <v>19</v>
       </c>
       <c r="Y10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:27">
+      <c r="Z10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11" s="3">
         <v>45826</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="2">
+      <c r="C11" s="3"/>
+      <c r="D11" s="2">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11" s="2">
         <v>0</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>38</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0</v>
       </c>
-      <c r="H11" t="s">
-        <v>18</v>
-      </c>
       <c r="I11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11">
+        <v>18</v>
+      </c>
+      <c r="J11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11">
         <v>1.5</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>2</v>
-      </c>
-      <c r="L11">
-        <v>10</v>
       </c>
       <c r="M11">
         <v>10</v>
       </c>
-      <c r="N11" t="s">
-        <v>18</v>
+      <c r="N11">
+        <v>10</v>
       </c>
       <c r="O11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q11" t="s">
         <v>18</v>
       </c>
       <c r="R11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S11" t="s">
-        <v>18</v>
-      </c>
-      <c r="T11">
+        <v>19</v>
+      </c>
+      <c r="T11" t="s">
+        <v>18</v>
+      </c>
+      <c r="U11">
         <v>1.8</v>
       </c>
-      <c r="U11" s="4" t="s">
+      <c r="V11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W11" t="s">
-        <v>19</v>
-      </c>
       <c r="X11" t="s">
         <v>19</v>
       </c>
       <c r="Y11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="Z11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12" s="3">
         <v>45827</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="2">
+      <c r="C12" s="3"/>
+      <c r="D12" s="2">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D12" s="5">
+      <c r="E12" s="5">
         <v>0.95833333333333337</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>39</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>2</v>
       </c>
-      <c r="H12" t="s">
-        <v>19</v>
-      </c>
       <c r="I12" t="s">
         <v>19</v>
       </c>
-      <c r="J12">
+      <c r="J12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12">
         <v>2.5</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>3.1</v>
       </c>
-      <c r="N12" t="s">
-        <v>18</v>
-      </c>
       <c r="O12" t="s">
         <v>18</v>
       </c>
       <c r="P12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R12" t="s">
         <v>18</v>
@@ -1800,65 +1894,66 @@
       <c r="S12" t="s">
         <v>18</v>
       </c>
-      <c r="T12">
+      <c r="T12" t="s">
+        <v>18</v>
+      </c>
+      <c r="U12">
         <v>1.5</v>
       </c>
-      <c r="U12" s="4" t="s">
+      <c r="V12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W12" t="s">
-        <v>19</v>
-      </c>
       <c r="X12" t="s">
         <v>19</v>
       </c>
       <c r="Y12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:27">
+      <c r="Z12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13" s="3">
         <v>45828</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="2">
+      <c r="C13" s="3"/>
+      <c r="D13" s="2">
         <v>0.35416666666666669</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E13" s="2">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>40</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>0</v>
       </c>
-      <c r="H13" t="s">
-        <v>19</v>
-      </c>
       <c r="I13" t="s">
         <v>19</v>
       </c>
-      <c r="J13">
+      <c r="J13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13">
         <v>2.5</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>3</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>0</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>10</v>
       </c>
-      <c r="N13" t="s">
-        <v>18</v>
-      </c>
       <c r="O13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q13" t="s">
         <v>18</v>
@@ -1867,200 +1962,203 @@
         <v>18</v>
       </c>
       <c r="S13" t="s">
-        <v>19</v>
-      </c>
-      <c r="T13">
+        <v>18</v>
+      </c>
+      <c r="T13" t="s">
+        <v>19</v>
+      </c>
+      <c r="U13">
         <v>1.4</v>
       </c>
-      <c r="U13" s="4" t="s">
+      <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" t="s">
-        <v>19</v>
-      </c>
       <c r="X13" t="s">
         <v>19</v>
       </c>
       <c r="Y13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="Z13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14" s="3">
         <v>45829</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="2">
+      <c r="C14" s="3"/>
+      <c r="D14" s="2">
         <v>0.375</v>
       </c>
-      <c r="D14" s="2">
+      <c r="E14" s="2">
         <v>0.91666666666666663</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>42</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>0</v>
       </c>
-      <c r="H14" t="s">
-        <v>19</v>
-      </c>
       <c r="I14" t="s">
         <v>19</v>
       </c>
-      <c r="J14">
-        <v>3</v>
+      <c r="J14" t="s">
+        <v>19</v>
       </c>
       <c r="K14">
         <v>3</v>
       </c>
       <c r="L14">
+        <v>3</v>
+      </c>
+      <c r="M14">
         <v>60</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>20</v>
       </c>
-      <c r="N14" t="s">
-        <v>18</v>
-      </c>
       <c r="O14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P14" t="s">
         <v>19</v>
       </c>
       <c r="Q14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S14" t="s">
         <v>19</v>
       </c>
-      <c r="T14">
+      <c r="T14" t="s">
+        <v>19</v>
+      </c>
+      <c r="U14">
         <v>3.5</v>
       </c>
-      <c r="U14" s="4" t="s">
+      <c r="V14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="W14" t="s">
-        <v>19</v>
-      </c>
       <c r="X14" t="s">
         <v>19</v>
       </c>
       <c r="Y14" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="Z14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15" s="3">
         <v>45830</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="C15" s="2">
+      <c r="C15" s="3"/>
+      <c r="D15" s="2">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D15" s="2">
+      <c r="E15" s="2">
         <v>0.96875</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>45</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>0</v>
       </c>
-      <c r="H15" t="s">
-        <v>19</v>
-      </c>
       <c r="I15" t="s">
         <v>19</v>
       </c>
-      <c r="J15">
+      <c r="J15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15">
         <v>2.2999999999999998</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>3</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>60</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>20</v>
       </c>
-      <c r="N15" t="s">
-        <v>18</v>
-      </c>
       <c r="O15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q15" t="s">
         <v>18</v>
       </c>
       <c r="R15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S15" t="s">
         <v>19</v>
       </c>
-      <c r="T15">
+      <c r="T15" t="s">
+        <v>19</v>
+      </c>
+      <c r="U15">
         <v>3.5</v>
       </c>
-      <c r="U15" s="4" t="s">
+      <c r="V15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="W15" t="s">
-        <v>19</v>
-      </c>
       <c r="X15" t="s">
         <v>19</v>
       </c>
       <c r="Y15" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:27">
+      <c r="Z15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16" s="3">
         <v>45831</v>
       </c>
       <c r="B16" s="3"/>
-      <c r="C16" s="2">
+      <c r="C16" s="3"/>
+      <c r="D16" s="2">
         <v>0.34375</v>
       </c>
-      <c r="D16" s="2">
+      <c r="E16" s="2">
         <v>0.96875</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>43</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>0</v>
       </c>
-      <c r="H16" t="s">
-        <v>18</v>
-      </c>
       <c r="I16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16">
+        <v>18</v>
+      </c>
+      <c r="J16" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>2.5</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>25</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>15</v>
       </c>
-      <c r="N16" t="s">
-        <v>18</v>
-      </c>
       <c r="O16" t="s">
         <v>18</v>
       </c>
@@ -2071,20 +2169,20 @@
         <v>18</v>
       </c>
       <c r="R16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S16" t="s">
         <v>19</v>
       </c>
-      <c r="T16">
+      <c r="T16" t="s">
+        <v>19</v>
+      </c>
+      <c r="U16">
         <v>3.5</v>
       </c>
-      <c r="U16" s="4" t="s">
+      <c r="V16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="V16" t="s">
-        <v>19</v>
-      </c>
       <c r="W16" t="s">
         <v>19</v>
       </c>
@@ -2094,71 +2192,72 @@
       <c r="Y16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:27">
+      <c r="Z16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17" s="3">
         <v>45832</v>
       </c>
       <c r="B17" s="3"/>
-      <c r="C17" s="2">
+      <c r="C17" s="3"/>
+      <c r="D17" s="2">
         <v>0.30208333333333331</v>
       </c>
-      <c r="D17" s="2">
+      <c r="E17" s="2">
         <v>0</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>47</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>0</v>
       </c>
-      <c r="H17" t="s">
-        <v>18</v>
-      </c>
       <c r="I17" t="s">
         <v>18</v>
       </c>
-      <c r="J17">
+      <c r="J17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17">
         <v>2.6</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>3</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>5</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>25</v>
       </c>
-      <c r="N17" t="s">
-        <v>18</v>
-      </c>
       <c r="O17" t="s">
         <v>18</v>
       </c>
       <c r="P17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S17" t="s">
         <v>19</v>
       </c>
-      <c r="T17">
+      <c r="T17" t="s">
+        <v>19</v>
+      </c>
+      <c r="U17">
         <v>3.7</v>
       </c>
-      <c r="U17" s="4" t="s">
+      <c r="V17" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="V17" t="s">
-        <v>18</v>
-      </c>
       <c r="W17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X17" t="s">
         <v>19</v>
@@ -2166,45 +2265,46 @@
       <c r="Y17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:27">
+      <c r="Z17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18" s="3">
         <v>45833</v>
       </c>
       <c r="B18" s="3"/>
-      <c r="C18" s="2">
+      <c r="C18" s="3"/>
+      <c r="D18" s="2">
         <v>0.34375</v>
       </c>
-      <c r="D18" s="2">
+      <c r="E18" s="2">
         <v>0</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>50</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>0</v>
       </c>
-      <c r="H18" t="s">
-        <v>19</v>
-      </c>
       <c r="I18" t="s">
         <v>19</v>
       </c>
-      <c r="J18">
+      <c r="J18" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18">
         <v>2.9</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>3</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>5</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>15</v>
       </c>
-      <c r="N18" t="s">
-        <v>18</v>
-      </c>
       <c r="O18" t="s">
         <v>18</v>
       </c>
@@ -2215,70 +2315,71 @@
         <v>18</v>
       </c>
       <c r="R18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S18" t="s">
-        <v>18</v>
-      </c>
-      <c r="T18">
+        <v>19</v>
+      </c>
+      <c r="T18" t="s">
+        <v>18</v>
+      </c>
+      <c r="U18">
         <v>3.7</v>
       </c>
-      <c r="U18" s="4" t="s">
+      <c r="V18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="V18" t="s">
-        <v>18</v>
-      </c>
       <c r="W18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27">
+        <v>18</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19" s="3">
         <v>45834</v>
       </c>
       <c r="B19" s="3"/>
-      <c r="C19" s="2">
+      <c r="C19" s="3"/>
+      <c r="D19" s="2">
         <v>0.34375</v>
       </c>
-      <c r="D19" s="2">
+      <c r="E19" s="2">
         <v>0.94791666666666663</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>52</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>0</v>
       </c>
-      <c r="H19" t="s">
-        <v>18</v>
-      </c>
       <c r="I19" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19">
+        <v>18</v>
+      </c>
+      <c r="J19" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19">
         <v>2.9</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>2</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>10</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>20</v>
       </c>
-      <c r="N19" t="s">
-        <v>19</v>
-      </c>
       <c r="O19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P19" t="s">
         <v>18</v>
@@ -2287,20 +2388,20 @@
         <v>18</v>
       </c>
       <c r="R19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S19" t="s">
         <v>19</v>
       </c>
-      <c r="T19">
+      <c r="T19" t="s">
+        <v>19</v>
+      </c>
+      <c r="U19">
         <v>3.7</v>
       </c>
-      <c r="U19" s="4" t="s">
+      <c r="V19" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="V19" t="s">
-        <v>19</v>
-      </c>
       <c r="W19" t="s">
         <v>19</v>
       </c>
@@ -2310,45 +2411,46 @@
       <c r="Y19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:27">
+      <c r="Z19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20" s="3">
         <v>45835</v>
       </c>
       <c r="B20" s="3"/>
-      <c r="C20" s="2">
+      <c r="C20" s="3"/>
+      <c r="D20" s="2">
         <v>0.29166666666666669</v>
       </c>
-      <c r="D20" s="2">
+      <c r="E20" s="2">
         <v>0.96527777777777779</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>60</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>0</v>
       </c>
-      <c r="H20" t="s">
-        <v>19</v>
-      </c>
       <c r="I20" t="s">
         <v>19</v>
       </c>
-      <c r="J20">
+      <c r="J20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20">
         <v>2.8</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>3</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>15</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>20</v>
       </c>
-      <c r="N20" t="s">
-        <v>18</v>
-      </c>
       <c r="O20" t="s">
         <v>18</v>
       </c>
@@ -2364,17 +2466,17 @@
       <c r="S20" t="s">
         <v>18</v>
       </c>
-      <c r="T20">
+      <c r="T20" t="s">
+        <v>18</v>
+      </c>
+      <c r="U20">
         <v>3.6</v>
       </c>
-      <c r="U20" s="4" t="s">
+      <c r="V20" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="V20" t="s">
-        <v>18</v>
-      </c>
       <c r="W20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X20" t="s">
         <v>19</v>
@@ -2382,71 +2484,72 @@
       <c r="Y20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:27">
+      <c r="Z20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21" s="3">
         <v>45836</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="3"/>
+      <c r="C21" s="2">
         <v>0.62916666666666665</v>
       </c>
-      <c r="C21" s="2">
+      <c r="D21" s="2">
         <v>0.34027777777777779</v>
       </c>
-      <c r="D21" s="2">
+      <c r="E21" s="2">
         <v>0.96875</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>61</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0</v>
       </c>
-      <c r="H21" t="s">
-        <v>19</v>
-      </c>
       <c r="I21" t="s">
         <v>19</v>
       </c>
-      <c r="J21">
+      <c r="J21" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21">
         <v>2.65</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>2.5</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>20</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0</v>
       </c>
-      <c r="N21" t="s">
-        <v>19</v>
-      </c>
       <c r="O21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S21" t="s">
-        <v>18</v>
-      </c>
-      <c r="T21">
+        <v>19</v>
+      </c>
+      <c r="T21" t="s">
+        <v>18</v>
+      </c>
+      <c r="U21">
         <v>3.3</v>
       </c>
-      <c r="U21" s="4" t="s">
+      <c r="V21" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="V21" t="s">
-        <v>19</v>
-      </c>
       <c r="W21" t="s">
         <v>19</v>
       </c>
@@ -2456,47 +2559,48 @@
       <c r="Y21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:27">
+      <c r="Z21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22" s="3">
         <v>45837</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="3"/>
+      <c r="C22" s="2">
         <v>0.64444444444444449</v>
       </c>
-      <c r="C22" s="2">
+      <c r="D22" s="2">
         <v>0.3263888888888889</v>
       </c>
-      <c r="D22" s="2">
+      <c r="E22" s="2">
         <v>0.95833333333333337</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>62</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>0</v>
       </c>
-      <c r="H22" t="s">
-        <v>18</v>
-      </c>
       <c r="I22" t="s">
         <v>18</v>
       </c>
-      <c r="J22">
+      <c r="J22" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22">
         <v>2.5</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>3.1</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>60</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>15</v>
       </c>
-      <c r="N22" t="s">
-        <v>18</v>
-      </c>
       <c r="O22" t="s">
         <v>18</v>
       </c>
@@ -2507,22 +2611,22 @@
         <v>18</v>
       </c>
       <c r="R22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S22" t="s">
-        <v>18</v>
-      </c>
-      <c r="T22">
+        <v>19</v>
+      </c>
+      <c r="T22" t="s">
+        <v>18</v>
+      </c>
+      <c r="U22">
         <v>3.3</v>
       </c>
-      <c r="U22" s="4" t="s">
+      <c r="V22" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="V22" t="s">
-        <v>18</v>
-      </c>
       <c r="W22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X22" t="s">
         <v>19</v>
@@ -2530,47 +2634,48 @@
       <c r="Y22" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:27">
+      <c r="Z22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23" s="3">
         <v>45838</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="3"/>
+      <c r="C23" s="2">
         <v>0.86805555555555558</v>
       </c>
-      <c r="C23" s="2">
+      <c r="D23" s="2">
         <v>0.34375</v>
       </c>
-      <c r="D23" s="2">
+      <c r="E23" s="2">
         <v>0.98611111111111116</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>66</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>2</v>
       </c>
-      <c r="H23" t="s">
-        <v>18</v>
-      </c>
       <c r="I23" t="s">
-        <v>19</v>
-      </c>
-      <c r="J23">
+        <v>18</v>
+      </c>
+      <c r="J23" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23">
         <v>2.4500000000000002</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>2.8</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>120</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>0</v>
       </c>
-      <c r="N23" t="s">
-        <v>18</v>
-      </c>
       <c r="O23" t="s">
         <v>18</v>
       </c>
@@ -2581,20 +2686,20 @@
         <v>18</v>
       </c>
       <c r="R23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S23" t="s">
         <v>19</v>
       </c>
-      <c r="T23">
+      <c r="T23" t="s">
+        <v>19</v>
+      </c>
+      <c r="U23">
         <v>3</v>
       </c>
-      <c r="U23" s="4" t="s">
+      <c r="V23" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="V23" t="s">
-        <v>19</v>
-      </c>
       <c r="W23" t="s">
         <v>19</v>
       </c>
@@ -2605,54 +2710,55 @@
         <v>19</v>
       </c>
       <c r="Z23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27">
+        <v>19</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24" s="3">
         <v>45839</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="3"/>
+      <c r="C24" s="2">
         <v>0.85347222222222219</v>
       </c>
-      <c r="C24" s="2">
+      <c r="D24" s="2">
         <v>0.26041666666666669</v>
       </c>
-      <c r="D24" s="2">
+      <c r="E24" s="2">
         <v>9.375E-2</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>65</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>1</v>
       </c>
-      <c r="H24" t="s">
-        <v>18</v>
-      </c>
       <c r="I24" t="s">
         <v>18</v>
       </c>
-      <c r="J24">
+      <c r="J24" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24">
         <v>2.4</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>2.6</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>67</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>60</v>
       </c>
-      <c r="N24" t="s">
-        <v>19</v>
-      </c>
       <c r="O24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q24" t="s">
         <v>19</v>
@@ -2663,15 +2769,15 @@
       <c r="S24" t="s">
         <v>19</v>
       </c>
-      <c r="T24">
+      <c r="T24" t="s">
+        <v>19</v>
+      </c>
+      <c r="U24">
         <v>3.6</v>
       </c>
-      <c r="U24" s="4" t="s">
+      <c r="V24" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="V24" t="s">
-        <v>19</v>
-      </c>
       <c r="W24" t="s">
         <v>19</v>
       </c>
@@ -2682,73 +2788,74 @@
         <v>19</v>
       </c>
       <c r="Z24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27">
+        <v>19</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25" s="3">
         <v>45840</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="3"/>
+      <c r="C25" s="2">
         <v>0.86388888888888893</v>
       </c>
-      <c r="C25" s="2">
+      <c r="D25" s="2">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D25" s="2">
+      <c r="E25" s="2">
         <v>0.47916666666666669</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>69</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>0</v>
       </c>
-      <c r="H25" t="s">
-        <v>19</v>
-      </c>
       <c r="I25" t="s">
         <v>19</v>
       </c>
-      <c r="J25">
+      <c r="J25" t="s">
+        <v>19</v>
+      </c>
+      <c r="K25">
         <v>2.35</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>2</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>10</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>5</v>
       </c>
-      <c r="N25" t="s">
-        <v>19</v>
-      </c>
       <c r="O25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P25" t="s">
         <v>18</v>
       </c>
       <c r="Q25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R25" t="s">
         <v>19</v>
       </c>
       <c r="S25" t="s">
-        <v>18</v>
-      </c>
-      <c r="T25">
+        <v>19</v>
+      </c>
+      <c r="T25" t="s">
+        <v>18</v>
+      </c>
+      <c r="U25">
         <v>3.6</v>
       </c>
-      <c r="U25" s="4" t="s">
+      <c r="V25" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="V25" t="s">
-        <v>19</v>
-      </c>
       <c r="W25" t="s">
         <v>19</v>
       </c>
@@ -2761,49 +2868,50 @@
       <c r="Z25" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="26" spans="1:27">
+      <c r="AA25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
       <c r="A26" s="3">
         <v>45841</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="3"/>
+      <c r="C26" s="2">
         <v>0.85277777777777775</v>
       </c>
-      <c r="C26" s="2">
+      <c r="D26" s="2">
         <v>0.34375</v>
       </c>
-      <c r="D26" s="2">
+      <c r="E26" s="2">
         <v>0.47916666666666669</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>68</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>0</v>
       </c>
-      <c r="H26" t="s">
-        <v>19</v>
-      </c>
       <c r="I26" t="s">
         <v>19</v>
       </c>
-      <c r="J26">
+      <c r="J26" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26">
         <v>2.2999999999999998</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>3</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>10</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>30</v>
       </c>
-      <c r="N26" t="s">
-        <v>19</v>
-      </c>
       <c r="O26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P26" t="s">
         <v>18</v>
@@ -2812,20 +2920,20 @@
         <v>18</v>
       </c>
       <c r="R26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S26" t="s">
         <v>19</v>
       </c>
-      <c r="T26">
+      <c r="T26" t="s">
+        <v>19</v>
+      </c>
+      <c r="U26">
         <v>3.6</v>
       </c>
-      <c r="U26" s="4" t="s">
+      <c r="V26" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="V26" t="s">
-        <v>19</v>
-      </c>
       <c r="W26" t="s">
         <v>19</v>
       </c>
@@ -2836,76 +2944,77 @@
         <v>19</v>
       </c>
       <c r="Z26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AA26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27">
+        <v>18</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27" s="3">
         <v>45842</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="3"/>
+      <c r="C27" s="2">
         <v>0.83125000000000004</v>
       </c>
-      <c r="C27" s="2">
+      <c r="D27" s="2">
         <v>0.3263888888888889</v>
       </c>
-      <c r="D27" s="5">
+      <c r="E27" s="5">
         <v>0.4375</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>101</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>0</v>
       </c>
-      <c r="H27" t="s">
-        <v>19</v>
-      </c>
       <c r="I27" t="s">
         <v>19</v>
       </c>
-      <c r="J27">
+      <c r="J27" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>3</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>100</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>20</v>
       </c>
-      <c r="N27" t="s">
-        <v>19</v>
-      </c>
       <c r="O27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S27" t="s">
-        <v>18</v>
-      </c>
-      <c r="T27">
+        <v>19</v>
+      </c>
+      <c r="T27" t="s">
+        <v>18</v>
+      </c>
+      <c r="U27">
         <v>3.55</v>
       </c>
-      <c r="U27" s="4" t="s">
+      <c r="V27" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="V27" t="s">
-        <v>19</v>
-      </c>
       <c r="W27" t="s">
         <v>19</v>
       </c>
@@ -2916,113 +3025,257 @@
         <v>19</v>
       </c>
       <c r="Z27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AA27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27">
+        <v>18</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28" s="3">
         <v>45843</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="3"/>
+      <c r="C28" s="2">
         <v>0.90902777777777777</v>
       </c>
-      <c r="C28" s="2">
+      <c r="D28" s="2">
         <v>0.30555555555555558</v>
       </c>
-      <c r="D28" s="2">
+      <c r="E28" s="2">
         <v>0.48958333333333331</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>102</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>0</v>
       </c>
-      <c r="H28" t="s">
-        <v>19</v>
-      </c>
       <c r="I28" t="s">
         <v>19</v>
       </c>
-      <c r="J28">
+      <c r="J28" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28">
         <v>2.1</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>2.8</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>70</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>10</v>
       </c>
-      <c r="N28" t="s">
-        <v>19</v>
-      </c>
       <c r="O28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S28" t="s">
         <v>19</v>
       </c>
-      <c r="T28">
+      <c r="T28" t="s">
+        <v>19</v>
+      </c>
+      <c r="U28">
         <v>3.2</v>
       </c>
-      <c r="U28" s="4" t="s">
+      <c r="V28" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="V28" t="s">
-        <v>19</v>
-      </c>
       <c r="W28" t="s">
         <v>19</v>
       </c>
       <c r="X28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AA28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27">
+        <v>18</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" ht="17.5">
       <c r="A29" s="3">
         <v>45844</v>
       </c>
-      <c r="B29" s="2">
-        <v>0.55277777777777781</v>
+      <c r="B29" s="3">
+        <v>45845</v>
       </c>
       <c r="C29" s="2">
+        <v>0.48680555555555555</v>
+      </c>
+      <c r="D29" s="2">
         <v>0.27083333333333331</v>
       </c>
-      <c r="D29" s="2">
+      <c r="E29" s="2">
         <v>0.4826388888888889</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="H29">
         <v>0</v>
       </c>
+      <c r="I29" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L29">
+        <v>2</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>30</v>
+      </c>
+      <c r="O29" t="s">
+        <v>18</v>
+      </c>
+      <c r="P29" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>18</v>
+      </c>
+      <c r="R29" t="s">
+        <v>18</v>
+      </c>
+      <c r="S29" t="s">
+        <v>19</v>
+      </c>
+      <c r="T29" t="s">
+        <v>18</v>
+      </c>
+      <c r="U29">
+        <v>3.1</v>
+      </c>
+      <c r="V29" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="W29" t="s">
+        <v>19</v>
+      </c>
+      <c r="X29" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>19</v>
+      </c>
       <c r="Z29" t="s">
         <v>19</v>
       </c>
       <c r="AA29" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" ht="17.5">
+      <c r="A30" s="3">
+        <v>45845</v>
+      </c>
+      <c r="B30" s="3">
+        <v>45846</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.31388888888888888</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="E30" s="2">
+        <v>6.9444444444444448E-2</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" t="s">
+        <v>19</v>
+      </c>
+      <c r="K30">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L30">
+        <v>2.5</v>
+      </c>
+      <c r="M30">
+        <v>10</v>
+      </c>
+      <c r="N30">
+        <v>40</v>
+      </c>
+      <c r="O30" t="s">
+        <v>18</v>
+      </c>
+      <c r="R30" t="s">
+        <v>18</v>
+      </c>
+      <c r="W30" t="s">
+        <v>19</v>
+      </c>
+      <c r="X30" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
+      <c r="A31" s="3">
+        <v>45846</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.21736111111111112</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.44097222222222221</v>
       </c>
     </row>
   </sheetData>
@@ -3032,10 +3285,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93705B71-B67A-491B-A5BA-4FFCED5EBDF0}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3089,6 +3342,20 @@
       </c>
       <c r="C4" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3">
+        <v>45845</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.48680555555555555</v>
+      </c>
+      <c r="C5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -3884,20 +4151,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3789118E-0AF7-4EA5-8ED1-318AFB6E5158}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" customWidth="1"/>
     <col min="8" max="8" width="11.08984375" customWidth="1"/>
     <col min="9" max="9" width="9.6328125" customWidth="1"/>
     <col min="11" max="11" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:14">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3905,39 +4174,126 @@
         <v>53</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>163</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="F1" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="L1" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="3">
         <v>45845</v>
       </c>
       <c r="B2" s="2">
         <v>0.77430555555555558</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="3">
+        <v>45846</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.30486111111111114</v>
+      </c>
+      <c r="D3" s="10">
+        <v>119330</v>
+      </c>
+      <c r="E3" s="10">
+        <v>292986</v>
+      </c>
+      <c r="F3" s="11">
+        <v>300000</v>
+      </c>
+      <c r="G3" s="10">
+        <v>206068</v>
+      </c>
+      <c r="H3" s="10">
+        <v>50104</v>
+      </c>
+      <c r="I3" s="10">
+        <v>2380</v>
+      </c>
+      <c r="J3" s="10">
+        <v>5104</v>
+      </c>
+      <c r="K3" s="10">
+        <v>975972</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{424E56A8-62FC-421D-9505-4B246BFFD6E3}">
+  <dimension ref="E5:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="5" spans="5:6">
+      <c r="E5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="5:6">
+      <c r="E6" t="s">
+        <v>181</v>
+      </c>
+      <c r="F6" s="13">
+        <v>35637</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C931137D-A4D7-4271-AEE2-428C8913AAD2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Daily_Activity_Tracker_Template.xlsx
+++ b/Daily_Activity_Tracker_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0EB0210-713A-403B-9D63-7369B5F57F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EF1D0E-41AE-4263-AD02-77DB6E722DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily_Update" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="189">
   <si>
     <t>Date</t>
   </si>
@@ -617,6 +617,27 @@
   </si>
   <si>
     <t>Born</t>
+  </si>
+  <si>
+    <t>Action Details</t>
+  </si>
+  <si>
+    <t>[18:10] Rana called at 6:30 am for BOC gym but I was asleep so told him that lets start from tommorrow. Then not much ork at ofc. Shreesh sir enjoyed Sagar doing Lunch with Aditi and other girls at lab. As usual at kavach lab some ppl talking about me and sagar approaching those girls in funny way. And from 2-3 days I am not happy about my mind thinking about useless stuffs. It again thinking about some ppl of my past and some imaginary fearful or unsure thoughts. I also gets angry sometime about some thought swhich is harmful for me only. I need to work on my mind. I need to silence my mind. I need to be still even when the circumstances are not in my favour or there are ppl around me whom I want to avoid. Today I texted Herina at noon with a hindi poetry but animesh but I said I have written it. She seems very impressed again. Then I ask her that why are u not sending anything. She said she is busy. Then I said ok. Also I texted Aditi yesterday about whether she came for caram. She replied today morning that they left early these days and come ofc early and do breakfast there. It was good signal for me that she informed me in some way that they do breakfast in the ofc.</t>
+  </si>
+  <si>
+    <t>21:45, no much work at ofc. But today get overthought about Tanya related. I should be cool and calm whenever I saw her. I should not get hyper, unease, and overthink. [18:28] (09/07/2025) Today very interesting thing happened. At ofc I was free of work. So I was thinking what should I do. Then I thought of messageing Herina. But I was thinking that what should i text her so that she should get really exicted and intereted. Then i thought that she writes poetry. I should ask her to send some or something related to that I sud ask. Then I thought this idea is not giving me kick and is sort of lazy or common idea. Then I thought that why not myself sud write a poem for her. Then I started thinking but I was not getting clicked. Then I thought lets take some lines from MJ's dangerous song. Then I googled it and copied in my notebook with pen. And then I send her saying that I have written it. As I know that 1 month ago we had our last chat. And then after one day of very good chat and showinh interest she ghosted. Now after my this poem message she not only replied but she seemed so impressed. She gave a good full lenght reply. Then started asking some quenstions relayed to that. Then our chatting started and at 18:00 in the evening we both came online. And we chat for nearly 45 mins. She aslo send some pics and video of her area as it the weather there was awasome(cloudy and rainy). Then at 22:00 I texted her good night and she replied with same which i reacted love. Also I went to MI room with Sagar and Anuj where I met a very sexy figure girl. Then I asked her about her uniform related somthing which she responed positivly and she was also looking interested. Then her turn came to meet the doctor so she had to leave. Then the conversation was over which was very short one line. But it was a great success for me as many time in my life many girls shows interest but I never able to talked with them. This time I was very much cleared that whomesoever girl I saw and find interesting I will go and communicate with her, especially I will break the ice, which is to start the communication.</t>
+  </si>
+  <si>
+    <t>Interacted in chat with Aditi and Herina</t>
+  </si>
+  <si>
+    <t>Current Interacting Girls</t>
+  </si>
+  <si>
+    <t>Interaction Date</t>
+  </si>
+  <si>
+    <t>Aditi, Herina, Shruti, Madhulika, Supriya, Monali, Eram</t>
   </si>
 </sst>
 </file>
@@ -661,7 +682,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -677,6 +698,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -719,7 +746,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -742,6 +769,7 @@
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1046,11 +1074,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB31"/>
+  <dimension ref="A1:AB33"/>
   <sheetViews>
-    <sheetView zoomScale="51" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H2:H12"/>
+    <sheetView tabSelected="1" zoomScale="51" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1073,7 +1101,7 @@
     <col min="18" max="18" width="18.54296875" customWidth="1"/>
     <col min="19" max="19" width="20.7265625" customWidth="1"/>
     <col min="20" max="20" width="19.26953125" customWidth="1"/>
-    <col min="21" max="21" width="23" customWidth="1"/>
+    <col min="21" max="21" width="34.54296875" customWidth="1"/>
     <col min="22" max="22" width="26" customWidth="1"/>
     <col min="24" max="24" width="16.1796875" customWidth="1"/>
     <col min="25" max="25" width="20.26953125" customWidth="1"/>
@@ -1173,7 +1201,7 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="2">
+      <c r="D2" s="5">
         <v>0.3125</v>
       </c>
       <c r="E2" s="2">
@@ -1243,7 +1271,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="2">
+      <c r="D3" s="5">
         <v>0.3125</v>
       </c>
       <c r="E3" s="2">
@@ -1313,11 +1341,11 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="2">
+      <c r="D4" s="5">
         <v>0.20833333333333334</v>
       </c>
-      <c r="E4" s="2">
-        <v>0.44791666666666669</v>
+      <c r="E4" s="5">
+        <v>0.94791666666666663</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>26</v>
@@ -1518,7 +1546,7 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="E7" s="2">
-        <v>0.52083333333333337</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="G7" t="s">
         <v>32</v>
@@ -1992,7 +2020,7 @@
       <c r="D14" s="2">
         <v>0.375</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="5">
         <v>0.91666666666666663</v>
       </c>
       <c r="G14" t="s">
@@ -2062,7 +2090,7 @@
       <c r="D15" s="2">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="5">
         <v>0.96875</v>
       </c>
       <c r="G15" t="s">
@@ -2132,7 +2160,7 @@
       <c r="D16" s="2">
         <v>0.34375</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="5">
         <v>0.96875</v>
       </c>
       <c r="G16" t="s">
@@ -2351,7 +2379,7 @@
       <c r="D19" s="2">
         <v>0.34375</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="5">
         <v>0.94791666666666663</v>
       </c>
       <c r="G19" t="s">
@@ -2421,10 +2449,10 @@
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="2">
+      <c r="D20" s="5">
         <v>0.29166666666666669</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="5">
         <v>0.96527777777777779</v>
       </c>
       <c r="G20" t="s">
@@ -2499,7 +2527,7 @@
       <c r="D21" s="2">
         <v>0.34027777777777779</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="5">
         <v>0.96875</v>
       </c>
       <c r="G21" t="s">
@@ -2724,7 +2752,7 @@
       <c r="C24" s="2">
         <v>0.85347222222222219</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="5">
         <v>0.26041666666666669</v>
       </c>
       <c r="E24" s="2">
@@ -2806,7 +2834,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E25" s="2">
-        <v>0.47916666666666669</v>
+        <v>0.97916666666666663</v>
       </c>
       <c r="G25" t="s">
         <v>69</v>
@@ -2884,7 +2912,7 @@
         <v>0.34375</v>
       </c>
       <c r="E26" s="2">
-        <v>0.47916666666666669</v>
+        <v>0.97916666666666663</v>
       </c>
       <c r="G26" t="s">
         <v>68</v>
@@ -2965,7 +2993,7 @@
         <v>0.3263888888888889</v>
       </c>
       <c r="E27" s="5">
-        <v>0.4375</v>
+        <v>0.9375</v>
       </c>
       <c r="G27" t="s">
         <v>101</v>
@@ -3042,11 +3070,11 @@
       <c r="C28" s="2">
         <v>0.90902777777777777</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="5">
         <v>0.30555555555555558</v>
       </c>
       <c r="E28" s="2">
-        <v>0.48958333333333331</v>
+        <v>0.98958333333333337</v>
       </c>
       <c r="G28" t="s">
         <v>102</v>
@@ -3125,11 +3153,11 @@
       <c r="C29" s="2">
         <v>0.48680555555555555</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="5">
         <v>0.27083333333333331</v>
       </c>
       <c r="E29" s="2">
-        <v>0.4826388888888889</v>
+        <v>0.98263888888888884</v>
       </c>
       <c r="G29" s="12" t="s">
         <v>175</v>
@@ -3198,7 +3226,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="17.5">
+    <row r="30" spans="1:28" ht="15.5">
       <c r="A30" s="3">
         <v>45845</v>
       </c>
@@ -3208,7 +3236,7 @@
       <c r="C30" s="2">
         <v>0.31388888888888888</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="5">
         <v>0.26041666666666669</v>
       </c>
       <c r="E30" s="2">
@@ -3241,8 +3269,26 @@
       <c r="O30" t="s">
         <v>18</v>
       </c>
+      <c r="P30" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>19</v>
+      </c>
       <c r="R30" t="s">
         <v>18</v>
+      </c>
+      <c r="S30" t="s">
+        <v>19</v>
+      </c>
+      <c r="T30" t="s">
+        <v>19</v>
+      </c>
+      <c r="U30">
+        <v>3</v>
+      </c>
+      <c r="V30" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="W30" t="s">
         <v>19</v>
@@ -3267,16 +3313,159 @@
       <c r="A31" s="3">
         <v>45846</v>
       </c>
-      <c r="B31" s="3"/>
+      <c r="B31" s="3">
+        <v>45846</v>
+      </c>
       <c r="C31" s="2">
         <v>0.3125</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="14">
         <v>0.21736111111111112</v>
       </c>
-      <c r="E31" s="2">
-        <v>0.44097222222222221</v>
-      </c>
+      <c r="E31" s="14">
+        <v>0.94097222222222221</v>
+      </c>
+      <c r="G31" t="s">
+        <v>184</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" t="s">
+        <v>19</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>5</v>
+      </c>
+      <c r="N31">
+        <v>15</v>
+      </c>
+      <c r="O31" t="s">
+        <v>19</v>
+      </c>
+      <c r="P31" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>19</v>
+      </c>
+      <c r="R31" t="s">
+        <v>18</v>
+      </c>
+      <c r="S31" t="s">
+        <v>19</v>
+      </c>
+      <c r="T31" t="s">
+        <v>19</v>
+      </c>
+      <c r="U31">
+        <v>3.5</v>
+      </c>
+      <c r="V31" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="W31" t="s">
+        <v>19</v>
+      </c>
+      <c r="X31" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
+      <c r="A32" s="3">
+        <v>45847</v>
+      </c>
+      <c r="B32" s="3">
+        <v>45847</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="G32" t="s">
+        <v>183</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32" t="s">
+        <v>19</v>
+      </c>
+      <c r="K32">
+        <v>3.1</v>
+      </c>
+      <c r="L32">
+        <v>3</v>
+      </c>
+      <c r="O32" t="s">
+        <v>19</v>
+      </c>
+      <c r="P32" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>18</v>
+      </c>
+      <c r="S32" t="s">
+        <v>19</v>
+      </c>
+      <c r="T32" t="s">
+        <v>19</v>
+      </c>
+      <c r="U32">
+        <v>3.3</v>
+      </c>
+      <c r="V32" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="W32" t="s">
+        <v>19</v>
+      </c>
+      <c r="X32" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4103,10 +4292,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{907FE1E3-15BE-44A0-A847-47C9BA7C5DB3}">
-  <dimension ref="E6:G9"/>
+  <dimension ref="E6:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4144,6 +4333,14 @@
         <v>161</v>
       </c>
     </row>
+    <row r="10" spans="5:7">
+      <c r="E10" s="3">
+        <v>45846</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.34444444444444444</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4151,10 +4348,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3789118E-0AF7-4EA5-8ED1-318AFB6E5158}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4248,6 +4445,38 @@
       </c>
       <c r="K3" s="10">
         <v>975972</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="3">
+        <v>45847</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.79791666666666672</v>
+      </c>
+      <c r="D4" s="10">
+        <v>119330</v>
+      </c>
+      <c r="E4" s="10">
+        <v>292986</v>
+      </c>
+      <c r="F4" s="11">
+        <v>300000</v>
+      </c>
+      <c r="G4" s="10">
+        <v>206068</v>
+      </c>
+      <c r="H4" s="10">
+        <v>50104</v>
+      </c>
+      <c r="I4" s="10">
+        <v>13380</v>
+      </c>
+      <c r="J4" s="10">
+        <v>5104</v>
+      </c>
+      <c r="K4" s="10">
+        <v>986972</v>
       </c>
     </row>
   </sheetData>
@@ -4288,12 +4517,65 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C931137D-A4D7-4271-AEE2-428C8913AAD2}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="21.1796875" customWidth="1"/>
+    <col min="4" max="4" width="36.6328125" customWidth="1"/>
+    <col min="5" max="5" width="46.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3">
+        <v>45847</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.34375</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.34375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3">
+        <v>45847</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.79236111111111107</v>
+      </c>
+      <c r="C6" s="3">
+        <v>45847</v>
+      </c>
+      <c r="D6" t="s">
+        <v>185</v>
+      </c>
+      <c r="E6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Daily_Activity_Tracker_Template.xlsx
+++ b/Daily_Activity_Tracker_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EF1D0E-41AE-4263-AD02-77DB6E722DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73101FE5-4B3D-479B-89B5-984E7296C7FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="194">
   <si>
     <t>Date</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>Meditation Done (Y/N)</t>
-  </si>
-  <si>
-    <t>Overthinking Level (1-5)</t>
   </si>
   <si>
     <t>Book Reading (mins)</t>
@@ -622,9 +619,6 @@
     <t>Action Details</t>
   </si>
   <si>
-    <t>[18:10] Rana called at 6:30 am for BOC gym but I was asleep so told him that lets start from tommorrow. Then not much ork at ofc. Shreesh sir enjoyed Sagar doing Lunch with Aditi and other girls at lab. As usual at kavach lab some ppl talking about me and sagar approaching those girls in funny way. And from 2-3 days I am not happy about my mind thinking about useless stuffs. It again thinking about some ppl of my past and some imaginary fearful or unsure thoughts. I also gets angry sometime about some thought swhich is harmful for me only. I need to work on my mind. I need to silence my mind. I need to be still even when the circumstances are not in my favour or there are ppl around me whom I want to avoid. Today I texted Herina at noon with a hindi poetry but animesh but I said I have written it. She seems very impressed again. Then I ask her that why are u not sending anything. She said she is busy. Then I said ok. Also I texted Aditi yesterday about whether she came for caram. She replied today morning that they left early these days and come ofc early and do breakfast there. It was good signal for me that she informed me in some way that they do breakfast in the ofc.</t>
-  </si>
-  <si>
     <t>21:45, no much work at ofc. But today get overthought about Tanya related. I should be cool and calm whenever I saw her. I should not get hyper, unease, and overthink. [18:28] (09/07/2025) Today very interesting thing happened. At ofc I was free of work. So I was thinking what should I do. Then I thought of messageing Herina. But I was thinking that what should i text her so that she should get really exicted and intereted. Then i thought that she writes poetry. I should ask her to send some or something related to that I sud ask. Then I thought this idea is not giving me kick and is sort of lazy or common idea. Then I thought that why not myself sud write a poem for her. Then I started thinking but I was not getting clicked. Then I thought lets take some lines from MJ's dangerous song. Then I googled it and copied in my notebook with pen. And then I send her saying that I have written it. As I know that 1 month ago we had our last chat. And then after one day of very good chat and showinh interest she ghosted. Now after my this poem message she not only replied but she seemed so impressed. She gave a good full lenght reply. Then started asking some quenstions relayed to that. Then our chatting started and at 18:00 in the evening we both came online. And we chat for nearly 45 mins. She aslo send some pics and video of her area as it the weather there was awasome(cloudy and rainy). Then at 22:00 I texted her good night and she replied with same which i reacted love. Also I went to MI room with Sagar and Anuj where I met a very sexy figure girl. Then I asked her about her uniform related somthing which she responed positivly and she was also looking interested. Then her turn came to meet the doctor so she had to leave. Then the conversation was over which was very short one line. But it was a great success for me as many time in my life many girls shows interest but I never able to talked with them. This time I was very much cleared that whomesoever girl I saw and find interesting I will go and communicate with her, especially I will break the ice, which is to start the communication.</t>
   </si>
   <si>
@@ -638,6 +632,27 @@
   </si>
   <si>
     <t>Aditi, Herina, Shruti, Madhulika, Supriya, Monali, Eram</t>
+  </si>
+  <si>
+    <t>Negative/Imaginary thinking Level (1-5)</t>
+  </si>
+  <si>
+    <t>Wake up 4:45. Then FAPPED at bed. Cant able to control. As from last 3-4 days unwanted thoughts bothering me. Then freshed up. Book read. Slept again for 1.5hr. Then at ofc read book "awareness". Done some testing. Also ordered breakfaast from Goli vadapao at ofc. Then done Lunch with yoganand of efftronics. Then I left at ofc at 5:15 pm. Then room-&gt;freshedup-&gt;tea-&gt;maa call-&gt;journaling(currently ongoing). Also maa was asking to go to vaidnath dham (babadham) which I told her not to go as it would be very crowded.</t>
+  </si>
+  <si>
+    <t>35+</t>
+  </si>
+  <si>
+    <t>[18:10] Rana called at 6:30 am for BOC gym but I was asleep so told him that lets start from tommorrow. Then not much ork at ofc. Shreesh sir enjoyed Sagar doing Lunch with Aditi and other girls at lab. As usual at kavach lab some ppl talking about me and sagar approaching those girls in funny way. And from 2-3 days I am not happy about my mind thinking about useless stuffs. It again thinking about some ppl of my past and some imaginary fearful or unsure thoughts. I also gets angry sometime about some thought swhich is harmful for me only. I need to work on my mind. I need to silence my mind. I need to be still even when the circumstances are not in my favour or there are ppl around me whom I want to avoid. Today I texted Herina at noon with a hindi poetry but animesh but I said I have written it. She seems very impressed again. Then I ask her that why are u not sending anything. She said she is busy. Then I said ok. Also I texted Aditi yesterday about whether she came for caram. She replied today morning that they left early these days and come ofc early and do breakfast there. It was good signal for me that she informed me in some way that they do breakfast in the ofc.(10/07/2025) [18:40] Then I said I will also try to come and we can also play UNO in the morning. She replied "sure". Then at night I FAPPED again (This FAP gave me good level pleasure I hardly enjoy such pleasure while FAP). I was getting all those irrelevant thoughts related to Tanya. Making imaginary fearful or troublesome situtions and thinking about it most of the time. I think this is the main reson behind my 7 days UNFAPPED streak broken at 8th day. This thought is troubling me from past 2 days and it gets triggered by ABhishek ,Ajay when they tell me about them that they were doing this and that when I play caram with Aditi. Like Ajay toldme that when 2 days back I was playing with Aditi, Viswas was playing chess with Ajay and he was staring at me all the time with a very weired bad look. Also I was not able to manage my time for workout for 1 week. This also leads to boost my FAPPING. Also good chatting going on with herina on instagram. Little chatting going on with Aditi. Although  I think that Aditi is not a serious person to have a relationship so I now dont take effort to communicate with her like in caram or morning breakfast. But yes as a friend I would love to have her as see is very funny nutorious girl. But after some chat with herina I think she is a kind of person with whom I can think that way.</t>
+  </si>
+  <si>
+    <t>from feb 2025</t>
+  </si>
+  <si>
+    <t>Eye contact and many months of observing her interest</t>
+  </si>
+  <si>
+    <t>There is a intern , I call her chhutki. She shows lot of interest on me but I don’t find her attractive. I don’t feel for her. So I am not putting efforts to have communication with her.</t>
   </si>
 </sst>
 </file>
@@ -1077,25 +1092,27 @@
   <dimension ref="A1:AB33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="51" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="15.54296875" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="14.7265625" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" customWidth="1"/>
     <col min="5" max="5" width="20.81640625" customWidth="1"/>
-    <col min="6" max="6" width="17.7265625" customWidth="1"/>
-    <col min="7" max="7" width="17.1796875" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="57.81640625" customWidth="1"/>
     <col min="8" max="8" width="12.54296875" customWidth="1"/>
     <col min="9" max="9" width="18.7265625" customWidth="1"/>
-    <col min="10" max="10" width="20.54296875" customWidth="1"/>
+    <col min="10" max="10" width="24.453125" customWidth="1"/>
     <col min="11" max="11" width="22.26953125" customWidth="1"/>
-    <col min="12" max="12" width="16.1796875" customWidth="1"/>
-    <col min="13" max="13" width="20.81640625" customWidth="1"/>
-    <col min="14" max="14" width="19.54296875" customWidth="1"/>
-    <col min="15" max="15" width="30.54296875" customWidth="1"/>
+    <col min="12" max="12" width="19.90625" customWidth="1"/>
+    <col min="13" max="13" width="25.26953125" customWidth="1"/>
+    <col min="14" max="14" width="21" customWidth="1"/>
+    <col min="15" max="15" width="35.54296875" customWidth="1"/>
     <col min="16" max="16" width="21.81640625" customWidth="1"/>
     <col min="17" max="17" width="22.26953125" customWidth="1"/>
     <col min="18" max="18" width="18.54296875" customWidth="1"/>
@@ -1114,16 +1131,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -1141,58 +1158,58 @@
         <v>6</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="V1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="Y1" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Z1" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AA1" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AB1" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:28">
@@ -1211,22 +1228,22 @@
         <v>7.5</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K2">
         <v>5</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M2">
         <v>180</v>
@@ -1235,34 +1252,34 @@
         <v>5</v>
       </c>
       <c r="O2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="U2">
         <v>3.5</v>
       </c>
       <c r="W2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -1281,22 +1298,22 @@
         <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K3">
         <v>3.8</v>
       </c>
       <c r="L3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -1305,34 +1322,34 @@
         <v>30</v>
       </c>
       <c r="O3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U3">
         <v>3.5</v>
       </c>
       <c r="W3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="22.5" customHeight="1">
@@ -1348,22 +1365,22 @@
         <v>0.94791666666666663</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K4">
         <v>4.2</v>
       </c>
       <c r="L4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M4">
         <v>30</v>
@@ -1372,37 +1389,37 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U4">
         <v>4</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="20.25" customHeight="1">
@@ -1418,22 +1435,22 @@
         <v>0.10416666666666667</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K5">
         <v>3.4</v>
       </c>
       <c r="L5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M5">
         <v>5</v>
@@ -1442,37 +1459,37 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U5">
         <v>2.7</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="29">
@@ -1488,52 +1505,52 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6">
         <v>3</v>
       </c>
       <c r="L6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N6">
         <v>30</v>
       </c>
       <c r="O6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="U6">
         <v>3</v>
       </c>
       <c r="V6" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="X6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -1549,16 +1566,16 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H7">
         <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K7">
         <v>5</v>
@@ -1573,31 +1590,31 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U7">
         <v>1</v>
       </c>
       <c r="X7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="29">
@@ -1613,16 +1630,16 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K8">
         <v>2.5</v>
@@ -1637,37 +1654,37 @@
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="T8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="U8">
         <v>1</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="29">
@@ -1683,16 +1700,16 @@
         <v>6.25E-2</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K9">
         <v>1.5</v>
@@ -1707,37 +1724,37 @@
         <v>10</v>
       </c>
       <c r="O9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="U9">
         <v>3</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="29">
@@ -1753,16 +1770,16 @@
         <v>0.14583333333333334</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K10">
         <v>1.5</v>
@@ -1774,37 +1791,37 @@
         <v>60</v>
       </c>
       <c r="O10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="U10">
         <v>2</v>
       </c>
       <c r="V10" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -1820,16 +1837,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K11">
         <v>1.5</v>
@@ -1844,37 +1861,37 @@
         <v>10</v>
       </c>
       <c r="O11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="U11">
         <v>1.8</v>
       </c>
       <c r="V11" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -1890,16 +1907,16 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H12">
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K12">
         <v>2.5</v>
@@ -1908,37 +1925,37 @@
         <v>3.1</v>
       </c>
       <c r="O12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="T12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="U12">
         <v>1.5</v>
       </c>
       <c r="V12" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -1954,16 +1971,16 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="G13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K13">
         <v>2.5</v>
@@ -1978,37 +1995,37 @@
         <v>10</v>
       </c>
       <c r="O13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="T13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U13">
         <v>1.4</v>
       </c>
       <c r="V13" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -2024,16 +2041,16 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="G14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -2048,37 +2065,37 @@
         <v>20</v>
       </c>
       <c r="O14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U14">
         <v>3.5</v>
       </c>
       <c r="V14" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -2094,16 +2111,16 @@
         <v>0.96875</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K15">
         <v>2.2999999999999998</v>
@@ -2118,37 +2135,37 @@
         <v>20</v>
       </c>
       <c r="O15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U15">
         <v>3.5</v>
       </c>
       <c r="V15" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -2164,16 +2181,16 @@
         <v>0.96875</v>
       </c>
       <c r="G16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K16">
         <v>2.2000000000000002</v>
@@ -2188,40 +2205,40 @@
         <v>15</v>
       </c>
       <c r="O16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U16">
         <v>3.5</v>
       </c>
       <c r="V16" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:28">
@@ -2237,16 +2254,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K17">
         <v>2.6</v>
@@ -2261,40 +2278,40 @@
         <v>25</v>
       </c>
       <c r="O17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U17">
         <v>3.7</v>
       </c>
       <c r="V17" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="X17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:28">
@@ -2310,16 +2327,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K18">
         <v>2.9</v>
@@ -2334,40 +2351,40 @@
         <v>15</v>
       </c>
       <c r="O18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="U18">
         <v>3.7</v>
       </c>
       <c r="V18" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="X18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:28">
@@ -2383,16 +2400,16 @@
         <v>0.94791666666666663</v>
       </c>
       <c r="G19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K19">
         <v>2.9</v>
@@ -2407,40 +2424,40 @@
         <v>20</v>
       </c>
       <c r="O19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U19">
         <v>3.7</v>
       </c>
       <c r="V19" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:28">
@@ -2456,16 +2473,16 @@
         <v>0.96527777777777779</v>
       </c>
       <c r="G20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K20">
         <v>2.8</v>
@@ -2480,40 +2497,40 @@
         <v>20</v>
       </c>
       <c r="O20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="T20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="U20">
         <v>3.6</v>
       </c>
       <c r="V20" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="X20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:28">
@@ -2531,16 +2548,16 @@
         <v>0.96875</v>
       </c>
       <c r="G21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K21">
         <v>2.65</v>
@@ -2555,40 +2572,40 @@
         <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="U21">
         <v>3.3</v>
       </c>
       <c r="V21" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:28">
@@ -2606,16 +2623,16 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="G22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K22">
         <v>2.5</v>
@@ -2630,40 +2647,40 @@
         <v>15</v>
       </c>
       <c r="O22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="U22">
         <v>3.3</v>
       </c>
       <c r="V22" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="X22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -2681,16 +2698,16 @@
         <v>0.98611111111111116</v>
       </c>
       <c r="G23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H23">
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K23">
         <v>2.4500000000000002</v>
@@ -2705,43 +2722,43 @@
         <v>0</v>
       </c>
       <c r="O23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U23">
         <v>3</v>
       </c>
       <c r="V23" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AA23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:28">
@@ -2759,16 +2776,16 @@
         <v>9.375E-2</v>
       </c>
       <c r="G24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K24">
         <v>2.4</v>
@@ -2777,49 +2794,49 @@
         <v>2.6</v>
       </c>
       <c r="M24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N24">
         <v>60</v>
       </c>
       <c r="O24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U24">
         <v>3.6</v>
       </c>
       <c r="V24" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AA24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:28">
@@ -2837,16 +2854,16 @@
         <v>0.97916666666666663</v>
       </c>
       <c r="G25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K25">
         <v>2.35</v>
@@ -2861,43 +2878,43 @@
         <v>5</v>
       </c>
       <c r="O25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="U25">
         <v>3.6</v>
       </c>
       <c r="V25" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AA25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:28">
@@ -2915,16 +2932,16 @@
         <v>0.97916666666666663</v>
       </c>
       <c r="G26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K26">
         <v>2.2999999999999998</v>
@@ -2939,46 +2956,46 @@
         <v>30</v>
       </c>
       <c r="O26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U26">
         <v>3.6</v>
       </c>
       <c r="V26" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AA26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:28">
@@ -2996,16 +3013,16 @@
         <v>0.9375</v>
       </c>
       <c r="G27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K27">
         <v>2.2000000000000002</v>
@@ -3014,52 +3031,52 @@
         <v>3</v>
       </c>
       <c r="M27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N27">
         <v>20</v>
       </c>
       <c r="O27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="U27">
         <v>3.55</v>
       </c>
       <c r="V27" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AA27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -3077,16 +3094,16 @@
         <v>0.98958333333333337</v>
       </c>
       <c r="G28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K28">
         <v>2.1</v>
@@ -3101,46 +3118,46 @@
         <v>10</v>
       </c>
       <c r="O28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U28">
         <v>3.2</v>
       </c>
       <c r="V28" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AA28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:28" ht="17.5">
@@ -3160,16 +3177,16 @@
         <v>0.98263888888888884</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K29">
         <v>2.2999999999999998</v>
@@ -3184,46 +3201,46 @@
         <v>30</v>
       </c>
       <c r="O29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="U29">
         <v>3.1</v>
       </c>
       <c r="V29" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AA29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:28" ht="15.5">
@@ -3243,16 +3260,16 @@
         <v>6.9444444444444448E-2</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K30">
         <v>2.2999999999999998</v>
@@ -3267,46 +3284,46 @@
         <v>40</v>
       </c>
       <c r="O30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U30">
         <v>3</v>
       </c>
       <c r="V30" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AA30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:28">
@@ -3326,16 +3343,16 @@
         <v>0.94097222222222221</v>
       </c>
       <c r="G31" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -3350,46 +3367,46 @@
         <v>15</v>
       </c>
       <c r="O31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U31">
         <v>3.5</v>
       </c>
       <c r="V31" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AA31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:28">
@@ -3409,16 +3426,16 @@
         <v>0.92500000000000004</v>
       </c>
       <c r="G32" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K32">
         <v>3.1</v>
@@ -3426,46 +3443,128 @@
       <c r="L32">
         <v>3</v>
       </c>
+      <c r="M32">
+        <v>40</v>
+      </c>
+      <c r="N32">
+        <v>35</v>
+      </c>
       <c r="O32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q32" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="R32" t="s">
+        <v>17</v>
       </c>
       <c r="S32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U32">
         <v>3.3</v>
       </c>
       <c r="V32" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X32" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>17</v>
       </c>
       <c r="Z32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AA32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
+      <c r="A33" s="3">
+        <v>45848</v>
+      </c>
+      <c r="B33" s="3">
+        <v>45848</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.78541666666666665</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.19791666666666666</v>
+      </c>
+      <c r="E33" s="2">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="G33" t="s">
+        <v>188</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33">
+        <v>3.3</v>
+      </c>
+      <c r="L33">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>189</v>
+      </c>
+      <c r="O33" t="s">
+        <v>18</v>
+      </c>
+      <c r="P33" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>17</v>
+      </c>
+      <c r="S33" t="s">
+        <v>18</v>
+      </c>
+      <c r="T33" t="s">
+        <v>18</v>
+      </c>
+      <c r="U33">
+        <v>3.1</v>
+      </c>
+      <c r="V33" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W33" t="s">
+        <v>18</v>
+      </c>
+      <c r="X33" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3491,13 +3590,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3508,10 +3607,10 @@
         <v>0.34166666666666667</v>
       </c>
       <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
         <v>56</v>
-      </c>
-      <c r="D2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3522,7 +3621,7 @@
         <v>0.35</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3530,7 +3629,7 @@
         <v>45837</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3541,10 +3640,10 @@
         <v>0.48680555555555555</v>
       </c>
       <c r="C5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3569,22 +3668,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>73</v>
-      </c>
       <c r="F1" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3592,7 +3691,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E2">
         <v>80</v>
@@ -3603,7 +3702,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3">
         <v>90</v>
@@ -3614,7 +3713,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4">
         <v>90</v>
@@ -3625,7 +3724,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E5">
         <v>100</v>
@@ -3636,7 +3735,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3644,7 +3743,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E7">
         <v>85</v>
@@ -3655,7 +3754,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E8">
         <v>30</v>
@@ -3666,7 +3765,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3674,7 +3773,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3682,7 +3781,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E11">
         <v>60</v>
@@ -3693,7 +3792,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3701,7 +3800,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E13">
         <v>90</v>
@@ -3712,7 +3811,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E14">
         <v>100</v>
@@ -3723,7 +3822,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E15">
         <v>65</v>
@@ -3734,7 +3833,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E16">
         <v>100</v>
@@ -3745,7 +3844,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E17">
         <v>25</v>
@@ -3756,7 +3855,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E18">
         <v>90</v>
@@ -3767,7 +3866,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E19">
         <v>90</v>
@@ -3778,7 +3877,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E20">
         <v>100</v>
@@ -3789,7 +3888,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3797,7 +3896,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E22">
         <v>90</v>
@@ -3808,7 +3907,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E23">
         <v>15</v>
@@ -3819,7 +3918,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E24">
         <v>100</v>
@@ -3830,7 +3929,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E25">
         <v>30</v>
@@ -3841,7 +3940,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E26">
         <v>25</v>
@@ -3852,7 +3951,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3860,7 +3959,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E28">
         <v>40</v>
@@ -3871,7 +3970,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3879,7 +3978,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3887,7 +3986,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E31">
         <v>90</v>
@@ -3898,7 +3997,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3906,7 +4005,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3914,7 +4013,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3922,7 +4021,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -3930,7 +4029,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -3938,7 +4037,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -3946,7 +4045,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3954,7 +4053,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -3962,7 +4061,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3970,7 +4069,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -3978,7 +4077,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3986,7 +4085,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -3994,7 +4093,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -4002,7 +4101,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -4010,7 +4109,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -4018,7 +4117,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -4026,7 +4125,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -4034,7 +4133,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -4042,7 +4141,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -4050,7 +4149,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -4058,7 +4157,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -4066,7 +4165,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -4074,7 +4173,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -4082,7 +4181,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -4090,7 +4189,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -4098,7 +4197,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -4106,7 +4205,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -4114,7 +4213,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -4122,7 +4221,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -4130,7 +4229,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -4138,7 +4237,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -4146,7 +4245,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -4154,7 +4253,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -4162,7 +4261,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -4170,7 +4269,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -4178,7 +4277,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -4186,7 +4285,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -4194,7 +4293,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -4202,7 +4301,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -4210,7 +4309,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -4218,7 +4317,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -4226,7 +4325,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -4234,7 +4333,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -4242,7 +4341,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -4250,7 +4349,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -4258,7 +4357,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -4266,7 +4365,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -4274,7 +4373,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -4282,7 +4381,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -4308,18 +4407,18 @@
   <sheetData>
     <row r="6" spans="5:7">
       <c r="E6" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="5:7">
       <c r="E8" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="9" spans="5:7" ht="101.5">
@@ -4330,7 +4429,7 @@
         <v>0.76458333333333328</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="5:7">
@@ -4351,7 +4450,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4368,43 +4467,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="H1" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -4496,15 +4595,15 @@
   <sheetData>
     <row r="5" spans="5:6">
       <c r="E5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F5" t="s">
         <v>179</v>
-      </c>
-      <c r="F5" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="6" spans="5:6">
       <c r="E6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F6" s="13">
         <v>35637</v>
@@ -4517,10 +4616,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C931137D-A4D7-4271-AEE2-428C8913AAD2}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4535,16 +4634,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4569,10 +4668,27 @@
         <v>45847</v>
       </c>
       <c r="D6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E6" t="s">
-        <v>188</v>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3">
+        <v>45848</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.81111111111111112</v>
+      </c>
+      <c r="C8" t="s">
+        <v>191</v>
+      </c>
+      <c r="D8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E8" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/Daily_Activity_Tracker_Template.xlsx
+++ b/Daily_Activity_Tracker_Template.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73101FE5-4B3D-479B-89B5-984E7296C7FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B39C0D-2E4C-49C2-8C57-5549D1089A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily_Update" sheetId="1" r:id="rId1"/>
     <sheet name="General" sheetId="2" r:id="rId2"/>
-    <sheet name="Books" sheetId="3" r:id="rId3"/>
-    <sheet name="To do list" sheetId="4" r:id="rId4"/>
-    <sheet name="Finance" sheetId="5" r:id="rId5"/>
-    <sheet name="About Me" sheetId="6" r:id="rId6"/>
-    <sheet name="With Females" sheetId="7" r:id="rId7"/>
+    <sheet name="Ideas" sheetId="8" r:id="rId3"/>
+    <sheet name="Books" sheetId="3" r:id="rId4"/>
+    <sheet name="To do list" sheetId="4" r:id="rId5"/>
+    <sheet name="Finance" sheetId="5" r:id="rId6"/>
+    <sheet name="About Me" sheetId="6" r:id="rId7"/>
+    <sheet name="With Females" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="209">
   <si>
     <t>Date</t>
   </si>
@@ -640,9 +641,6 @@
     <t>Wake up 4:45. Then FAPPED at bed. Cant able to control. As from last 3-4 days unwanted thoughts bothering me. Then freshed up. Book read. Slept again for 1.5hr. Then at ofc read book "awareness". Done some testing. Also ordered breakfaast from Goli vadapao at ofc. Then done Lunch with yoganand of efftronics. Then I left at ofc at 5:15 pm. Then room-&gt;freshedup-&gt;tea-&gt;maa call-&gt;journaling(currently ongoing). Also maa was asking to go to vaidnath dham (babadham) which I told her not to go as it would be very crowded.</t>
   </si>
   <si>
-    <t>35+</t>
-  </si>
-  <si>
     <t>[18:10] Rana called at 6:30 am for BOC gym but I was asleep so told him that lets start from tommorrow. Then not much ork at ofc. Shreesh sir enjoyed Sagar doing Lunch with Aditi and other girls at lab. As usual at kavach lab some ppl talking about me and sagar approaching those girls in funny way. And from 2-3 days I am not happy about my mind thinking about useless stuffs. It again thinking about some ppl of my past and some imaginary fearful or unsure thoughts. I also gets angry sometime about some thought swhich is harmful for me only. I need to work on my mind. I need to silence my mind. I need to be still even when the circumstances are not in my favour or there are ppl around me whom I want to avoid. Today I texted Herina at noon with a hindi poetry but animesh but I said I have written it. She seems very impressed again. Then I ask her that why are u not sending anything. She said she is busy. Then I said ok. Also I texted Aditi yesterday about whether she came for caram. She replied today morning that they left early these days and come ofc early and do breakfast there. It was good signal for me that she informed me in some way that they do breakfast in the ofc.(10/07/2025) [18:40] Then I said I will also try to come and we can also play UNO in the morning. She replied "sure". Then at night I FAPPED again (This FAP gave me good level pleasure I hardly enjoy such pleasure while FAP). I was getting all those irrelevant thoughts related to Tanya. Making imaginary fearful or troublesome situtions and thinking about it most of the time. I think this is the main reson behind my 7 days UNFAPPED streak broken at 8th day. This thought is troubling me from past 2 days and it gets triggered by ABhishek ,Ajay when they tell me about them that they were doing this and that when I play caram with Aditi. Like Ajay toldme that when 2 days back I was playing with Aditi, Viswas was playing chess with Ajay and he was staring at me all the time with a very weired bad look. Also I was not able to manage my time for workout for 1 week. This also leads to boost my FAPPING. Also good chatting going on with herina on instagram. Little chatting going on with Aditi. Although  I think that Aditi is not a serious person to have a relationship so I now dont take effort to communicate with her like in caram or morning breakfast. But yes as a friend I would love to have her as see is very funny nutorious girl. But after some chat with herina I think she is a kind of person with whom I can think that way.</t>
   </si>
   <si>
@@ -653,13 +651,61 @@
   </si>
   <si>
     <t>There is a intern , I call her chhutki. She shows lot of interest on me but I don’t find her attractive. I don’t feel for her. So I am not putting efforts to have communication with her.</t>
+  </si>
+  <si>
+    <t>No phone after 21:30</t>
+  </si>
+  <si>
+    <t>idea</t>
+  </si>
+  <si>
+    <t>Sharing motivational ideas anonymously online (Reddit, etc.) Suggested by ChatGPT</t>
+  </si>
+  <si>
+    <t>Routine app for everyone</t>
+  </si>
+  <si>
+    <t>Upload import pdfs, docs in this sheet and also make pdf of all journalism which I have done till now in my various notebooks and upload it in this sheet.</t>
+  </si>
+  <si>
+    <t>Avoided huge FAP urge during bathing after coming to ofc yesterday.</t>
+  </si>
+  <si>
+    <t>I said lets not FAP and see and observe the body reaction and it is normal after 30 secs I didn’t feel any urge from vody anymore the rest day.</t>
+  </si>
+  <si>
+    <t>After wakeup gets lot of thought about my maa. How see loves me infinitly but I don’t think much about here. I don’t care her that much. I hurt her frequently. But still she loves me. Treat me with smile. Then I called her and share these thing eith her.......elaborate this when resuming journaling. [18:26] .........At ofc today I had training on SQA. Most of the time Tanya related thoughts were moving. I was fruested insde that why these stupid thought is coming all the time and I am not able to focus on trining. But I failed to stop these thoughts. Still it is bothering me. I just want to tell myself that whenever I will win over this who Tanya situation of my life and I learn to control my thoughts through meditation or whatever I will salute myself and give the highest civilian award to myself.</t>
+  </si>
+  <si>
+    <t>I have to learn the skill of controlling my thoughts coming in my mind.</t>
+  </si>
+  <si>
+    <t>Achievment seen on sleep/wakeup timings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why is it so that despite many times making myself understand and its been 3 weeks now that there is no conversation between me and Tanya and also on 2nd week I was not getting so much thought on her but from 4-5 days again thoughts related to her has statrted hijaking my mind. I want to figure out its root cause. I think I am not targetting the root. I need to figure out the root. I think I am not very much involved in any other activity like office testing work is also halted from last 1 month and no such official work at ofc. I also dont do any such major productive. I can read lot of books but I hardly do it. Its like in a single da at ofc I can do book reading for easily 3 to 4 hours and 1 hour of jorunaling but I dont do. No other tension is there in life so mind isthinking about it all day. Also I am not brain storming on what my future plans would be like related to finance especially. I need to learn skills realted to financial growth. It will give me security. Like in every difficult situation I should be having a huge amount of money. There any be the case and its a huge possibility from internal as well as any external force that I can be trapped and can be put under wrong elegations its risk is high for you because you do courages things, out of you comfortable zones, gets influenced by surrondings, most of the time you be in new things weather its people, place, culture, officical/unofficial work. I had to take my parents to various religoius non religious tourists site. I need to have alot of financial backup so that if my family or myself need any kind of medical emergency which require huge money to save oneself then I should have that. My mother and father's old days are very near and they will be requiring facilities in most of the things like if we are travelling then it will be comfortable for them to ravel via flight, it will be better for my mothers health like joint pain, and hectic schedule. I can buy much more comfortablethings which will enhance my productivity like good mattress, flat, etc. I can call and organize premiun satsang mahatmas, prakasmuni naam saheb, bhagwat katha, ram katha, chauka aarti. I can visit foreign countries and see how the developed natons look and what they are doing. Wherever I go I will be welcomed with great respect and honor. More importantly my parents will be treated with great respect. I and my parents will be given special seat, special food, special attention wherever we go. </t>
+  </si>
+  <si>
+    <t>60+</t>
+  </si>
+  <si>
+    <t>A-70</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>Worked on Routine Setup Project ?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -697,7 +743,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -719,6 +765,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,7 +813,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -785,6 +837,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1089,14 +1143,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB33"/>
+  <dimension ref="A1:AD34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="51" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
+    <sheetView zoomScale="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AD35" sqref="AD35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="14.7265625" customWidth="1"/>
@@ -1124,9 +1178,11 @@
     <col min="25" max="25" width="20.26953125" customWidth="1"/>
     <col min="26" max="26" width="68.7265625" customWidth="1"/>
     <col min="28" max="28" width="41.90625" customWidth="1"/>
+    <col min="29" max="29" width="29.54296875" customWidth="1"/>
+    <col min="30" max="30" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1211,8 +1267,14 @@
       <c r="AB1" s="8" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="2" spans="1:28">
+      <c r="AC1" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD1" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>45817</v>
       </c>
@@ -1282,7 +1344,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>45818</v>
       </c>
@@ -1352,7 +1414,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="22.5" customHeight="1">
+    <row r="4" spans="1:30" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>45819</v>
       </c>
@@ -1422,7 +1484,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="20.25" customHeight="1">
+    <row r="5" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>45820</v>
       </c>
@@ -1492,7 +1554,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="29">
+    <row r="6" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>45821</v>
       </c>
@@ -1553,7 +1615,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>45822</v>
       </c>
@@ -1617,7 +1679,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="29">
+    <row r="8" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>45823</v>
       </c>
@@ -1687,7 +1749,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="29">
+    <row r="9" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>45824</v>
       </c>
@@ -1757,7 +1819,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="29">
+    <row r="10" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>45825</v>
       </c>
@@ -1824,7 +1886,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>45826</v>
       </c>
@@ -1894,7 +1956,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>45827</v>
       </c>
@@ -1958,7 +2020,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>45828</v>
       </c>
@@ -2028,7 +2090,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>45829</v>
       </c>
@@ -2098,7 +2160,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>45830</v>
       </c>
@@ -2168,7 +2230,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>45831</v>
       </c>
@@ -2241,7 +2303,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>45832</v>
       </c>
@@ -2314,7 +2376,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>45833</v>
       </c>
@@ -2387,7 +2449,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>45834</v>
       </c>
@@ -2460,7 +2522,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>45835</v>
       </c>
@@ -2533,7 +2595,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>45836</v>
       </c>
@@ -2608,7 +2670,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>45837</v>
       </c>
@@ -2683,7 +2745,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>45838</v>
       </c>
@@ -2761,7 +2823,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>45839</v>
       </c>
@@ -2839,7 +2901,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>45840</v>
       </c>
@@ -2917,7 +2979,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>45841</v>
       </c>
@@ -2994,11 +3056,11 @@
       <c r="AA26" t="s">
         <v>17</v>
       </c>
-      <c r="AB26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28">
+      <c r="AB26" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>45842</v>
       </c>
@@ -3075,11 +3137,11 @@
       <c r="AA27" t="s">
         <v>17</v>
       </c>
-      <c r="AB27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28">
+      <c r="AB27" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>45843</v>
       </c>
@@ -3156,11 +3218,11 @@
       <c r="AA28" t="s">
         <v>17</v>
       </c>
-      <c r="AB28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" ht="17.5">
+      <c r="AB28" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>45844</v>
       </c>
@@ -3239,11 +3301,11 @@
       <c r="AA29" t="s">
         <v>18</v>
       </c>
-      <c r="AB29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" ht="15.5">
+      <c r="AB29" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>45845</v>
       </c>
@@ -3322,11 +3384,11 @@
       <c r="AA30" t="s">
         <v>17</v>
       </c>
-      <c r="AB30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28">
+      <c r="AB30" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>45846</v>
       </c>
@@ -3405,11 +3467,14 @@
       <c r="AA31" t="s">
         <v>17</v>
       </c>
-      <c r="AB31" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28">
+      <c r="AB31" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>45847</v>
       </c>
@@ -3426,7 +3491,7 @@
         <v>0.92500000000000004</v>
       </c>
       <c r="G32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3488,11 +3553,14 @@
       <c r="AA32" t="s">
         <v>18</v>
       </c>
-      <c r="AB32" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:28">
+      <c r="AB32" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>45848</v>
       </c>
@@ -3526,8 +3594,11 @@
       <c r="L33">
         <v>3</v>
       </c>
-      <c r="N33" t="s">
-        <v>189</v>
+      <c r="M33">
+        <v>40</v>
+      </c>
+      <c r="N33">
+        <v>70</v>
       </c>
       <c r="O33" t="s">
         <v>18</v>
@@ -3536,6 +3607,9 @@
         <v>17</v>
       </c>
       <c r="Q33" t="s">
+        <v>17</v>
+      </c>
+      <c r="R33" t="s">
         <v>17</v>
       </c>
       <c r="S33" t="s">
@@ -3556,13 +3630,90 @@
       <c r="X33" t="s">
         <v>18</v>
       </c>
+      <c r="Y33" t="s">
+        <v>18</v>
+      </c>
       <c r="Z33" t="s">
         <v>18</v>
       </c>
       <c r="AA33" t="s">
         <v>17</v>
       </c>
-      <c r="AB33" t="s">
+      <c r="AB33" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A34" s="3">
+        <v>45849</v>
+      </c>
+      <c r="B34" s="3">
+        <v>45849</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.37361111111111112</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0.22569444444444445</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="G34" t="s">
+        <v>200</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" t="s">
+        <v>18</v>
+      </c>
+      <c r="K34">
+        <v>3.9</v>
+      </c>
+      <c r="L34">
+        <v>3.5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>204</v>
+      </c>
+      <c r="O34" t="s">
+        <v>17</v>
+      </c>
+      <c r="P34" t="s">
+        <v>17</v>
+      </c>
+      <c r="R34" t="s">
+        <v>17</v>
+      </c>
+      <c r="S34" t="s">
+        <v>18</v>
+      </c>
+      <c r="U34">
+        <v>2.9</v>
+      </c>
+      <c r="V34" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="W34" t="s">
+        <v>18</v>
+      </c>
+      <c r="X34" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB34" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3573,19 +3724,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93705B71-B67A-491B-A5BA-4FFCED5EBDF0}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="40.81640625" customWidth="1"/>
+    <col min="3" max="3" width="57.54296875" customWidth="1"/>
     <col min="4" max="4" width="33.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3598,8 +3749,11 @@
       <c r="D1" s="7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>45835</v>
       </c>
@@ -3612,8 +3766,11 @@
       <c r="D2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>45835</v>
       </c>
@@ -3623,16 +3780,22 @@
       <c r="C3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>45837</v>
       </c>
       <c r="C4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>45845</v>
       </c>
@@ -3644,6 +3807,51 @@
       </c>
       <c r="D5" t="s">
         <v>176</v>
+      </c>
+      <c r="E5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>45849</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.37222222222222223</v>
+      </c>
+      <c r="C6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>45849</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.7729166666666667</v>
+      </c>
+      <c r="C7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D7" t="s">
+        <v>203</v>
+      </c>
+      <c r="E7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>45849</v>
+      </c>
+      <c r="C8" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -3652,21 +3860,83 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C881BD62-A8F3-4749-924F-C3650EDFCB2C}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="52" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>45848</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>45848</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.8520833333333333</v>
+      </c>
+      <c r="C3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>45848</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.85624999999999996</v>
+      </c>
+      <c r="C4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3342F89-0DF1-477C-90A3-82C0FE803629}">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="41" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="26.7265625" customWidth="1"/>
     <col min="4" max="4" width="15.7265625" customWidth="1"/>
     <col min="5" max="5" width="22.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>69</v>
       </c>
@@ -3686,7 +3956,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3697,7 +3967,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3708,7 +3978,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3719,7 +3989,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3730,7 +4000,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3738,7 +4008,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3749,7 +4019,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3760,7 +4030,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3768,7 +4038,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3776,7 +4046,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3787,7 +4057,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3795,7 +4065,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3806,7 +4076,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3817,7 +4087,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3828,7 +4098,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3839,7 +4109,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3850,7 +4120,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3861,7 +4131,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3872,7 +4142,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3883,7 +4153,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3891,7 +4161,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3902,7 +4172,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3913,7 +4183,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3924,7 +4194,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3935,7 +4205,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3946,7 +4216,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3954,7 +4224,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3965,7 +4235,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3973,7 +4243,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3981,7 +4251,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3992,7 +4262,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4000,7 +4270,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4008,7 +4278,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4016,7 +4286,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4024,7 +4294,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4032,7 +4302,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4040,7 +4310,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4048,7 +4318,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4056,7 +4326,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4064,7 +4334,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4072,7 +4342,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4080,7 +4350,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4088,7 +4358,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4096,7 +4366,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4104,7 +4374,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4112,7 +4382,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4120,7 +4390,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4128,7 +4398,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4136,7 +4406,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4144,7 +4414,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4152,7 +4422,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4160,7 +4430,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4168,7 +4438,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4176,7 +4446,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4184,7 +4454,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4192,7 +4462,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4200,7 +4470,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4208,7 +4478,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4216,7 +4486,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4224,7 +4494,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4232,7 +4502,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4240,7 +4510,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4248,7 +4518,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4256,7 +4526,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4264,7 +4534,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4272,7 +4542,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4280,7 +4550,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4288,7 +4558,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4296,7 +4566,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4304,7 +4574,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4312,7 +4582,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4320,7 +4590,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4328,7 +4598,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4336,7 +4606,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4344,7 +4614,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4352,7 +4622,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4360,7 +4630,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4368,7 +4638,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4376,7 +4646,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4389,15 +4659,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{907FE1E3-15BE-44A0-A847-47C9BA7C5DB3}">
   <dimension ref="E6:G10"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="5" max="5" width="12.08984375" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
@@ -4405,12 +4675,12 @@
     <col min="8" max="8" width="9.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="5:7">
+    <row r="6" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E6" s="7" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="5:7">
+    <row r="8" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E8" s="7" t="s">
         <v>158</v>
       </c>
@@ -4421,7 +4691,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="5:7" ht="101.5">
+    <row r="9" spans="5:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="E9" s="3">
         <v>45845</v>
       </c>
@@ -4432,7 +4702,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="5:7">
+    <row r="10" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E10" s="3">
         <v>45846</v>
       </c>
@@ -4445,15 +4715,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3789118E-0AF7-4EA5-8ED1-318AFB6E5158}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="14.81640625" customWidth="1"/>
@@ -4462,7 +4732,7 @@
     <col min="11" max="11" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -4506,7 +4776,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>45845</v>
       </c>
@@ -4514,7 +4784,7 @@
         <v>0.77430555555555558</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>45846</v>
       </c>
@@ -4528,7 +4798,7 @@
         <v>292986</v>
       </c>
       <c r="F3" s="11">
-        <v>300000</v>
+        <v>638000</v>
       </c>
       <c r="G3" s="10">
         <v>206068</v>
@@ -4543,10 +4813,10 @@
         <v>5104</v>
       </c>
       <c r="K3" s="10">
-        <v>975972</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1313972</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>45847</v>
       </c>
@@ -4560,7 +4830,7 @@
         <v>292986</v>
       </c>
       <c r="F4" s="11">
-        <v>300000</v>
+        <v>638000</v>
       </c>
       <c r="G4" s="10">
         <v>206068</v>
@@ -4575,15 +4845,50 @@
         <v>5104</v>
       </c>
       <c r="K4" s="10">
-        <v>986972</v>
-      </c>
+        <v>1324972</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>45848</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.79791666666666672</v>
+      </c>
+      <c r="D5" s="10">
+        <v>119330</v>
+      </c>
+      <c r="E5" s="10">
+        <v>292986</v>
+      </c>
+      <c r="F5" s="11">
+        <v>638000</v>
+      </c>
+      <c r="G5" s="10">
+        <v>206068</v>
+      </c>
+      <c r="H5" s="10">
+        <v>55138</v>
+      </c>
+      <c r="I5" s="10">
+        <v>13380</v>
+      </c>
+      <c r="J5" s="10">
+        <v>5104</v>
+      </c>
+      <c r="K5" s="10">
+        <v>1330006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K6" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{424E56A8-62FC-421D-9505-4B246BFFD6E3}">
   <dimension ref="E5:F6"/>
   <sheetViews>
@@ -4591,9 +4896,9 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="5" spans="5:6">
+    <row r="5" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E5" t="s">
         <v>178</v>
       </c>
@@ -4601,7 +4906,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="5:6">
+    <row r="6" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E6" t="s">
         <v>180</v>
       </c>
@@ -4614,7 +4919,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C931137D-A4D7-4271-AEE2-428C8913AAD2}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -4622,14 +4927,14 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="21.1796875" customWidth="1"/>
     <col min="4" max="4" width="36.6328125" customWidth="1"/>
     <col min="5" max="5" width="46.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -4646,7 +4951,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>45847</v>
       </c>
@@ -4657,7 +4962,7 @@
         <v>0.34375</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>45847</v>
       </c>
@@ -4674,7 +4979,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>45848</v>
       </c>
@@ -4682,13 +4987,13 @@
         <v>0.81111111111111112</v>
       </c>
       <c r="C8" t="s">
+        <v>190</v>
+      </c>
+      <c r="D8" t="s">
         <v>191</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>192</v>
-      </c>
-      <c r="E8" t="s">
-        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/Daily_Activity_Tracker_Template.xlsx
+++ b/Daily_Activity_Tracker_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B39C0D-2E4C-49C2-8C57-5549D1089A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C77EEE0-E2EE-44B7-B3B8-43EB1163B912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily_Update" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,16 @@
     <sheet name="About Me" sheetId="6" r:id="rId7"/>
     <sheet name="With Females" sheetId="7" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="a">Daily_Update!$QSA$1</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
   <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="211">
   <si>
     <t>Date</t>
   </si>
@@ -674,9 +677,6 @@
     <t>I said lets not FAP and see and observe the body reaction and it is normal after 30 secs I didn’t feel any urge from vody anymore the rest day.</t>
   </si>
   <si>
-    <t>After wakeup gets lot of thought about my maa. How see loves me infinitly but I don’t think much about here. I don’t care her that much. I hurt her frequently. But still she loves me. Treat me with smile. Then I called her and share these thing eith her.......elaborate this when resuming journaling. [18:26] .........At ofc today I had training on SQA. Most of the time Tanya related thoughts were moving. I was fruested insde that why these stupid thought is coming all the time and I am not able to focus on trining. But I failed to stop these thoughts. Still it is bothering me. I just want to tell myself that whenever I will win over this who Tanya situation of my life and I learn to control my thoughts through meditation or whatever I will salute myself and give the highest civilian award to myself.</t>
-  </si>
-  <si>
     <t>I have to learn the skill of controlling my thoughts coming in my mind.</t>
   </si>
   <si>
@@ -686,9 +686,6 @@
     <t xml:space="preserve">Why is it so that despite many times making myself understand and its been 3 weeks now that there is no conversation between me and Tanya and also on 2nd week I was not getting so much thought on her but from 4-5 days again thoughts related to her has statrted hijaking my mind. I want to figure out its root cause. I think I am not targetting the root. I need to figure out the root. I think I am not very much involved in any other activity like office testing work is also halted from last 1 month and no such official work at ofc. I also dont do any such major productive. I can read lot of books but I hardly do it. Its like in a single da at ofc I can do book reading for easily 3 to 4 hours and 1 hour of jorunaling but I dont do. No other tension is there in life so mind isthinking about it all day. Also I am not brain storming on what my future plans would be like related to finance especially. I need to learn skills realted to financial growth. It will give me security. Like in every difficult situation I should be having a huge amount of money. There any be the case and its a huge possibility from internal as well as any external force that I can be trapped and can be put under wrong elegations its risk is high for you because you do courages things, out of you comfortable zones, gets influenced by surrondings, most of the time you be in new things weather its people, place, culture, officical/unofficial work. I had to take my parents to various religoius non religious tourists site. I need to have alot of financial backup so that if my family or myself need any kind of medical emergency which require huge money to save oneself then I should have that. My mother and father's old days are very near and they will be requiring facilities in most of the things like if we are travelling then it will be comfortable for them to ravel via flight, it will be better for my mothers health like joint pain, and hectic schedule. I can buy much more comfortablethings which will enhance my productivity like good mattress, flat, etc. I can call and organize premiun satsang mahatmas, prakasmuni naam saheb, bhagwat katha, ram katha, chauka aarti. I can visit foreign countries and see how the developed natons look and what they are doing. Wherever I go I will be welcomed with great respect and honor. More importantly my parents will be treated with great respect. I and my parents will be given special seat, special food, special attention wherever we go. </t>
   </si>
   <si>
-    <t>60+</t>
-  </si>
-  <si>
     <t>A-70</t>
   </si>
   <si>
@@ -699,13 +696,28 @@
   </si>
   <si>
     <t>Worked on Routine Setup Project ?</t>
+  </si>
+  <si>
+    <t>After wakeup gets lot of thought about my maa. How see loves me infinitly but I don’t think much about here. I don’t care her that much. I hurt her frequently. But still she loves me. Treat me with smile. Then I called her and share these thing eith her.......elaborate this when resuming journaling. [18:26] .........At ofc today I had training on SQA. Most of the time Tanya related thoughts were moving. I was fruested insde that why these stupid thought is coming all the time and I am not able to focus on trining. But I failed to stop these thoughts. Still it is bothering me. I just want to tell myself that whenever I will win over this who Tanya situation of my life and I learn to control my thoughts through meditation or whatever I will salute myself and give the highest civilian award to myself. During dinner at boc I show a wife of some bel employee. She was damn hot and sexy. She had a little kid and her husband seems very simple. She after dinner was walking insde the hall with her kid and it was just in front of me. I was looking at her constantly. Her boobs were so big and seducive. Her lips were so sexy cute and with lipstick. She was also looking at me cousiously few times. After I came to room for sleep, I cant able to control myself and FAPPED.</t>
+  </si>
+  <si>
+    <t>Sunday!!..Wakedup and during wakeup lot of toilet was inside my body. Room was very cold due to AC. I started getting sexy thoughts especially related to Tanya as she is not doubt very very sexty hot and spicy girl who flaunts her boobs butts and ready to give her body type of girl. So although my scenerio with her got too complicated and I am maintaing distance with her and also I kniw that other that sexual activity I had no growthful thing with her as her friend circle is not of the people I like, all her friend like ankit, jitu ,viswas, shivani maam, abhishek they are all shit talking people. So even if I get hook up with her I will not be very happy and I may choose to stay away from her even if she is doing sex with me, because the cost of sex which i have to pay is much much hogher and I will be surrounded by people and things which I neither like and nor are growthful and productive. So no doubt Tanya will give me good sex and full fill my sexual need but in return what she will expect from me is something completly I am not interested in doing as those things will take me down every day. So it is good that our hook up didnt happened as I might wasted more time involving in her and her stupid friends just for getting sex. Also If I keep patience like I have kep till now I will get better option for sex, love and friendship. So in the morning I started getting sexy thought about her but I avoided it successfully. Then freshed-&gt;insta little-&gt;maa call-&gt;5AM club book read for 100minutes-&gt;insta-&gt;Lunch-&gt;…...While reading the book I am constantly getting thoughts of Tanya. I am very calm about it.I know I will overcom efrom it one day and it will not bother me. Its a new situation for to share same workplace and team from whome I had to move on but at the same time this situation i making me learn many important things which will help me throughout my life. Also I am thinking about that boc girl (some bel office's daughter with whom I am sharing some moments from last 3 months approx. I am thinking about her that how should i approach her. She seems interested but at the same time I dont feel like staright go to talk. I think for her case I need to create some scenerio which look spontaneous and effortless. I have to make a proper plan for breaking the ice.</t>
+  </si>
+  <si>
+    <t>[13 jul 2025] (14:40) At ofc no such work was there. Shreesh sir also was on leave. I whole day doing one thing majorly at ofc and that is sending follow requests to many girls over instagram like from my caste as well as from other castes. Also yesterday I sent manjari one reel, which she positively responded. And today she was happy vibe towards me. Talking well with me. Also doing testing with me with full interest interacting and discussing with me. Then at nealy 4:40 she was sitting at lab just in front of me playing laptop game, showing her thick thigs. I was listening to music and instagram. Then I thought that she want that I should have a converastion with her. The I talked with her for nearly 20 minutes. I saw Tanya 2-3 times but I didnt get that much uneasy and discomfort today as I used to 2-3 weeks earlier after our last conversation. Although I was getting thoughts related to her frequently which I think with time disappear so I am just giving this thing time. May be in next 4 to 10 months this thing will be over from my mind. Then at evening I went to boc for exercising. While exercising for some time I saw that girl who is my crush who is some bel's officer's daughter. Then I gets very happy. Then she came walking near my exercising area. I saw her and we had a little eye contact. She also reacted after looking at me (a little wired reaction it was). Then total she came that side 4 times. She looks gorgeous. She is just amazingly pretty and beautiful. I went tinto some other world when she is around. Important point to note here is that no Tanya related thought has came into my mind till she was around. Means the thing I want to conquer i.e. my mind and want it to not think about a particular thing and just be present, has happened and I experienced it when she was around me for nearly 35 minutes. Also at night I went to sleep at 10:20 but struggled to get sleep till 11:40 and since not getting I was also fighting with myself to not to musturbate which I successfully avoided.</t>
+  </si>
+  <si>
+    <t>1. Generate Ideas to spend time with maa
+2. Figure what needs to be done for maa visit like fridge cleaning and cooler repair
+3. 5AM club read
+4. Journal at ofc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -813,7 +825,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -828,9 +840,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1143,46 +1152,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD34"/>
+  <dimension ref="A1:AD36"/>
   <sheetViews>
-    <sheetView zoomScale="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD35" sqref="AD35"/>
+    <sheetView zoomScale="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="14.7265625" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" customWidth="1"/>
-    <col min="4" max="4" width="13.90625" customWidth="1"/>
-    <col min="5" max="5" width="20.81640625" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="57.81640625" customWidth="1"/>
-    <col min="8" max="8" width="12.54296875" customWidth="1"/>
-    <col min="9" max="9" width="18.7265625" customWidth="1"/>
-    <col min="10" max="10" width="24.453125" customWidth="1"/>
-    <col min="11" max="11" width="22.26953125" customWidth="1"/>
-    <col min="12" max="12" width="19.90625" customWidth="1"/>
-    <col min="13" max="13" width="25.26953125" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" customWidth="1"/>
+    <col min="7" max="7" width="57.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
+    <col min="10" max="10" width="24.42578125" customWidth="1"/>
+    <col min="11" max="11" width="22.28515625" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" customWidth="1"/>
+    <col min="13" max="13" width="25.28515625" customWidth="1"/>
     <col min="14" max="14" width="21" customWidth="1"/>
-    <col min="15" max="15" width="35.54296875" customWidth="1"/>
-    <col min="16" max="16" width="21.81640625" customWidth="1"/>
-    <col min="17" max="17" width="22.26953125" customWidth="1"/>
-    <col min="18" max="18" width="18.54296875" customWidth="1"/>
-    <col min="19" max="19" width="20.7265625" customWidth="1"/>
-    <col min="20" max="20" width="19.26953125" customWidth="1"/>
-    <col min="21" max="21" width="34.54296875" customWidth="1"/>
+    <col min="15" max="15" width="35.5703125" customWidth="1"/>
+    <col min="16" max="16" width="21.85546875" customWidth="1"/>
+    <col min="17" max="17" width="22.28515625" customWidth="1"/>
+    <col min="18" max="18" width="18.5703125" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" customWidth="1"/>
+    <col min="20" max="20" width="19.28515625" customWidth="1"/>
+    <col min="21" max="21" width="34.5703125" customWidth="1"/>
     <col min="22" max="22" width="26" customWidth="1"/>
-    <col min="24" max="24" width="16.1796875" customWidth="1"/>
-    <col min="25" max="25" width="20.26953125" customWidth="1"/>
-    <col min="26" max="26" width="68.7265625" customWidth="1"/>
-    <col min="28" max="28" width="41.90625" customWidth="1"/>
-    <col min="29" max="29" width="29.54296875" customWidth="1"/>
+    <col min="24" max="24" width="16.140625" customWidth="1"/>
+    <col min="25" max="25" width="20.28515625" customWidth="1"/>
+    <col min="26" max="26" width="68.7109375" customWidth="1"/>
+    <col min="28" max="28" width="41.85546875" customWidth="1"/>
+    <col min="29" max="29" width="29.5703125" customWidth="1"/>
     <col min="30" max="30" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1258,23 +1267,23 @@
       <c r="Y1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="Z1" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AA1" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AB1" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AC1" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="AD1" s="8" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD1" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2" s="3">
         <v>45817</v>
       </c>
@@ -1344,7 +1353,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30">
       <c r="A3" s="3">
         <v>45818</v>
       </c>
@@ -1414,7 +1423,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" ht="22.5" customHeight="1">
       <c r="A4" s="3">
         <v>45819</v>
       </c>
@@ -1484,7 +1493,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" ht="20.25" customHeight="1">
       <c r="A5" s="3">
         <v>45820</v>
       </c>
@@ -1554,7 +1563,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" ht="30">
       <c r="A6" s="3">
         <v>45821</v>
       </c>
@@ -1615,7 +1624,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30">
       <c r="A7" s="3">
         <v>45822</v>
       </c>
@@ -1679,7 +1688,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" ht="30">
       <c r="A8" s="3">
         <v>45823</v>
       </c>
@@ -1749,7 +1758,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" ht="30">
       <c r="A9" s="3">
         <v>45824</v>
       </c>
@@ -1819,7 +1828,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:30" ht="30">
       <c r="A10" s="3">
         <v>45825</v>
       </c>
@@ -1886,7 +1895,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:30">
       <c r="A11" s="3">
         <v>45826</v>
       </c>
@@ -1956,7 +1965,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:30">
       <c r="A12" s="3">
         <v>45827</v>
       </c>
@@ -2020,7 +2029,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:30">
       <c r="A13" s="3">
         <v>45828</v>
       </c>
@@ -2090,7 +2099,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:30">
       <c r="A14" s="3">
         <v>45829</v>
       </c>
@@ -2160,7 +2169,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:30">
       <c r="A15" s="3">
         <v>45830</v>
       </c>
@@ -2230,7 +2239,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:30">
       <c r="A16" s="3">
         <v>45831</v>
       </c>
@@ -2303,7 +2312,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:30">
       <c r="A17" s="3">
         <v>45832</v>
       </c>
@@ -2376,7 +2385,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:30">
       <c r="A18" s="3">
         <v>45833</v>
       </c>
@@ -2449,7 +2458,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:30">
       <c r="A19" s="3">
         <v>45834</v>
       </c>
@@ -2522,7 +2531,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:30">
       <c r="A20" s="3">
         <v>45835</v>
       </c>
@@ -2595,7 +2604,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:30">
       <c r="A21" s="3">
         <v>45836</v>
       </c>
@@ -2670,7 +2679,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:30">
       <c r="A22" s="3">
         <v>45837</v>
       </c>
@@ -2745,7 +2754,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:30">
       <c r="A23" s="3">
         <v>45838</v>
       </c>
@@ -2823,7 +2832,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:30">
       <c r="A24" s="3">
         <v>45839</v>
       </c>
@@ -2901,7 +2910,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:30">
       <c r="A25" s="3">
         <v>45840</v>
       </c>
@@ -2979,7 +2988,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:30">
       <c r="A26" s="3">
         <v>45841</v>
       </c>
@@ -3056,11 +3065,11 @@
       <c r="AA26" t="s">
         <v>17</v>
       </c>
-      <c r="AB26" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AB26" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30">
       <c r="A27" s="3">
         <v>45842</v>
       </c>
@@ -3137,11 +3146,11 @@
       <c r="AA27" t="s">
         <v>17</v>
       </c>
-      <c r="AB27" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AB27" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30">
       <c r="A28" s="3">
         <v>45843</v>
       </c>
@@ -3218,11 +3227,11 @@
       <c r="AA28" t="s">
         <v>17</v>
       </c>
-      <c r="AB28" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="AB28" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" ht="18">
       <c r="A29" s="3">
         <v>45844</v>
       </c>
@@ -3238,7 +3247,7 @@
       <c r="E29" s="2">
         <v>0.98263888888888884</v>
       </c>
-      <c r="G29" s="12" t="s">
+      <c r="G29" s="11" t="s">
         <v>174</v>
       </c>
       <c r="H29">
@@ -3301,11 +3310,11 @@
       <c r="AA29" t="s">
         <v>18</v>
       </c>
-      <c r="AB29" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AB29" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" ht="15.75">
       <c r="A30" s="3">
         <v>45845</v>
       </c>
@@ -3321,7 +3330,7 @@
       <c r="E30" s="2">
         <v>6.9444444444444448E-2</v>
       </c>
-      <c r="G30" s="12" t="s">
+      <c r="G30" s="11" t="s">
         <v>175</v>
       </c>
       <c r="H30">
@@ -3384,11 +3393,11 @@
       <c r="AA30" t="s">
         <v>17</v>
       </c>
-      <c r="AB30" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AB30" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30">
       <c r="A31" s="3">
         <v>45846</v>
       </c>
@@ -3398,10 +3407,10 @@
       <c r="C31" s="2">
         <v>0.3125</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="13">
         <v>0.21736111111111112</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="13">
         <v>0.94097222222222221</v>
       </c>
       <c r="G31" t="s">
@@ -3467,14 +3476,14 @@
       <c r="AA31" t="s">
         <v>17</v>
       </c>
-      <c r="AB31" s="15" t="s">
+      <c r="AB31" s="14" t="s">
         <v>17</v>
       </c>
       <c r="AD31" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:30">
       <c r="A32" s="3">
         <v>45847</v>
       </c>
@@ -3553,14 +3562,14 @@
       <c r="AA32" t="s">
         <v>18</v>
       </c>
-      <c r="AB32" s="15" t="s">
+      <c r="AB32" s="14" t="s">
         <v>17</v>
       </c>
       <c r="AD32" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:30">
       <c r="A33" s="3">
         <v>45848</v>
       </c>
@@ -3639,7 +3648,7 @@
       <c r="AA33" t="s">
         <v>17</v>
       </c>
-      <c r="AB33" s="15" t="s">
+      <c r="AB33" s="14" t="s">
         <v>17</v>
       </c>
       <c r="AC33" t="s">
@@ -3649,7 +3658,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:30">
       <c r="A34" s="3">
         <v>45849</v>
       </c>
@@ -3666,10 +3675,10 @@
         <v>0.9375</v>
       </c>
       <c r="G34" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="s">
         <v>18</v>
@@ -3683,8 +3692,8 @@
       <c r="L34">
         <v>3.5</v>
       </c>
-      <c r="N34" t="s">
-        <v>204</v>
+      <c r="N34">
+        <v>80</v>
       </c>
       <c r="O34" t="s">
         <v>17</v>
@@ -3692,17 +3701,23 @@
       <c r="P34" t="s">
         <v>17</v>
       </c>
+      <c r="Q34" t="s">
+        <v>18</v>
+      </c>
       <c r="R34" t="s">
         <v>17</v>
       </c>
       <c r="S34" t="s">
         <v>18</v>
+      </c>
+      <c r="T34" t="s">
+        <v>17</v>
       </c>
       <c r="U34">
         <v>2.9</v>
       </c>
       <c r="V34" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="W34" t="s">
         <v>18</v>
@@ -3710,10 +3725,113 @@
       <c r="X34" t="s">
         <v>18</v>
       </c>
+      <c r="Y34" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>18</v>
+      </c>
       <c r="AA34" t="s">
         <v>17</v>
       </c>
-      <c r="AB34" s="15" t="s">
+      <c r="AB34" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30">
+      <c r="A35" s="3">
+        <v>45850</v>
+      </c>
+      <c r="B35" s="3">
+        <v>45850</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.36249999999999999</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0.31597222222222221</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="G35" t="s">
+        <v>209</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" t="s">
+        <v>18</v>
+      </c>
+      <c r="K35">
+        <v>3.5</v>
+      </c>
+      <c r="L35">
+        <v>3.5</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35" t="s">
+        <v>18</v>
+      </c>
+      <c r="P35" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>17</v>
+      </c>
+      <c r="R35" t="s">
+        <v>17</v>
+      </c>
+      <c r="S35" t="s">
+        <v>18</v>
+      </c>
+      <c r="T35" t="s">
+        <v>18</v>
+      </c>
+      <c r="U35">
+        <v>2.7</v>
+      </c>
+      <c r="V35" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30">
+      <c r="A36" s="3">
+        <v>45851</v>
+      </c>
+      <c r="B36" s="3">
+        <v>45851</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0.30486111111111114</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0.99305555555555558</v>
+      </c>
+      <c r="G36" t="s">
+        <v>208</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="S36" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3726,17 +3844,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93705B71-B67A-491B-A5BA-4FFCED5EBDF0}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
+    <sheetView zoomScale="98" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="57.54296875" customWidth="1"/>
-    <col min="4" max="4" width="33.81640625" customWidth="1"/>
+    <col min="3" max="3" width="57.5703125" customWidth="1"/>
+    <col min="4" max="4" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3750,10 +3868,10 @@
         <v>53</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="3">
         <v>45835</v>
       </c>
@@ -3767,10 +3885,10 @@
         <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="3">
         <v>45835</v>
       </c>
@@ -3781,10 +3899,10 @@
         <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="3">
         <v>45837</v>
       </c>
@@ -3792,10 +3910,10 @@
         <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="3">
         <v>45845</v>
       </c>
@@ -3809,10 +3927,10 @@
         <v>176</v>
       </c>
       <c r="E5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="3">
         <v>45849</v>
       </c>
@@ -3826,10 +3944,10 @@
         <v>199</v>
       </c>
       <c r="E6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="3">
         <v>45849</v>
       </c>
@@ -3837,21 +3955,21 @@
         <v>0.7729166666666667</v>
       </c>
       <c r="C7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="3">
         <v>45849</v>
       </c>
       <c r="C8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -3867,12 +3985,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3883,7 +4001,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" s="3">
         <v>45848</v>
       </c>
@@ -3894,7 +4012,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="3">
         <v>45848</v>
       </c>
@@ -3905,7 +4023,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" s="3">
         <v>45848</v>
       </c>
@@ -3929,34 +4047,34 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="26.7265625" customWidth="1"/>
-    <col min="4" max="4" width="15.7265625" customWidth="1"/>
-    <col min="5" max="5" width="22.7265625" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3967,7 +4085,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3978,7 +4096,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3989,7 +4107,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4000,7 +4118,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4008,7 +4126,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4019,7 +4137,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4030,7 +4148,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4038,7 +4156,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4046,7 +4164,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4057,7 +4175,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4065,7 +4183,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4076,7 +4194,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4087,7 +4205,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4098,7 +4216,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4109,7 +4227,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4120,7 +4238,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4131,7 +4249,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4142,7 +4260,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4153,7 +4271,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4161,7 +4279,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4172,7 +4290,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4183,7 +4301,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4194,7 +4312,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4205,7 +4323,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4216,7 +4334,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4224,7 +4342,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4235,7 +4353,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4243,7 +4361,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4251,7 +4369,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4262,7 +4380,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4270,7 +4388,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4278,7 +4396,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4286,7 +4404,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4294,7 +4412,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4302,7 +4420,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4310,7 +4428,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4318,7 +4436,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4326,7 +4444,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4334,7 +4452,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4342,7 +4460,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4350,7 +4468,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4358,7 +4476,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4366,7 +4484,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4374,7 +4492,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4382,7 +4500,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4390,7 +4508,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4398,7 +4516,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4406,7 +4524,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4414,7 +4532,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4422,7 +4540,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4430,7 +4548,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4438,7 +4556,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4446,7 +4564,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4454,7 +4572,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4462,7 +4580,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4470,7 +4588,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4478,7 +4596,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4486,7 +4604,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4494,7 +4612,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4502,7 +4620,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4510,7 +4628,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4518,7 +4636,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4526,7 +4644,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4534,7 +4652,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4542,7 +4660,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4550,7 +4668,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4558,7 +4676,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4566,7 +4684,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4574,7 +4692,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4582,7 +4700,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4590,7 +4708,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4598,7 +4716,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4606,7 +4724,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4614,7 +4732,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4622,7 +4740,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4630,7 +4748,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4638,7 +4756,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4646,7 +4764,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4661,26 +4779,26 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{907FE1E3-15BE-44A0-A847-47C9BA7C5DB3}">
-  <dimension ref="E6:G10"/>
+  <dimension ref="E6:G11"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="12.08984375" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="14.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.26953125" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="5:7">
       <c r="E6" s="7" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="5:7">
       <c r="E8" s="7" t="s">
         <v>158</v>
       </c>
@@ -4691,7 +4809,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="5:7" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="5:7" ht="120">
       <c r="E9" s="3">
         <v>45845</v>
       </c>
@@ -4702,12 +4820,23 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="5:7">
       <c r="E10" s="3">
         <v>45846</v>
       </c>
       <c r="F10" s="2">
         <v>0.34444444444444444</v>
+      </c>
+    </row>
+    <row r="11" spans="5:7" ht="195">
+      <c r="E11" s="3">
+        <v>45852</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.36527777777777776</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -4723,16 +4852,16 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="14.81640625" customWidth="1"/>
-    <col min="8" max="8" width="11.08984375" customWidth="1"/>
-    <col min="9" max="9" width="9.6328125" customWidth="1"/>
-    <col min="11" max="11" width="18.453125" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -4776,7 +4905,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14">
       <c r="A2" s="3">
         <v>45845</v>
       </c>
@@ -4784,104 +4913,104 @@
         <v>0.77430555555555558</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14">
       <c r="A3" s="3">
         <v>45846</v>
       </c>
       <c r="B3" s="2">
         <v>0.30486111111111114</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>119330</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <v>292986</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>638000</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="9">
         <v>206068</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="9">
         <v>50104</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="9">
         <v>2380</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="9">
         <v>5104</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="9">
         <v>1313972</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14">
       <c r="A4" s="3">
         <v>45847</v>
       </c>
       <c r="B4" s="2">
         <v>0.79791666666666672</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>119330</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <v>292986</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>638000</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9">
         <v>206068</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="9">
         <v>50104</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="9">
         <v>13380</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="9">
         <v>5104</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="9">
         <v>1324972</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14">
       <c r="A5" s="3">
         <v>45848</v>
       </c>
       <c r="B5" s="2">
         <v>0.79791666666666672</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>119330</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="9">
         <v>292986</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>638000</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="9">
         <v>206068</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="9">
         <v>55138</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="9">
         <v>13380</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="9">
         <v>5104</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="9">
         <v>1330006</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="K6" s="10"/>
+    <row r="6" spans="1:14">
+      <c r="K6" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4896,9 +5025,9 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="5" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="5:6">
       <c r="E5" t="s">
         <v>178</v>
       </c>
@@ -4906,11 +5035,11 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="5:6">
       <c r="E6" t="s">
         <v>180</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="12">
         <v>35637</v>
       </c>
     </row>
@@ -4927,14 +5056,14 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="21.1796875" customWidth="1"/>
-    <col min="4" max="4" width="36.6328125" customWidth="1"/>
-    <col min="5" max="5" width="46.1796875" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" customWidth="1"/>
+    <col min="5" max="5" width="46.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -4951,7 +5080,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" s="3">
         <v>45847</v>
       </c>
@@ -4962,7 +5091,7 @@
         <v>0.34375</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6" s="3">
         <v>45847</v>
       </c>
@@ -4979,7 +5108,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5">
       <c r="A8" s="3">
         <v>45848</v>
       </c>

--- a/Daily_Activity_Tracker_Template.xlsx
+++ b/Daily_Activity_Tracker_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C77EEE0-E2EE-44B7-B3B8-43EB1163B912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C078446-6162-4219-B5E0-EC49269C96D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -710,7 +710,10 @@
     <t>1. Generate Ideas to spend time with maa
 2. Figure what needs to be done for maa visit like fridge cleaning and cooler repair
 3. 5AM club read
-4. Journal at ofc</t>
+4. Journal at ofc
+(9:27)
+5. Write when when u broke ur correct routine like you made a streak of no phone no insta, whastaap, fb, yt reacetly 4 months back but u broke it for supriyas insta approach and then the rest is history.
+U had made a streak to sleep till 10:30 which u broke as you chatted with Tanya till 1:00 am that night and then rest is history. You from that day started coming late from ofc when maa had just went through eye surgery and also not treated her well coz in your mind different thoughts takeover and many things had affected badly which u should elaboratly write and write about all such incidence which u did knowing that it is wrong and it destroyed u badly and took u long back in time.</t>
   </si>
 </sst>
 </file>
@@ -4779,10 +4782,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{907FE1E3-15BE-44A0-A847-47C9BA7C5DB3}">
-  <dimension ref="E6:G11"/>
+  <dimension ref="E6:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4828,7 +4831,7 @@
         <v>0.34444444444444444</v>
       </c>
     </row>
-    <row r="11" spans="5:7" ht="195">
+    <row r="11" spans="5:7" ht="409.5">
       <c r="E11" s="3">
         <v>45852</v>
       </c>
@@ -4838,6 +4841,9 @@
       <c r="G11" s="4" t="s">
         <v>210</v>
       </c>
+    </row>
+    <row r="12" spans="5:7">
+      <c r="E12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Daily_Activity_Tracker_Template.xlsx
+++ b/Daily_Activity_Tracker_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C078446-6162-4219-B5E0-EC49269C96D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61723EAB-564E-4327-A29A-B8D71DF17E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily_Update" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="222">
   <si>
     <t>Date</t>
   </si>
@@ -248,9 +248,6 @@
     <t xml:space="preserve">Today morning I got nightfall and my 10 days streak of No Fap breaked. The reason I figured out is that I had done carelessness in my routine from last 3 to 4 days. Like I was sleepling till 8 to 8:15 which I sud till7 pm max. I was going to sleep after or at 11 which I sud till 10 pm. I stopped listening to premanand ji's pravachan which I was listening from last 7 days approx. I was spending more time on instagram. No such productive work at office. Skipped exercise. All these thing leads to make me FAPPED. Then after Nightfall I FAPPED at bathroom. Then went to ofc with poha on tiffin. Defense Secretatry visited at 12:20 pm at KAVACH lab. Then me and Shreesh sir went for lunch then sir went after eating as I have to eat more. I saw Aditi and others girls were on lunch queue. Aditisaw me and I also saw her. She waved her hand and then me too. Then Sandeep came to eat with me. Then I finished my meal then I have to go. I thought as she waved at me in front of so many people, I should not leave canteen with tleast having a cheat chat with her. So I went to her where she was sitting and asked her that if they brought UNO. She said they didnt. Then I said I have brought and it seems little advance version. So teach me also. She said ok. Then I left canteen. I went to TT at 5:15 and I was nervous about how will they take me when see me. Then welcomed nicely. Aditi and others were playing caram. I said lets play UNO. Aditi drag a chair for me beside her. I sat there and then we started playing the same. There were many TEs there. Approx 9 people were playing. I met new people Satish, Vivekanad and Saad. It was a good experience. Aditi taught me many rules and also she was not very happy with so many people. The we all went for snakcs and does together. The we left for home together till parking. </t>
   </si>
   <si>
-    <t>30+</t>
-  </si>
-  <si>
     <t>Wakeup-&gt;Freshedup-&gt;Ofc-&gt;not much work there-&gt;At 5;30 waited for girls(aditi +) to come then went after they came. Played with them. Then snacks with them. Didn’t feel that vibe of talking anything with Aditi. Then came along with them till gate. Shruti talked with we quite well, asked alot of questions. Then came room. Cooked dinner (paratha and tamatar chhowke).</t>
   </si>
   <si>
@@ -345,9 +342,6 @@
   </si>
   <si>
     <t>Nasta</t>
-  </si>
-  <si>
-    <t>20+</t>
   </si>
   <si>
     <t>Happy that last night I slept on time (22:00 went to bed), but still didn’t able to wakeup on time but still a progess getting sleep at 22:30. Also feeling good that I am getting consistency in Nasta regulary as It was getting missed early. It will have a huge positive impact on my health. I feel energetic. Today at ofc no much work as some issues were coming at developers end while testing of RIU diagnostics. Read 2-3 pages of 5 am club. Felt good vibe at ofc. Shreesh sir gave some work in the morning. Finished the same in the morning. Its about some information to gain from Abhinv and Kunal sir about the packets and headers related to LCU. AT TT time good happy time spent with Aditi. Then left with Sandeep.</t>
@@ -714,6 +708,45 @@
 (9:27)
 5. Write when when u broke ur correct routine like you made a streak of no phone no insta, whastaap, fb, yt reacetly 4 months back but u broke it for supriyas insta approach and then the rest is history.
 U had made a streak to sleep till 10:30 which u broke as you chatted with Tanya till 1:00 am that night and then rest is history. You from that day started coming late from ofc when maa had just went through eye surgery and also not treated her well coz in your mind different thoughts takeover and many things had affected badly which u should elaboratly write and write about all such incidence which u did knowing that it is wrong and it destroyed u badly and took u long back in time.</t>
+  </si>
+  <si>
+    <t>Giloy</t>
+  </si>
+  <si>
+    <t>At ofc interesting thing happened. I went to MI room with sagar and harshit. There I was sitting outside alone. Then a random casual girl came to me when I was busy doing something on my phone. She asked that I am from which department, I answered. Then she said I am alone here and I have no friends so can we connect over whatsapp. She asked me to send her hi over whatsapp an also write my name. I send her. Then she said ok rest we will connect over phone. After thta I started getting nervous and fearful. I thought that I should not talk with her over phone. She also didnt look good. I decided that she would certainly be some kind of fraud and I should not get into her trap. I also thought that I should talk to her once to knoe her intension. But then I thought whatever her intension would be, just to fuck her I should not get in any sort of conversation and communication with her. So I deleted my msg and blocked her in ofc only before she can even text me.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waked up really late. Then no much work at ofc. </t>
+  </si>
+  <si>
+    <t>Sleep wakeup timing destroyed</t>
+  </si>
+  <si>
+    <t>Also started regular FAP from 1 week.</t>
+  </si>
+  <si>
+    <t>About me with MAA from last 8 months or since Tanya episode</t>
+  </si>
+  <si>
+    <t>Starting one year experiment from today</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Today Shivani maam meet me at canteen at 3 pm approx. She said she wants to talk. She took me inside where Tanya, viswas, jitu were sitting. She said I should not have said to tanya "Can I kiss you". I then took her and viswas outside and explained them. But maam didnt considered my single point and biasedly tried to defend tanya. Then Tanya came out. I asked her also if she wants to say something. She didnt said anything. Then when I started walking she started souting that "I should have slapped you twice that day instead of talking, I made a mistake". Then shivani maam said "He will definetly get slapped someday if he didnt changed his behaviour" to me. But I didnt responeded them and walked away to lab. </t>
+  </si>
+  <si>
+    <t>Today with family went to see Taj mahal at  agra. We enjoyed a lot.</t>
+  </si>
+  <si>
+    <t>During returing to home I stoppped for nariyal pani. There I saw husband wife and saali. It was huge seducive sexual scenerio. They were poor family. Wife was inncoent and unattractive with small kid. But saali was super hot and sexy. Her face her lips were very seducive. Her boobs were perfectly bigger and sudoal. Then they all sit and saali sit in the middle on bike and her big boobs gets seducively squeezing on the back of her jija. Her dress was perfectly tight poping up her big boobs. I get very strong urge to masturbate after watching that. I almost decided to masturbate. But made my mind understand that I will not gain anything by masturbating but only release vast energy and experience body pain. I managed to cool down my urge with minutes. Definetly it was a huge huge urge. Its intensity was way too high. I went to budh bazar along with maa papa and didi.</t>
+  </si>
+  <si>
+    <t>Avoided huge FAP urge, it was really difficult to avoid.</t>
+  </si>
+  <si>
+    <t>Today I talked to shivani maam and said sorry to her and explained my points. She was very welcoming, understanding. I told her that there was a time when I got huge feelings for her and I got heartbreak and cried for her. I thought she was playing with my feelings.Maam said she believe in forgiving and she listened calmly. Also she asked if I will take part in rasing day I said I want but if anyone is uncomfortable I wont. She said I will see it. After converrsation with her I felt very relief. Yesterday I was in hug tension stress anexity about what would happen if she start creating seen in the office or salp me somewhere or complain against me. Maam also says she didnt wanted her to complain and even tanya didnt wanted to complain.</t>
+  </si>
+  <si>
+    <t>Today decided to say sorry to Tanya about my statement about kissing. As I thought we have to work at same workplace and she can create bad scenerios for me so I thought lets please her by saying sorry and end this whole episode. First I went to shivani maan but she left ofcearly. Then went to tanya seat and called her out. She refused to come. Then I went to jitu and said sorry to him and asked her to say to her aso. He said let me call tanya and ankit. Then all three came. I said sorry to all of them. Then tanya started yelling at me badly. She denied everything I said 3 days back to shivani maam like her messaging me at night or waterpark thing. She was continuously saying that whatever she did with me, she do it with everyone. And she was calling me with "tumse" word. She said she had lost all the respect for me. She also said I sent bad reels to shivani maam also which is absolutly wrong. I was clearly watching live the girl card and victim card playing in front of me. I was continuosly getting shocker. But it was a biggest life lesson for me. She said I would also be bad with other girls as well. I didnt lose for cool as I went there to cool down and close this whole situation. My mothers second day of surgery. Doctor said it was very complex surgery. It took his whole life experience to do this operation. So I am trying to focus on my mother rather than that dangerous false girl. I am trying to be calm as I am feeling little nervous about her making false eligation on me at ofc to every one. I am feeling little nervous. Although I know I am right and I had not done anything wrong. But I get to know how dangerous a girl can be. Also after ofc I went to shipra mall with my sister. I just need to let the time pass like around 6 months and this whole thing will be cool down.</t>
   </si>
 </sst>
 </file>
@@ -828,7 +861,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -851,6 +884,7 @@
     <xf numFmtId="20" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1155,51 +1189,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD36"/>
+  <dimension ref="A1:AE60"/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" customWidth="1"/>
-    <col min="7" max="7" width="57.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
-    <col min="10" max="10" width="24.42578125" customWidth="1"/>
-    <col min="11" max="11" width="22.28515625" customWidth="1"/>
-    <col min="12" max="12" width="19.85546875" customWidth="1"/>
-    <col min="13" max="13" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.7265625" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" customWidth="1"/>
+    <col min="5" max="5" width="18.81640625" customWidth="1"/>
+    <col min="6" max="6" width="4.54296875" customWidth="1"/>
+    <col min="7" max="7" width="57.81640625" customWidth="1"/>
+    <col min="8" max="8" width="12.54296875" customWidth="1"/>
+    <col min="9" max="9" width="18.7265625" customWidth="1"/>
+    <col min="10" max="10" width="24.453125" customWidth="1"/>
+    <col min="11" max="11" width="22.26953125" customWidth="1"/>
+    <col min="12" max="12" width="19.81640625" customWidth="1"/>
+    <col min="13" max="13" width="25.26953125" customWidth="1"/>
     <col min="14" max="14" width="21" customWidth="1"/>
-    <col min="15" max="15" width="35.5703125" customWidth="1"/>
-    <col min="16" max="16" width="21.85546875" customWidth="1"/>
-    <col min="17" max="17" width="22.28515625" customWidth="1"/>
-    <col min="18" max="18" width="18.5703125" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" customWidth="1"/>
-    <col min="20" max="20" width="19.28515625" customWidth="1"/>
-    <col min="21" max="21" width="34.5703125" customWidth="1"/>
+    <col min="15" max="15" width="35.54296875" customWidth="1"/>
+    <col min="16" max="16" width="21.81640625" customWidth="1"/>
+    <col min="17" max="17" width="22.26953125" customWidth="1"/>
+    <col min="18" max="18" width="18.54296875" customWidth="1"/>
+    <col min="19" max="19" width="20.7265625" customWidth="1"/>
+    <col min="20" max="20" width="19.26953125" customWidth="1"/>
+    <col min="21" max="21" width="34.54296875" customWidth="1"/>
     <col min="22" max="22" width="26" customWidth="1"/>
-    <col min="24" max="24" width="16.140625" customWidth="1"/>
-    <col min="25" max="25" width="20.28515625" customWidth="1"/>
-    <col min="26" max="26" width="68.7109375" customWidth="1"/>
-    <col min="28" max="28" width="41.85546875" customWidth="1"/>
-    <col min="29" max="29" width="29.5703125" customWidth="1"/>
-    <col min="30" max="30" width="27" customWidth="1"/>
+    <col min="24" max="24" width="16.1796875" customWidth="1"/>
+    <col min="25" max="25" width="20.26953125" customWidth="1"/>
+    <col min="26" max="26" width="68.7265625" customWidth="1"/>
+    <col min="28" max="28" width="41.81640625" customWidth="1"/>
+    <col min="29" max="29" width="24.81640625" customWidth="1"/>
+    <col min="30" max="30" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:31">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>58</v>
@@ -1226,7 +1260,7 @@
         <v>6</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>28</v>
@@ -1274,19 +1308,22 @@
         <v>63</v>
       </c>
       <c r="AA1" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AB1" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AC1" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AD1" s="6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+        <v>204</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
       <c r="A2" s="3">
         <v>45817</v>
       </c>
@@ -1356,7 +1393,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:31">
       <c r="A3" s="3">
         <v>45818</v>
       </c>
@@ -1426,7 +1463,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="22.5" customHeight="1">
+    <row r="4" spans="1:31" ht="22.5" customHeight="1">
       <c r="A4" s="3">
         <v>45819</v>
       </c>
@@ -1496,7 +1533,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="20.25" customHeight="1">
+    <row r="5" spans="1:31" ht="20.25" customHeight="1">
       <c r="A5" s="3">
         <v>45820</v>
       </c>
@@ -1566,7 +1603,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="30">
+    <row r="6" spans="1:31" ht="29">
       <c r="A6" s="3">
         <v>45821</v>
       </c>
@@ -1627,7 +1664,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:31">
       <c r="A7" s="3">
         <v>45822</v>
       </c>
@@ -1691,7 +1728,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="30">
+    <row r="8" spans="1:31" ht="29">
       <c r="A8" s="3">
         <v>45823</v>
       </c>
@@ -1761,7 +1798,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="30">
+    <row r="9" spans="1:31" ht="29">
       <c r="A9" s="3">
         <v>45824</v>
       </c>
@@ -1831,7 +1868,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="30">
+    <row r="10" spans="1:31" ht="29">
       <c r="A10" s="3">
         <v>45825</v>
       </c>
@@ -1898,7 +1935,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:31">
       <c r="A11" s="3">
         <v>45826</v>
       </c>
@@ -1968,7 +2005,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:31">
       <c r="A12" s="3">
         <v>45827</v>
       </c>
@@ -2032,7 +2069,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:31">
       <c r="A13" s="3">
         <v>45828</v>
       </c>
@@ -2102,7 +2139,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:31">
       <c r="A14" s="3">
         <v>45829</v>
       </c>
@@ -2172,7 +2209,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:31">
       <c r="A15" s="3">
         <v>45830</v>
       </c>
@@ -2242,7 +2279,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:31">
       <c r="A16" s="3">
         <v>45831</v>
       </c>
@@ -2867,8 +2904,8 @@
       <c r="L24">
         <v>2.6</v>
       </c>
-      <c r="M24" t="s">
-        <v>66</v>
+      <c r="M24">
+        <v>35</v>
       </c>
       <c r="N24">
         <v>60</v>
@@ -2928,7 +2965,7 @@
         <v>0.97916666666666663</v>
       </c>
       <c r="G25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -3006,7 +3043,7 @@
         <v>0.97916666666666663</v>
       </c>
       <c r="G26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -3087,7 +3124,7 @@
         <v>0.9375</v>
       </c>
       <c r="G27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -3104,8 +3141,8 @@
       <c r="L27">
         <v>3</v>
       </c>
-      <c r="M27" t="s">
-        <v>99</v>
+      <c r="M27">
+        <v>25</v>
       </c>
       <c r="N27">
         <v>20</v>
@@ -3168,7 +3205,7 @@
         <v>0.98958333333333337</v>
       </c>
       <c r="G28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -3234,7 +3271,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:30" ht="18">
+    <row r="29" spans="1:30" ht="17.5">
       <c r="A29" s="3">
         <v>45844</v>
       </c>
@@ -3251,7 +3288,7 @@
         <v>0.98263888888888884</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3317,7 +3354,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:30" ht="15.75">
+    <row r="30" spans="1:30" ht="15.5">
       <c r="A30" s="3">
         <v>45845</v>
       </c>
@@ -3334,7 +3371,7 @@
         <v>6.9444444444444448E-2</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3417,7 +3454,7 @@
         <v>0.94097222222222221</v>
       </c>
       <c r="G31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3503,7 +3540,7 @@
         <v>0.92500000000000004</v>
       </c>
       <c r="G32" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3572,7 +3609,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:30">
+    <row r="33" spans="1:31">
       <c r="A33" s="3">
         <v>45848</v>
       </c>
@@ -3589,7 +3626,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="G33" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -3661,7 +3698,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:30">
+    <row r="34" spans="1:31">
       <c r="A34" s="3">
         <v>45849</v>
       </c>
@@ -3678,7 +3715,7 @@
         <v>0.9375</v>
       </c>
       <c r="G34" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3720,7 +3757,7 @@
         <v>2.9</v>
       </c>
       <c r="V34" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="W34" t="s">
         <v>18</v>
@@ -3747,7 +3784,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:30">
+    <row r="35" spans="1:31">
       <c r="A35" s="3">
         <v>45850</v>
       </c>
@@ -3764,7 +3801,7 @@
         <v>0.97916666666666663</v>
       </c>
       <c r="G35" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3809,10 +3846,34 @@
         <v>2.7</v>
       </c>
       <c r="V35" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="36" spans="1:30">
+        <v>201</v>
+      </c>
+      <c r="W35" t="s">
+        <v>18</v>
+      </c>
+      <c r="X35" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB35" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31">
       <c r="A36" s="3">
         <v>45851</v>
       </c>
@@ -3829,13 +3890,1982 @@
         <v>0.99305555555555558</v>
       </c>
       <c r="G36" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I36" t="s">
+        <v>18</v>
+      </c>
+      <c r="J36" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36">
+        <v>3.45</v>
+      </c>
+      <c r="L36">
+        <v>3.6</v>
+      </c>
+      <c r="M36">
+        <v>90</v>
+      </c>
+      <c r="N36">
+        <v>40</v>
+      </c>
+      <c r="O36" t="s">
+        <v>17</v>
+      </c>
+      <c r="P36" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>17</v>
+      </c>
+      <c r="R36" t="s">
+        <v>17</v>
       </c>
       <c r="S36" t="s">
         <v>17</v>
+      </c>
+      <c r="T36" t="s">
+        <v>17</v>
+      </c>
+      <c r="U36">
+        <v>2.7</v>
+      </c>
+      <c r="W36" t="s">
+        <v>18</v>
+      </c>
+      <c r="X36" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB36" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31">
+      <c r="A37" s="3">
+        <v>45852</v>
+      </c>
+      <c r="B37" s="3">
+        <v>45853</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0.34375</v>
+      </c>
+      <c r="E37" s="2">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="G37" t="s">
+        <v>210</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37" t="s">
+        <v>18</v>
+      </c>
+      <c r="J37" t="s">
+        <v>18</v>
+      </c>
+      <c r="K37">
+        <v>3.15</v>
+      </c>
+      <c r="L37">
+        <v>3.6</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37" t="s">
+        <v>18</v>
+      </c>
+      <c r="P37" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>17</v>
+      </c>
+      <c r="R37" t="s">
+        <v>17</v>
+      </c>
+      <c r="S37" t="s">
+        <v>17</v>
+      </c>
+      <c r="T37" t="s">
+        <v>18</v>
+      </c>
+      <c r="U37">
+        <v>2.6</v>
+      </c>
+      <c r="W37" t="s">
+        <v>18</v>
+      </c>
+      <c r="X37" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB37" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31">
+      <c r="A38" s="3">
+        <v>45853</v>
+      </c>
+      <c r="B38" s="3">
+        <v>45853</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.80902777777777779</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="E38" s="2">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="G38" t="s">
+        <v>211</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38" t="s">
+        <v>18</v>
+      </c>
+      <c r="J38" t="s">
+        <v>18</v>
+      </c>
+      <c r="K38">
+        <v>3.1</v>
+      </c>
+      <c r="L38">
+        <v>3.7</v>
+      </c>
+      <c r="M38">
+        <v>20</v>
+      </c>
+      <c r="O38" t="s">
+        <v>18</v>
+      </c>
+      <c r="P38" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>17</v>
+      </c>
+      <c r="R38" t="s">
+        <v>17</v>
+      </c>
+      <c r="S38" t="s">
+        <v>18</v>
+      </c>
+      <c r="T38" t="s">
+        <v>17</v>
+      </c>
+      <c r="U38">
+        <v>2.5</v>
+      </c>
+      <c r="W38" t="s">
+        <v>17</v>
+      </c>
+      <c r="X38" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB38" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31">
+      <c r="A39" s="3">
+        <v>45854</v>
+      </c>
+      <c r="B39" s="3">
+        <v>45855</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39" t="s">
+        <v>18</v>
+      </c>
+      <c r="J39" t="s">
+        <v>18</v>
+      </c>
+      <c r="K39">
+        <v>3.3</v>
+      </c>
+      <c r="L39">
+        <v>3.7</v>
+      </c>
+      <c r="M39">
+        <v>20</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39" t="s">
+        <v>18</v>
+      </c>
+      <c r="P39" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>18</v>
+      </c>
+      <c r="R39" t="s">
+        <v>17</v>
+      </c>
+      <c r="S39" t="s">
+        <v>18</v>
+      </c>
+      <c r="T39" t="s">
+        <v>18</v>
+      </c>
+      <c r="U39">
+        <v>2.4</v>
+      </c>
+      <c r="W39" t="s">
+        <v>18</v>
+      </c>
+      <c r="X39" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB39" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31">
+      <c r="A40" s="3">
+        <v>45855</v>
+      </c>
+      <c r="B40" s="3">
+        <v>45855</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.74583333333333335</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0.34375</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" t="s">
+        <v>18</v>
+      </c>
+      <c r="K40">
+        <v>3.4</v>
+      </c>
+      <c r="L40">
+        <v>3.7</v>
+      </c>
+      <c r="M40">
+        <v>10</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40" t="s">
+        <v>18</v>
+      </c>
+      <c r="P40" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>18</v>
+      </c>
+      <c r="R40" t="s">
+        <v>17</v>
+      </c>
+      <c r="S40" t="s">
+        <v>18</v>
+      </c>
+      <c r="T40" t="s">
+        <v>18</v>
+      </c>
+      <c r="U40">
+        <v>2.4</v>
+      </c>
+      <c r="W40" t="s">
+        <v>18</v>
+      </c>
+      <c r="X40" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB40" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31">
+      <c r="A41" s="3">
+        <v>45856</v>
+      </c>
+      <c r="B41" s="3">
+        <v>45856</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.37777777777777777</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="E41" s="16">
+        <v>9.375E-2</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41" t="s">
+        <v>18</v>
+      </c>
+      <c r="K41">
+        <v>3.5</v>
+      </c>
+      <c r="L41">
+        <v>3.5</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41" t="s">
+        <v>18</v>
+      </c>
+      <c r="P41" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>17</v>
+      </c>
+      <c r="R41" t="s">
+        <v>17</v>
+      </c>
+      <c r="S41" t="s">
+        <v>17</v>
+      </c>
+      <c r="T41" t="s">
+        <v>18</v>
+      </c>
+      <c r="U41">
+        <v>2.5</v>
+      </c>
+      <c r="W41" t="s">
+        <v>18</v>
+      </c>
+      <c r="X41" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB41" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31">
+      <c r="A42" s="3">
+        <v>45857</v>
+      </c>
+      <c r="B42" s="3">
+        <v>45858</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0.27430555555555558</v>
+      </c>
+      <c r="E42" s="2">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="H42">
+        <v>3</v>
+      </c>
+      <c r="I42" t="s">
+        <v>18</v>
+      </c>
+      <c r="J42" t="s">
+        <v>18</v>
+      </c>
+      <c r="K42">
+        <v>3.6</v>
+      </c>
+      <c r="L42">
+        <v>3.5</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42" t="s">
+        <v>18</v>
+      </c>
+      <c r="P42" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>18</v>
+      </c>
+      <c r="R42" t="s">
+        <v>17</v>
+      </c>
+      <c r="S42" t="s">
+        <v>18</v>
+      </c>
+      <c r="T42" t="s">
+        <v>18</v>
+      </c>
+      <c r="U42">
+        <v>3.9</v>
+      </c>
+      <c r="W42" t="s">
+        <v>18</v>
+      </c>
+      <c r="X42" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB42" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31">
+      <c r="A43" s="3">
+        <v>45858</v>
+      </c>
+      <c r="B43" s="3">
+        <v>45858</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0.99305555555555558</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43" t="s">
+        <v>18</v>
+      </c>
+      <c r="J43" t="s">
+        <v>18</v>
+      </c>
+      <c r="K43">
+        <v>3.5</v>
+      </c>
+      <c r="L43">
+        <v>3.7</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43" t="s">
+        <v>18</v>
+      </c>
+      <c r="P43" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>18</v>
+      </c>
+      <c r="R43" t="s">
+        <v>17</v>
+      </c>
+      <c r="S43" t="s">
+        <v>18</v>
+      </c>
+      <c r="T43" t="s">
+        <v>18</v>
+      </c>
+      <c r="U43">
+        <v>4</v>
+      </c>
+      <c r="W43" t="s">
+        <v>18</v>
+      </c>
+      <c r="X43" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB43" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31">
+      <c r="A44" s="3">
+        <v>45859</v>
+      </c>
+      <c r="B44" s="3">
+        <v>45861</v>
+      </c>
+      <c r="E44" t="s">
+        <v>215</v>
+      </c>
+      <c r="G44" t="s">
+        <v>217</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44" t="s">
+        <v>18</v>
+      </c>
+      <c r="J44" t="s">
+        <v>18</v>
+      </c>
+      <c r="K44">
+        <v>3.5</v>
+      </c>
+      <c r="L44">
+        <v>3.7</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44" t="s">
+        <v>18</v>
+      </c>
+      <c r="P44" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>18</v>
+      </c>
+      <c r="R44" t="s">
+        <v>18</v>
+      </c>
+      <c r="S44" t="s">
+        <v>18</v>
+      </c>
+      <c r="T44" t="s">
+        <v>18</v>
+      </c>
+      <c r="U44">
+        <v>4</v>
+      </c>
+      <c r="W44" t="s">
+        <v>18</v>
+      </c>
+      <c r="X44" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB44" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31">
+      <c r="A45" s="3">
+        <v>45860</v>
+      </c>
+      <c r="B45" s="3">
+        <v>45861</v>
+      </c>
+      <c r="G45" t="s">
+        <v>216</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45" t="s">
+        <v>18</v>
+      </c>
+      <c r="J45" t="s">
+        <v>18</v>
+      </c>
+      <c r="K45">
+        <v>3.4</v>
+      </c>
+      <c r="L45">
+        <v>3.7</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45" t="s">
+        <v>18</v>
+      </c>
+      <c r="P45" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>18</v>
+      </c>
+      <c r="R45" t="s">
+        <v>18</v>
+      </c>
+      <c r="S45" t="s">
+        <v>18</v>
+      </c>
+      <c r="T45" t="s">
+        <v>18</v>
+      </c>
+      <c r="U45">
+        <v>4</v>
+      </c>
+      <c r="W45" t="s">
+        <v>18</v>
+      </c>
+      <c r="X45" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB45" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31">
+      <c r="A46" s="3">
+        <v>45861</v>
+      </c>
+      <c r="B46" s="3">
+        <v>45861</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0.84930555555555554</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="E46" s="2">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="G46" t="s">
+        <v>218</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46" t="s">
+        <v>18</v>
+      </c>
+      <c r="J46" t="s">
+        <v>18</v>
+      </c>
+      <c r="K46">
+        <v>3.3</v>
+      </c>
+      <c r="L46">
+        <v>3.7</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="O46" t="s">
+        <v>17</v>
+      </c>
+      <c r="P46" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>18</v>
+      </c>
+      <c r="R46" t="s">
+        <v>18</v>
+      </c>
+      <c r="S46" t="s">
+        <v>18</v>
+      </c>
+      <c r="T46" t="s">
+        <v>18</v>
+      </c>
+      <c r="U46">
+        <v>4</v>
+      </c>
+      <c r="W46" t="s">
+        <v>18</v>
+      </c>
+      <c r="X46" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB46" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31">
+      <c r="A47" s="3">
+        <v>45862</v>
+      </c>
+      <c r="B47" s="3">
+        <v>45863</v>
+      </c>
+      <c r="G47" t="s">
+        <v>219</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47" t="s">
+        <v>18</v>
+      </c>
+      <c r="J47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K47">
+        <v>3.4</v>
+      </c>
+      <c r="L47">
+        <v>2.5</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47" t="s">
+        <v>18</v>
+      </c>
+      <c r="P47" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>18</v>
+      </c>
+      <c r="R47" t="s">
+        <v>18</v>
+      </c>
+      <c r="S47" t="s">
+        <v>17</v>
+      </c>
+      <c r="T47" t="s">
+        <v>18</v>
+      </c>
+      <c r="U47">
+        <v>4</v>
+      </c>
+      <c r="W47" t="s">
+        <v>18</v>
+      </c>
+      <c r="X47" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB47" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31">
+      <c r="A48" s="3">
+        <v>45863</v>
+      </c>
+      <c r="B48" s="3">
+        <v>45863</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="E48" s="2">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="G48" t="s">
+        <v>221</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="I48" t="s">
+        <v>18</v>
+      </c>
+      <c r="J48" t="s">
+        <v>18</v>
+      </c>
+      <c r="K48">
+        <v>3.5</v>
+      </c>
+      <c r="L48">
+        <v>2.5</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>40</v>
+      </c>
+      <c r="O48" t="s">
+        <v>18</v>
+      </c>
+      <c r="P48" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>18</v>
+      </c>
+      <c r="R48" t="s">
+        <v>18</v>
+      </c>
+      <c r="S48" t="s">
+        <v>18</v>
+      </c>
+      <c r="T48" t="s">
+        <v>18</v>
+      </c>
+      <c r="U48">
+        <v>4</v>
+      </c>
+      <c r="W48" t="s">
+        <v>18</v>
+      </c>
+      <c r="X48" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB48" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31">
+      <c r="A49" s="3">
+        <v>45864</v>
+      </c>
+      <c r="B49" s="3">
+        <v>45866</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E49" s="2">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49" t="s">
+        <v>18</v>
+      </c>
+      <c r="J49" t="s">
+        <v>18</v>
+      </c>
+      <c r="K49">
+        <v>3.5</v>
+      </c>
+      <c r="L49">
+        <v>3.5</v>
+      </c>
+      <c r="M49">
+        <v>5</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49" t="s">
+        <v>18</v>
+      </c>
+      <c r="P49" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>18</v>
+      </c>
+      <c r="R49" t="s">
+        <v>17</v>
+      </c>
+      <c r="S49" t="s">
+        <v>17</v>
+      </c>
+      <c r="T49" t="s">
+        <v>18</v>
+      </c>
+      <c r="U49">
+        <v>4</v>
+      </c>
+      <c r="W49" t="s">
+        <v>17</v>
+      </c>
+      <c r="X49" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB49" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31">
+      <c r="A50" s="3">
+        <v>45865</v>
+      </c>
+      <c r="B50" s="3">
+        <v>45866</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="E50" s="2">
+        <v>3.125E-2</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50" t="s">
+        <v>18</v>
+      </c>
+      <c r="J50" t="s">
+        <v>18</v>
+      </c>
+      <c r="K50">
+        <v>3.6</v>
+      </c>
+      <c r="L50">
+        <v>3.1</v>
+      </c>
+      <c r="M50">
+        <v>20</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50" t="s">
+        <v>18</v>
+      </c>
+      <c r="P50" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>18</v>
+      </c>
+      <c r="R50" t="s">
+        <v>18</v>
+      </c>
+      <c r="S50" t="s">
+        <v>18</v>
+      </c>
+      <c r="T50" t="s">
+        <v>18</v>
+      </c>
+      <c r="U50">
+        <v>4</v>
+      </c>
+      <c r="W50" t="s">
+        <v>17</v>
+      </c>
+      <c r="X50" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB50" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31">
+      <c r="A51" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B51" s="3">
+        <v>45866</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0.90277777777777779</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="G51" t="s">
+        <v>220</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51" t="s">
+        <v>18</v>
+      </c>
+      <c r="J51" t="s">
+        <v>18</v>
+      </c>
+      <c r="K51">
+        <v>3.2</v>
+      </c>
+      <c r="L51">
+        <v>3.5</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51" t="s">
+        <v>18</v>
+      </c>
+      <c r="P51" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>18</v>
+      </c>
+      <c r="R51" t="s">
+        <v>18</v>
+      </c>
+      <c r="S51" t="s">
+        <v>18</v>
+      </c>
+      <c r="T51" t="s">
+        <v>18</v>
+      </c>
+      <c r="U51">
+        <v>4</v>
+      </c>
+      <c r="W51" t="s">
+        <v>17</v>
+      </c>
+      <c r="X51" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB51" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31">
+      <c r="A52" s="3">
+        <v>45867</v>
+      </c>
+      <c r="B52" s="3">
+        <v>45874</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52" t="s">
+        <v>18</v>
+      </c>
+      <c r="J52" t="s">
+        <v>18</v>
+      </c>
+      <c r="L52">
+        <v>4</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52" t="s">
+        <v>18</v>
+      </c>
+      <c r="P52" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>18</v>
+      </c>
+      <c r="R52" t="s">
+        <v>18</v>
+      </c>
+      <c r="T52" t="s">
+        <v>18</v>
+      </c>
+      <c r="U52">
+        <v>4</v>
+      </c>
+      <c r="W52" t="s">
+        <v>17</v>
+      </c>
+      <c r="X52" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB52" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31">
+      <c r="A53" s="3">
+        <v>45868</v>
+      </c>
+      <c r="B53" s="3">
+        <v>45874</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53" t="s">
+        <v>18</v>
+      </c>
+      <c r="J53" t="s">
+        <v>18</v>
+      </c>
+      <c r="L53">
+        <v>4</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53" t="s">
+        <v>18</v>
+      </c>
+      <c r="P53" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>18</v>
+      </c>
+      <c r="R53" t="s">
+        <v>18</v>
+      </c>
+      <c r="T53" t="s">
+        <v>18</v>
+      </c>
+      <c r="U53">
+        <v>4</v>
+      </c>
+      <c r="W53" t="s">
+        <v>17</v>
+      </c>
+      <c r="X53" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB53" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31">
+      <c r="A54" s="3">
+        <v>45869</v>
+      </c>
+      <c r="B54" s="3">
+        <v>45874</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54" t="s">
+        <v>18</v>
+      </c>
+      <c r="J54" t="s">
+        <v>18</v>
+      </c>
+      <c r="L54">
+        <v>4</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54" t="s">
+        <v>18</v>
+      </c>
+      <c r="P54" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>18</v>
+      </c>
+      <c r="R54" t="s">
+        <v>18</v>
+      </c>
+      <c r="T54" t="s">
+        <v>18</v>
+      </c>
+      <c r="U54">
+        <v>4</v>
+      </c>
+      <c r="W54" t="s">
+        <v>18</v>
+      </c>
+      <c r="X54" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB54" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31">
+      <c r="A55" s="3">
+        <v>45870</v>
+      </c>
+      <c r="B55" s="3">
+        <v>45874</v>
+      </c>
+      <c r="D55" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="E55" s="2">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55" t="s">
+        <v>18</v>
+      </c>
+      <c r="J55" t="s">
+        <v>18</v>
+      </c>
+      <c r="L55">
+        <v>4</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55" t="s">
+        <v>18</v>
+      </c>
+      <c r="P55" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>18</v>
+      </c>
+      <c r="R55" t="s">
+        <v>18</v>
+      </c>
+      <c r="T55" t="s">
+        <v>18</v>
+      </c>
+      <c r="U55">
+        <v>4</v>
+      </c>
+      <c r="W55" t="s">
+        <v>17</v>
+      </c>
+      <c r="X55" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB55" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31">
+      <c r="A56" s="3">
+        <v>45871</v>
+      </c>
+      <c r="B56" s="3">
+        <v>45874</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56" t="s">
+        <v>18</v>
+      </c>
+      <c r="J56" t="s">
+        <v>18</v>
+      </c>
+      <c r="L56">
+        <v>4</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56" t="s">
+        <v>18</v>
+      </c>
+      <c r="P56" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>18</v>
+      </c>
+      <c r="R56" t="s">
+        <v>18</v>
+      </c>
+      <c r="T56" t="s">
+        <v>18</v>
+      </c>
+      <c r="U56">
+        <v>4</v>
+      </c>
+      <c r="W56" t="s">
+        <v>17</v>
+      </c>
+      <c r="X56" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB56" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31">
+      <c r="A57" s="3">
+        <v>45872</v>
+      </c>
+      <c r="B57" s="3">
+        <v>45874</v>
+      </c>
+      <c r="H57">
+        <v>2</v>
+      </c>
+      <c r="I57" t="s">
+        <v>18</v>
+      </c>
+      <c r="J57" t="s">
+        <v>18</v>
+      </c>
+      <c r="L57">
+        <v>4</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57" t="s">
+        <v>18</v>
+      </c>
+      <c r="P57" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>18</v>
+      </c>
+      <c r="R57" t="s">
+        <v>18</v>
+      </c>
+      <c r="T57" t="s">
+        <v>18</v>
+      </c>
+      <c r="U57">
+        <v>4</v>
+      </c>
+      <c r="W57" t="s">
+        <v>17</v>
+      </c>
+      <c r="X57" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB57" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31">
+      <c r="A58" s="3">
+        <v>45873</v>
+      </c>
+      <c r="B58" s="3">
+        <v>45874</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58" t="s">
+        <v>18</v>
+      </c>
+      <c r="J58" t="s">
+        <v>18</v>
+      </c>
+      <c r="K58">
+        <v>3</v>
+      </c>
+      <c r="L58">
+        <v>4</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58" t="s">
+        <v>18</v>
+      </c>
+      <c r="P58" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>18</v>
+      </c>
+      <c r="R58" t="s">
+        <v>18</v>
+      </c>
+      <c r="T58" t="s">
+        <v>18</v>
+      </c>
+      <c r="U58">
+        <v>4</v>
+      </c>
+      <c r="W58" t="s">
+        <v>17</v>
+      </c>
+      <c r="X58" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB58" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31">
+      <c r="A59" s="3">
+        <v>45874</v>
+      </c>
+      <c r="B59" s="3">
+        <v>45874</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0.86805555555555558</v>
+      </c>
+      <c r="D59" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E59" s="2">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59" t="s">
+        <v>18</v>
+      </c>
+      <c r="J59" t="s">
+        <v>18</v>
+      </c>
+      <c r="K59">
+        <v>3</v>
+      </c>
+      <c r="L59">
+        <v>4</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59" t="s">
+        <v>18</v>
+      </c>
+      <c r="P59" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>18</v>
+      </c>
+      <c r="R59" t="s">
+        <v>18</v>
+      </c>
+      <c r="S59" t="s">
+        <v>17</v>
+      </c>
+      <c r="T59" t="s">
+        <v>18</v>
+      </c>
+      <c r="U59">
+        <v>4</v>
+      </c>
+      <c r="W59" t="s">
+        <v>17</v>
+      </c>
+      <c r="X59" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB59" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31">
+      <c r="A60" s="3"/>
+      <c r="H60">
+        <v>2</v>
+      </c>
+      <c r="I60" t="s">
+        <v>18</v>
+      </c>
+      <c r="J60" t="s">
+        <v>18</v>
+      </c>
+      <c r="K60">
+        <v>3.1</v>
+      </c>
+      <c r="L60">
+        <v>3</v>
+      </c>
+      <c r="M60">
+        <v>60</v>
+      </c>
+      <c r="O60" t="s">
+        <v>18</v>
+      </c>
+      <c r="P60" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>18</v>
+      </c>
+      <c r="R60" t="s">
+        <v>18</v>
+      </c>
+      <c r="S60" t="s">
+        <v>18</v>
+      </c>
+      <c r="T60" t="s">
+        <v>18</v>
+      </c>
+      <c r="U60">
+        <v>4</v>
+      </c>
+      <c r="W60" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB60" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -3845,16 +5875,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93705B71-B67A-491B-A5BA-4FFCED5EBDF0}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView zoomScale="98" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="3" max="3" width="57.5703125" customWidth="1"/>
-    <col min="4" max="4" width="33.85546875" customWidth="1"/>
+    <col min="3" max="3" width="57.54296875" customWidth="1"/>
+    <col min="4" max="4" width="33.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3871,7 +5901,7 @@
         <v>53</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3888,7 +5918,7 @@
         <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3902,7 +5932,7 @@
         <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3913,7 +5943,7 @@
         <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3924,13 +5954,13 @@
         <v>0.48680555555555555</v>
       </c>
       <c r="C5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3941,13 +5971,13 @@
         <v>0.37222222222222223</v>
       </c>
       <c r="C6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3958,13 +5988,13 @@
         <v>0.7729166666666667</v>
       </c>
       <c r="C7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" t="s">
         <v>200</v>
       </c>
-      <c r="D7" t="s">
-        <v>202</v>
-      </c>
       <c r="E7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3972,7 +6002,32 @@
         <v>45849</v>
       </c>
       <c r="C8" t="s">
-        <v>201</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3">
+        <v>45853</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.8305555555555556</v>
+      </c>
+      <c r="C9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3">
+        <v>45853</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.83125000000000004</v>
+      </c>
+      <c r="C10" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -3988,7 +6043,7 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="3" max="3" width="52" customWidth="1"/>
   </cols>
@@ -4001,7 +6056,7 @@
         <v>52</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4012,7 +6067,7 @@
         <v>0.85</v>
       </c>
       <c r="C2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4023,7 +6078,7 @@
         <v>0.8520833333333333</v>
       </c>
       <c r="C3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4034,7 +6089,7 @@
         <v>0.85624999999999996</v>
       </c>
       <c r="C4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -4050,31 +6105,31 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.7265625" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" customWidth="1"/>
+    <col min="5" max="5" width="22.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>71</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>52</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4082,7 +6137,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2">
         <v>80</v>
@@ -4093,7 +6148,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E3">
         <v>90</v>
@@ -4104,7 +6159,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E4">
         <v>90</v>
@@ -4115,7 +6170,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5">
         <v>100</v>
@@ -4126,7 +6181,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4134,7 +6189,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E7">
         <v>85</v>
@@ -4145,7 +6200,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E8">
         <v>30</v>
@@ -4156,7 +6211,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4164,7 +6219,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4172,7 +6227,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E11">
         <v>60</v>
@@ -4183,7 +6238,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4191,7 +6246,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E13">
         <v>90</v>
@@ -4202,7 +6257,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E14">
         <v>100</v>
@@ -4213,7 +6268,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E15">
         <v>65</v>
@@ -4224,7 +6279,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E16">
         <v>100</v>
@@ -4235,7 +6290,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E17">
         <v>25</v>
@@ -4246,7 +6301,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E18">
         <v>90</v>
@@ -4257,7 +6312,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E19">
         <v>90</v>
@@ -4268,7 +6323,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E20">
         <v>100</v>
@@ -4279,7 +6334,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -4287,7 +6342,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E22">
         <v>90</v>
@@ -4298,7 +6353,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E23">
         <v>15</v>
@@ -4309,7 +6364,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E24">
         <v>100</v>
@@ -4320,7 +6375,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E25">
         <v>30</v>
@@ -4331,7 +6386,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E26">
         <v>25</v>
@@ -4342,7 +6397,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -4350,7 +6405,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E28">
         <v>40</v>
@@ -4361,7 +6416,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -4369,7 +6424,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -4377,7 +6432,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E31">
         <v>90</v>
@@ -4388,7 +6443,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4396,7 +6451,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4404,7 +6459,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -4412,7 +6467,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -4420,7 +6475,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -4428,7 +6483,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -4436,7 +6491,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4444,7 +6499,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4452,7 +6507,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -4460,7 +6515,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -4468,7 +6523,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4476,7 +6531,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -4484,7 +6539,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -4492,7 +6547,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -4500,7 +6555,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -4508,7 +6563,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -4516,7 +6571,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -4524,7 +6579,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -4532,7 +6587,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -4540,7 +6595,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -4548,7 +6603,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -4556,7 +6611,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -4564,7 +6619,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -4572,7 +6627,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -4580,7 +6635,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -4588,7 +6643,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -4596,7 +6651,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -4604,7 +6659,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -4612,7 +6667,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -4620,7 +6675,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -4628,7 +6683,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -4636,7 +6691,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -4644,7 +6699,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -4652,7 +6707,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -4660,7 +6715,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -4668,7 +6723,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -4676,7 +6731,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -4684,7 +6739,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -4692,7 +6747,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -4700,7 +6755,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -4708,7 +6763,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -4716,7 +6771,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -4724,7 +6779,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -4732,7 +6787,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -4740,7 +6795,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -4748,7 +6803,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -4756,7 +6811,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -4764,7 +6819,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -4772,7 +6827,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -4784,35 +6839,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{907FE1E3-15BE-44A0-A847-47C9BA7C5DB3}">
   <dimension ref="E6:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="5:7">
       <c r="E6" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="5:7">
       <c r="E8" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>58</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9" spans="5:7" ht="120">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="5:7" ht="101.5">
       <c r="E9" s="3">
         <v>45845</v>
       </c>
@@ -4820,7 +6875,7 @@
         <v>0.76458333333333328</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="5:7">
@@ -4839,7 +6894,7 @@
         <v>0.36527777777777776</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="5:7">
@@ -4858,13 +6913,13 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" customWidth="1"/>
+    <col min="9" max="9" width="9.54296875" customWidth="1"/>
+    <col min="11" max="11" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -4875,40 +6930,40 @@
         <v>52</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="E1" s="7" t="s">
+      <c r="I1" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -5031,19 +7086,19 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="5" spans="5:6">
       <c r="E5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="5:6">
       <c r="E6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F6" s="12">
         <v>35637</v>
@@ -5056,17 +7111,17 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C931137D-A4D7-4271-AEE2-428C8913AAD2}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" customWidth="1"/>
-    <col min="5" max="5" width="46.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.1796875" customWidth="1"/>
+    <col min="4" max="4" width="36.54296875" customWidth="1"/>
+    <col min="5" max="5" width="46.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -5077,13 +7132,13 @@
         <v>52</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5108,10 +7163,10 @@
         <v>45847</v>
       </c>
       <c r="D6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5122,13 +7177,18 @@
         <v>0.81111111111111112</v>
       </c>
       <c r="C8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E8" t="s">
         <v>190</v>
       </c>
-      <c r="D8" t="s">
-        <v>191</v>
-      </c>
-      <c r="E8" t="s">
-        <v>192</v>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3">
+        <v>45855</v>
       </c>
     </row>
   </sheetData>
